--- a/trainingData/2020-5-19.xlsx
+++ b/trainingData/2020-5-19.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,37 +424,82 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ring 1 (Sun)</t>
+          <t>Ring 1 (Sun) NW</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Ring 2</t>
+          <t>Ring 1 (Sun) NW</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ring 3</t>
+          <t>Ring 1 (Sun) NW</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Ring 4</t>
+          <t>Ring 1 (Sun) NW</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Ring 5</t>
+          <t>Ring 2 NW</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Ring 6</t>
+          <t>Ring 2 NE</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Ring 7</t>
+          <t>Ring 2 SE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ring 2 SW</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Ring 3 NW</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ring 3 NE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Ring 3 SE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Ring 3 SW</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Ring 4 NW</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Ring 4 NE</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Ring 4 SE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Ring 4 SW</t>
         </is>
       </c>
     </row>
@@ -463,22 +508,49 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>73.56404085084239</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>35.72124117525888</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>10.30184799628337</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>33.8904090464889</v>
+        <v>41.88429031879654</v>
       </c>
       <c r="F2" t="n">
-        <v>50.55133823411764</v>
+        <v>87.67102551263987</v>
       </c>
       <c r="G2" t="n">
-        <v>59.24407889635758</v>
+        <v>98.76156650154221</v>
+      </c>
+      <c r="H2" t="n">
+        <v>71.78536116681656</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.77349515007444</v>
+      </c>
+      <c r="J2" t="n">
+        <v>79.80329605785953</v>
+      </c>
+      <c r="K2" t="n">
+        <v>83.55733200099925</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43.25986466392258</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20.5480008210088</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>30.86203663186848</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +561,46 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>57.80416097076834</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>11.59578952802106</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4841546837917</v>
+        <v>54.22445912957987</v>
       </c>
       <c r="F3" t="n">
-        <v>51.60456780861882</v>
+        <v>95.11223171303443</v>
       </c>
       <c r="G3" t="n">
-        <v>59.60832876324588</v>
+        <v>98.68424060906742</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80.65602708122692</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.508593396653097</v>
+      </c>
+      <c r="J3" t="n">
+        <v>77.18747264291342</v>
+      </c>
+      <c r="K3" t="n">
+        <v>86.68725617685305</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42.47731861623368</v>
+      </c>
+      <c r="M3" t="n">
+        <v>17.98639182962899</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>100</v>
+      </c>
+      <c r="P3" t="n">
+        <v>46.8631280280278</v>
       </c>
     </row>
     <row r="4">
@@ -512,19 +611,46 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>74.28840283889815</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>30.29599772871964</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>41.08125087253944</v>
+        <v>64.01403218688728</v>
       </c>
       <c r="F4" t="n">
-        <v>55.50355095589407</v>
+        <v>95.85967820520719</v>
       </c>
       <c r="G4" t="n">
-        <v>66.44225915934209</v>
+        <v>99.49701510073686</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94.21395733366104</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.24842568337053</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86.0146913492201</v>
+      </c>
+      <c r="K4" t="n">
+        <v>92.54536281553905</v>
+      </c>
+      <c r="L4" t="n">
+        <v>61.23058285098936</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24.90384413781214</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>95.35714285714286</v>
+      </c>
+      <c r="P4" t="n">
+        <v>48.21487552351466</v>
       </c>
     </row>
     <row r="5">
@@ -532,22 +658,49 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>75.34638652182397</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>18.83859852811746</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>9.482810537364287</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>34.98073432919168</v>
+        <v>24.45968818603819</v>
       </c>
       <c r="F5" t="n">
-        <v>53.76304388688976</v>
+        <v>87.92874384835613</v>
       </c>
       <c r="G5" t="n">
-        <v>52.28912384901813</v>
+        <v>98.97731280122252</v>
+      </c>
+      <c r="H5" t="n">
+        <v>70.31119949502002</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.51271010554397</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79.15548616870761</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91.21827184725878</v>
+      </c>
+      <c r="L5" t="n">
+        <v>42.92233140395746</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24.74766997380063</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>78.78855114266696</v>
+      </c>
+      <c r="P5" t="n">
+        <v>38.4593836970519</v>
       </c>
     </row>
     <row r="6">
@@ -555,22 +708,49 @@
         <v>100</v>
       </c>
       <c r="B6" t="n">
-        <v>99.75931828530541</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>53.05144098425123</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>26.79745169227593</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>35.08627669970683</v>
+        <v>50.244390197579</v>
       </c>
       <c r="F6" t="n">
-        <v>51.28284861852003</v>
+        <v>99.59277610506265</v>
       </c>
       <c r="G6" t="n">
-        <v>63.6884831146617</v>
+        <v>99.76370959182647</v>
+      </c>
+      <c r="H6" t="n">
+        <v>75.73526536585911</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.180225466940584</v>
+      </c>
+      <c r="J6" t="n">
+        <v>91.39654412844486</v>
+      </c>
+      <c r="K6" t="n">
+        <v>91.9030322173089</v>
+      </c>
+      <c r="L6" t="n">
+        <v>55.41607214968367</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.80703572993578</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>82.84258210645527</v>
+      </c>
+      <c r="P6" t="n">
+        <v>39.80768019939772</v>
       </c>
     </row>
     <row r="7">
@@ -578,22 +758,49 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>97.28094711507188</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>59.5686410366847</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>38.74812877471307</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>28.70431383498534</v>
+        <v>54.66799242530039</v>
       </c>
       <c r="F7" t="n">
-        <v>56.83073236815086</v>
+        <v>98.82860287011849</v>
       </c>
       <c r="G7" t="n">
-        <v>71.52311829215157</v>
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>82.80275057676087</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.168528738726607</v>
+      </c>
+      <c r="J7" t="n">
+        <v>89.62998736904673</v>
+      </c>
+      <c r="K7" t="n">
+        <v>94.72776012582061</v>
+      </c>
+      <c r="L7" t="n">
+        <v>56.5459685018172</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29.25319763443818</v>
+      </c>
+      <c r="N7" t="n">
+        <v>29.87012987012987</v>
+      </c>
+      <c r="O7" t="n">
+        <v>65.98046978094484</v>
+      </c>
+      <c r="P7" t="n">
+        <v>46.12874152490172</v>
       </c>
     </row>
     <row r="8">
@@ -601,22 +808,49 @@
         <v>100</v>
       </c>
       <c r="B8" t="n">
-        <v>99.99349508879205</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>56.71148480365536</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>26.75486518574598</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>24.19140025129136</v>
+        <v>59.73343313763498</v>
       </c>
       <c r="F8" t="n">
-        <v>53.25986512053835</v>
+        <v>99.14756699084444</v>
       </c>
       <c r="G8" t="n">
-        <v>65.10455258956929</v>
+        <v>98.89787003468945</v>
+      </c>
+      <c r="H8" t="n">
+        <v>70.04809599088355</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.722708305290084</v>
+      </c>
+      <c r="J8" t="n">
+        <v>92.83482986080841</v>
+      </c>
+      <c r="K8" t="n">
+        <v>93.25986013282983</v>
+      </c>
+      <c r="L8" t="n">
+        <v>46.08453358460088</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.70405172814812</v>
+      </c>
+      <c r="N8" t="n">
+        <v>24.60063897763578</v>
+      </c>
+      <c r="O8" t="n">
+        <v>60.77220077220078</v>
+      </c>
+      <c r="P8" t="n">
+        <v>40.56851737677256</v>
       </c>
     </row>
     <row r="9">
@@ -624,22 +858,49 @@
         <v>100</v>
       </c>
       <c r="B9" t="n">
-        <v>99.99349508879205</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>71.71916256249882</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>43.57653526506874</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>30.15649867374005</v>
+        <v>63.60289804878867</v>
       </c>
       <c r="F9" t="n">
-        <v>52.05545231176023</v>
+        <v>96.48133976102828</v>
       </c>
       <c r="G9" t="n">
-        <v>64.92572720010045</v>
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>91.26172374690671</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.25271574526511</v>
+      </c>
+      <c r="J9" t="n">
+        <v>91.12631874767392</v>
+      </c>
+      <c r="K9" t="n">
+        <v>94.45754851354278</v>
+      </c>
+      <c r="L9" t="n">
+        <v>60.07888006461165</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16.61198759635667</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>70.29190787042739</v>
+      </c>
+      <c r="P9" t="n">
+        <v>35.81534423927603</v>
       </c>
     </row>
     <row r="10">
@@ -647,22 +908,49 @@
         <v>100</v>
       </c>
       <c r="B10" t="n">
-        <v>99.97398035516815</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>64.93745435478736</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>40.54493521689007</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>32.75289683093676</v>
+        <v>65.73230475317987</v>
       </c>
       <c r="F10" t="n">
-        <v>54.16959973381441</v>
+        <v>98.10073903595747</v>
       </c>
       <c r="G10" t="n">
-        <v>68.60661557124568</v>
+        <v>98.62247719490328</v>
+      </c>
+      <c r="H10" t="n">
+        <v>78.98356022053771</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37.30028765042393</v>
+      </c>
+      <c r="J10" t="n">
+        <v>97.38150533515295</v>
+      </c>
+      <c r="K10" t="n">
+        <v>95.27127394211851</v>
+      </c>
+      <c r="L10" t="n">
+        <v>34.39816933638444</v>
+      </c>
+      <c r="M10" t="n">
+        <v>28.86315298923687</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>74.05669997960433</v>
+      </c>
+      <c r="P10" t="n">
+        <v>37.60038286276557</v>
       </c>
     </row>
     <row r="11">
@@ -673,19 +961,46 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>59.61264770322653</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>40.28554467711685</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>30.91623621387687</v>
+        <v>60.10490623795505</v>
       </c>
       <c r="F11" t="n">
-        <v>57.56733964978422</v>
+        <v>98.1850885670076</v>
       </c>
       <c r="G11" t="n">
-        <v>74.35233989543582</v>
+        <v>99.19002105945245</v>
+      </c>
+      <c r="H11" t="n">
+        <v>76.63071104978857</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.31780858796608</v>
+      </c>
+      <c r="J11" t="n">
+        <v>95.96738472671919</v>
+      </c>
+      <c r="K11" t="n">
+        <v>96.47615520316566</v>
+      </c>
+      <c r="L11" t="n">
+        <v>41.69901736438283</v>
+      </c>
+      <c r="M11" t="n">
+        <v>36.50717446825102</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.694915254237287</v>
+      </c>
+      <c r="O11" t="n">
+        <v>83.3281589568457</v>
+      </c>
+      <c r="P11" t="n">
+        <v>42.75221824319701</v>
       </c>
     </row>
     <row r="12">
@@ -696,19 +1011,46 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>51.54538304526132</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>32.97228005574961</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>19.35152868909674</v>
+        <v>54.60040107922711</v>
       </c>
       <c r="F12" t="n">
-        <v>46.98087702763034</v>
+        <v>97.88399984359027</v>
       </c>
       <c r="G12" t="n">
-        <v>67.98492711564515</v>
+        <v>100</v>
+      </c>
+      <c r="H12" t="n">
+        <v>68.93926275158225</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.92435051823934</v>
+      </c>
+      <c r="J12" t="n">
+        <v>93.5092526647433</v>
+      </c>
+      <c r="K12" t="n">
+        <v>95.68269053287204</v>
+      </c>
+      <c r="L12" t="n">
+        <v>34.15587562256025</v>
+      </c>
+      <c r="M12" t="n">
+        <v>16.76034285239712</v>
+      </c>
+      <c r="N12" t="n">
+        <v>34.69387755102041</v>
+      </c>
+      <c r="O12" t="n">
+        <v>77.13759909399774</v>
+      </c>
+      <c r="P12" t="n">
+        <v>35.12099235456606</v>
       </c>
     </row>
     <row r="13">
@@ -719,19 +1061,46 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>57.00829572479916</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>30.23340846912264</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07803992740472</v>
+        <v>53.57480015864415</v>
       </c>
       <c r="F13" t="n">
-        <v>52.50983845098137</v>
+        <v>97.93092276152544</v>
       </c>
       <c r="G13" t="n">
-        <v>66.58450951632311</v>
+        <v>100</v>
+      </c>
+      <c r="H13" t="n">
+        <v>77.54570794952434</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.17452444717742</v>
+      </c>
+      <c r="J13" t="n">
+        <v>94.18996948252014</v>
+      </c>
+      <c r="K13" t="n">
+        <v>94.46317682429964</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26.58769686364249</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12.75968837395126</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>82.21821802835602</v>
+      </c>
+      <c r="P13" t="n">
+        <v>45.76949376247307</v>
       </c>
     </row>
     <row r="14">
@@ -739,22 +1108,49 @@
         <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>97.6712417875496</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>38.01707833186645</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>34.52733279419103</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>21.63185815998882</v>
+        <v>41.19832194707765</v>
       </c>
       <c r="F14" t="n">
-        <v>53.35912826363742</v>
+        <v>92.02701419418267</v>
       </c>
       <c r="G14" t="n">
-        <v>69.14835973421278</v>
+        <v>99.91062301345683</v>
+      </c>
+      <c r="H14" t="n">
+        <v>71.15246038085769</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.196787645951844</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79.39250961821318</v>
+      </c>
+      <c r="K14" t="n">
+        <v>91.98320508421963</v>
+      </c>
+      <c r="L14" t="n">
+        <v>54.04630502086418</v>
+      </c>
+      <c r="M14" t="n">
+        <v>16.56631886433607</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>83.26473175021988</v>
+      </c>
+      <c r="P14" t="n">
+        <v>48.75480146012104</v>
       </c>
     </row>
     <row r="15">
@@ -765,19 +1161,46 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>59.96844628377746</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>51.42213121806012</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>21.17269300572386</v>
+        <v>54.46242535625108</v>
       </c>
       <c r="F15" t="n">
-        <v>52.07078231168926</v>
+        <v>88.50220928738611</v>
       </c>
       <c r="G15" t="n">
-        <v>70.13157348872387</v>
+        <v>99.9994413938341</v>
+      </c>
+      <c r="H15" t="n">
+        <v>95.90820983482016</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14.68396408873404</v>
+      </c>
+      <c r="J15" t="n">
+        <v>85.95070163838072</v>
+      </c>
+      <c r="K15" t="n">
+        <v>92.36720399726377</v>
+      </c>
+      <c r="L15" t="n">
+        <v>54.31578947368421</v>
+      </c>
+      <c r="M15" t="n">
+        <v>21.16332547169812</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>86.18532228212763</v>
+      </c>
+      <c r="P15" t="n">
+        <v>40.56392078409596</v>
       </c>
     </row>
     <row r="16">
@@ -785,22 +1208,49 @@
         <v>100</v>
       </c>
       <c r="B16" t="n">
-        <v>98.56891953424835</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>20.89614426696129</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9496360789442</v>
+        <v>100</v>
       </c>
       <c r="E16" t="n">
-        <v>18.25171017730001</v>
+        <v>46.66595909885653</v>
       </c>
       <c r="F16" t="n">
-        <v>49.6444929477322</v>
+        <v>93.02803644346626</v>
       </c>
       <c r="G16" t="n">
-        <v>72.14623663662942</v>
+        <v>75.87212387650335</v>
+      </c>
+      <c r="H16" t="n">
+        <v>66.20432696336101</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.174855296809795</v>
+      </c>
+      <c r="J16" t="n">
+        <v>82.81650015419332</v>
+      </c>
+      <c r="K16" t="n">
+        <v>89.41281471025371</v>
+      </c>
+      <c r="L16" t="n">
+        <v>39.08789877507067</v>
+      </c>
+      <c r="M16" t="n">
+        <v>19.53553235077878</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.738095238095227</v>
+      </c>
+      <c r="O16" t="n">
+        <v>78.45628897517355</v>
+      </c>
+      <c r="P16" t="n">
+        <v>43.90346689888511</v>
       </c>
     </row>
     <row r="17">
@@ -808,22 +1258,49 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>6.108111624276319</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>2.33984382314938</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>37.35826006159988</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>18.19195867653218</v>
+        <v>26.0031170224057</v>
       </c>
       <c r="F17" t="n">
-        <v>47.82034905831969</v>
+        <v>82.99546970399459</v>
       </c>
       <c r="G17" t="n">
-        <v>70.18385849877562</v>
+        <v>91.56392968265584</v>
+      </c>
+      <c r="H17" t="n">
+        <v>53.06870297234341</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23.15721739692319</v>
+      </c>
+      <c r="J17" t="n">
+        <v>80.56725709701993</v>
+      </c>
+      <c r="K17" t="n">
+        <v>93.74920116452461</v>
+      </c>
+      <c r="L17" t="n">
+        <v>33.31727015749092</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11.43795897162275</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>75.01693050029628</v>
+      </c>
+      <c r="P17" t="n">
+        <v>43.16553612267779</v>
       </c>
     </row>
     <row r="18">
@@ -831,22 +1308,49 @@
         <v>100</v>
       </c>
       <c r="B18" t="n">
-        <v>95.37500813113901</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>33.41791352221868</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>45.44711530189102</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>26.08725394387827</v>
+        <v>34.31238374009172</v>
       </c>
       <c r="F18" t="n">
-        <v>52.22786372077785</v>
+        <v>94.57146527983376</v>
       </c>
       <c r="G18" t="n">
-        <v>76.63488504777288</v>
+        <v>99.92849841076546</v>
+      </c>
+      <c r="H18" t="n">
+        <v>70.99660926057302</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24.75937139057086</v>
+      </c>
+      <c r="J18" t="n">
+        <v>85.70781579733467</v>
+      </c>
+      <c r="K18" t="n">
+        <v>94.30992158199795</v>
+      </c>
+      <c r="L18" t="n">
+        <v>43.29115627944542</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20.47889806781653</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>84.74539069359086</v>
+      </c>
+      <c r="P18" t="n">
+        <v>53.78948689966874</v>
       </c>
     </row>
     <row r="19">
@@ -854,22 +1358,49 @@
         <v>100</v>
       </c>
       <c r="B19" t="n">
-        <v>95.40753268717881</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>48.16623284208161</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>55.26760672436637</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>43.03169063241658</v>
+        <v>49.65338487406225</v>
       </c>
       <c r="F19" t="n">
-        <v>67.87725085569721</v>
+        <v>94.47091616997268</v>
       </c>
       <c r="G19" t="n">
-        <v>84.01021598978402</v>
+        <v>98.32418150231543</v>
+      </c>
+      <c r="H19" t="n">
+        <v>80.18903232653882</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26.50969581288413</v>
+      </c>
+      <c r="J19" t="n">
+        <v>95.11336047867562</v>
+      </c>
+      <c r="K19" t="n">
+        <v>95.04965128948987</v>
+      </c>
+      <c r="L19" t="n">
+        <v>66.78341634136493</v>
+      </c>
+      <c r="M19" t="n">
+        <v>47.92609362116889</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>88.04647193452034</v>
+      </c>
+      <c r="P19" t="n">
+        <v>74.25085633063294</v>
       </c>
     </row>
     <row r="20">
@@ -877,22 +1408,49 @@
         <v>100</v>
       </c>
       <c r="B20" t="n">
-        <v>31.3536720223769</v>
+        <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>27.46858673058557</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>54.5042758573223</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>35.93703755409746</v>
+        <v>24.93562063938062</v>
       </c>
       <c r="F20" t="n">
-        <v>50.56085420896932</v>
+        <v>80.32756665568074</v>
       </c>
       <c r="G20" t="n">
-        <v>74.64264276182303</v>
+        <v>97.85104207980248</v>
+      </c>
+      <c r="H20" t="n">
+        <v>83.07702620421524</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18.64073644277033</v>
+      </c>
+      <c r="J20" t="n">
+        <v>77.10827855747024</v>
+      </c>
+      <c r="K20" t="n">
+        <v>92.26721137264634</v>
+      </c>
+      <c r="L20" t="n">
+        <v>86.52039305424687</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18.20159469333056</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>77.52952218190987</v>
+      </c>
+      <c r="P20" t="n">
+        <v>53.77255414331503</v>
       </c>
     </row>
     <row r="21">
@@ -900,22 +1458,49 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>99.96097053275223</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>61.00681635175371</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>60.68362097148855</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>34.16333938294011</v>
+        <v>63.20349464017384</v>
       </c>
       <c r="F21" t="n">
-        <v>55.97413794885897</v>
+        <v>98.48170844109777</v>
       </c>
       <c r="G21" t="n">
-        <v>82.72442573407909</v>
+        <v>90.39085673427664</v>
+      </c>
+      <c r="H21" t="n">
+        <v>87.50006982577074</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22.44958944676269</v>
+      </c>
+      <c r="J21" t="n">
+        <v>86.27230739570324</v>
+      </c>
+      <c r="K21" t="n">
+        <v>95.10512483574244</v>
+      </c>
+      <c r="L21" t="n">
+        <v>64.16125992731189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>32.27818616329371</v>
+      </c>
+      <c r="N21" t="n">
+        <v>100</v>
+      </c>
+      <c r="O21" t="n">
+        <v>85.0608821644515</v>
+      </c>
+      <c r="P21" t="n">
+        <v>68.28349812577051</v>
       </c>
     </row>
     <row r="22">
@@ -923,22 +1508,49 @@
         <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>99.98048526637612</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>49.63202936274601</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>43.44705507854844</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>26.60044674019265</v>
+        <v>70.68714144466728</v>
       </c>
       <c r="F22" t="n">
-        <v>58.14045644827864</v>
+        <v>98.42026176284934</v>
       </c>
       <c r="G22" t="n">
-        <v>80.85321549465782</v>
+        <v>90.2534396174665</v>
+      </c>
+      <c r="H22" t="n">
+        <v>66.9679415921393</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30.46197334769148</v>
+      </c>
+      <c r="J22" t="n">
+        <v>86.23341336500422</v>
+      </c>
+      <c r="K22" t="n">
+        <v>86.82875436627137</v>
+      </c>
+      <c r="L22" t="n">
+        <v>30.00484587427648</v>
+      </c>
+      <c r="M22" t="n">
+        <v>29.22224703223024</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>83.39366948538955</v>
+      </c>
+      <c r="P22" t="n">
+        <v>75.51492235700645</v>
       </c>
     </row>
     <row r="23">
@@ -946,22 +1558,49 @@
         <v>100</v>
       </c>
       <c r="B23" t="n">
-        <v>72.80947115071879</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>15.26188648152656</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>39.96356487774661</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>36.83596258550887</v>
+        <v>38.37009892915197</v>
       </c>
       <c r="F23" t="n">
-        <v>62.13011140549686</v>
+        <v>80.53145790623236</v>
       </c>
       <c r="G23" t="n">
-        <v>76.98250402244254</v>
+        <v>64.61788545221961</v>
+      </c>
+      <c r="H23" t="n">
+        <v>90.6768630912148</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21.11563099078879</v>
+      </c>
+      <c r="J23" t="n">
+        <v>83.04562016403062</v>
+      </c>
+      <c r="K23" t="n">
+        <v>77.24772201722737</v>
+      </c>
+      <c r="L23" t="n">
+        <v>63.34553775743707</v>
+      </c>
+      <c r="M23" t="n">
+        <v>42.14867548753667</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>84.92570005830537</v>
+      </c>
+      <c r="P23" t="n">
+        <v>73.63252192802315</v>
       </c>
     </row>
     <row r="24">
@@ -969,22 +1608,49 @@
         <v>100</v>
       </c>
       <c r="B24" t="n">
-        <v>55.16164704351786</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>68.29600569277729</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>35.92128809126417</v>
+        <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>31.36925869049281</v>
+        <v>76.29778177491524</v>
       </c>
       <c r="F24" t="n">
-        <v>52.57128917346989</v>
+        <v>94.89713267455046</v>
       </c>
       <c r="G24" t="n">
-        <v>76.15673777213324</v>
+        <v>76.67819257388963</v>
+      </c>
+      <c r="H24" t="n">
+        <v>97.7069216890016</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.33763515682102</v>
+      </c>
+      <c r="J24" t="n">
+        <v>76.33076485335056</v>
+      </c>
+      <c r="K24" t="n">
+        <v>79.10975252051784</v>
+      </c>
+      <c r="L24" t="n">
+        <v>44.16906716920178</v>
+      </c>
+      <c r="M24" t="n">
+        <v>27.97785436096234</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>83.84069560914401</v>
+      </c>
+      <c r="P24" t="n">
+        <v>73.80429049532717</v>
       </c>
     </row>
     <row r="25">
@@ -992,22 +1658,49 @@
         <v>100</v>
       </c>
       <c r="B25" t="n">
-        <v>19.30007155402329</v>
+        <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>18.29132413250689</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>38.63198375690418</v>
+        <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>37.01479826888175</v>
+        <v>61.18134031963444</v>
       </c>
       <c r="F25" t="n">
-        <v>54.81496406602997</v>
+        <v>95.74397962204706</v>
       </c>
       <c r="G25" t="n">
-        <v>75.42312313963259</v>
+        <v>75.70007317740773</v>
+      </c>
+      <c r="H25" t="n">
+        <v>49.776836836725</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27.58510830739158</v>
+      </c>
+      <c r="J25" t="n">
+        <v>73.49821361205423</v>
+      </c>
+      <c r="K25" t="n">
+        <v>67.45743774370666</v>
+      </c>
+      <c r="L25" t="n">
+        <v>65.02705613137704</v>
+      </c>
+      <c r="M25" t="n">
+        <v>27.11413951147344</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>83.78787999649019</v>
+      </c>
+      <c r="P25" t="n">
+        <v>74.52763423949673</v>
       </c>
     </row>
     <row r="26">
@@ -1015,22 +1708,49 @@
         <v>100</v>
       </c>
       <c r="B26" t="n">
-        <v>8.671046640213362</v>
+        <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>44.91392363680162</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>47.68309367583414</v>
+        <v>29.306155281342</v>
       </c>
       <c r="F26" t="n">
-        <v>56.01000464456523</v>
+        <v>86.40464313445092</v>
       </c>
       <c r="G26" t="n">
-        <v>72.50691988691773</v>
+        <v>44.12039080087366</v>
+      </c>
+      <c r="H26" t="n">
+        <v>50.58849159577024</v>
+      </c>
+      <c r="I26" t="n">
+        <v>28.84097399506729</v>
+      </c>
+      <c r="J26" t="n">
+        <v>91.51874050070259</v>
+      </c>
+      <c r="K26" t="n">
+        <v>90.45505457152942</v>
+      </c>
+      <c r="L26" t="n">
+        <v>56.79526181181855</v>
+      </c>
+      <c r="M26" t="n">
+        <v>31.84535881751658</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>87.61740560661367</v>
+      </c>
+      <c r="P26" t="n">
+        <v>74.96313331367109</v>
       </c>
     </row>
     <row r="27">
@@ -1038,22 +1758,49 @@
         <v>100</v>
       </c>
       <c r="B27" t="n">
-        <v>62.72035386716971</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>56.84674879983482</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>50.76518218623482</v>
+        <v>31.58191680119765</v>
       </c>
       <c r="F27" t="n">
-        <v>50.60654091373198</v>
+        <v>57.68390711496674</v>
       </c>
       <c r="G27" t="n">
-        <v>74.69911072369578</v>
+        <v>67.18803242150187</v>
+      </c>
+      <c r="H27" t="n">
+        <v>66.27191830943431</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30.07502296206586</v>
+      </c>
+      <c r="J27" t="n">
+        <v>88.61803608329913</v>
+      </c>
+      <c r="K27" t="n">
+        <v>94.27759550839431</v>
+      </c>
+      <c r="L27" t="n">
+        <v>70.5874276484049</v>
+      </c>
+      <c r="M27" t="n">
+        <v>37.451205510907</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>89.41748778940899</v>
+      </c>
+      <c r="P27" t="n">
+        <v>63.19384694633622</v>
       </c>
     </row>
     <row r="28">
@@ -1061,22 +1808,49 @@
         <v>100</v>
       </c>
       <c r="B28" t="n">
-        <v>96.02549925193522</v>
+        <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>31.88761463943425</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>39.61845595420913</v>
+        <v>47.51950932034388</v>
       </c>
       <c r="F28" t="n">
-        <v>52.18181111795966</v>
+        <v>65.63790031114362</v>
       </c>
       <c r="G28" t="n">
-        <v>72.84620521162958</v>
+        <v>85.37066312137954</v>
+      </c>
+      <c r="H28" t="n">
+        <v>47.06480390130546</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25.63266236479777</v>
+      </c>
+      <c r="J28" t="n">
+        <v>90.23301599288007</v>
+      </c>
+      <c r="K28" t="n">
+        <v>92.52677073048667</v>
+      </c>
+      <c r="L28" t="n">
+        <v>23.10351325885046</v>
+      </c>
+      <c r="M28" t="n">
+        <v>44.27155104645463</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>91.88773043846719</v>
+      </c>
+      <c r="P28" t="n">
+        <v>63.83689989881198</v>
       </c>
     </row>
     <row r="29">
@@ -1084,22 +1858,49 @@
         <v>100</v>
       </c>
       <c r="B29" t="n">
-        <v>99.09581734209328</v>
+        <v>100</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>1.668831839220886</v>
+        <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>35.64749406673181</v>
+        <v>37.37075249836608</v>
       </c>
       <c r="F29" t="n">
-        <v>46.99803304898445</v>
+        <v>74.83367501410481</v>
       </c>
       <c r="G29" t="n">
-        <v>72.64047320635842</v>
+        <v>80.80796795835033</v>
+      </c>
+      <c r="H29" t="n">
+        <v>45.70627370584916</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10.14244983270774</v>
+      </c>
+      <c r="J29" t="n">
+        <v>77.02283684510064</v>
+      </c>
+      <c r="K29" t="n">
+        <v>70.86445643126615</v>
+      </c>
+      <c r="L29" t="n">
+        <v>29.11589715977925</v>
+      </c>
+      <c r="M29" t="n">
+        <v>34.5410400614424</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>89.04375623939643</v>
+      </c>
+      <c r="P29" t="n">
+        <v>52.21881089409526</v>
       </c>
     </row>
     <row r="30">
@@ -1107,22 +1908,49 @@
         <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>99.98048526637612</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>5.836033033089265</v>
+        <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>15.23705151472846</v>
+        <v>57.50515314188038</v>
       </c>
       <c r="F30" t="n">
-        <v>36.49629037203758</v>
+        <v>84.55286369450945</v>
       </c>
       <c r="G30" t="n">
-        <v>57.33073836995152</v>
+        <v>49.45228665434009</v>
+      </c>
+      <c r="H30" t="n">
+        <v>49.94330147416167</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.009475059899799</v>
+      </c>
+      <c r="J30" t="n">
+        <v>75.37672157709964</v>
+      </c>
+      <c r="K30" t="n">
+        <v>37.56380041748031</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10.30475164894334</v>
+      </c>
+      <c r="M30" t="n">
+        <v>18.71316647022118</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>79.66007759098467</v>
+      </c>
+      <c r="P30" t="n">
+        <v>40.42176408108996</v>
       </c>
     </row>
     <row r="31">
@@ -1130,22 +1958,49 @@
         <v>100</v>
       </c>
       <c r="B31" t="n">
-        <v>99.99349508879205</v>
+        <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>35.67957528885228</v>
+        <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E31" t="n">
-        <v>28.14323607427056</v>
+        <v>64.48326136623896</v>
       </c>
       <c r="F31" t="n">
-        <v>46.78051787388328</v>
+        <v>91.44215353849076</v>
       </c>
       <c r="G31" t="n">
-        <v>65.58412213987967</v>
+        <v>59.54127261656714</v>
+      </c>
+      <c r="H31" t="n">
+        <v>71.41891552198953</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9.837975454180679</v>
+      </c>
+      <c r="J31" t="n">
+        <v>90.72634329952827</v>
+      </c>
+      <c r="K31" t="n">
+        <v>59.00917757215661</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8.92960021537219</v>
+      </c>
+      <c r="M31" t="n">
+        <v>39.50176589303733</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>92.24547311448001</v>
+      </c>
+      <c r="P31" t="n">
+        <v>49.39310910799614</v>
       </c>
     </row>
     <row r="32">
@@ -1156,19 +2011,46 @@
         <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>24.53465290912156</v>
+        <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>16.79586007536521</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>34.7193913164875</v>
+        <v>62.1538736544574</v>
       </c>
       <c r="F32" t="n">
-        <v>54.90103950642887</v>
+        <v>80.76551388974232</v>
       </c>
       <c r="G32" t="n">
-        <v>67.77369584194525</v>
+        <v>61.87401196534407</v>
+      </c>
+      <c r="H32" t="n">
+        <v>74.46164330761883</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22.89024581180523</v>
+      </c>
+      <c r="J32" t="n">
+        <v>93.04975442510987</v>
+      </c>
+      <c r="K32" t="n">
+        <v>70.32425330741604</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13.56279445416611</v>
+      </c>
+      <c r="M32" t="n">
+        <v>57.45991856042789</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>93.13128978196798</v>
+      </c>
+      <c r="P32" t="n">
+        <v>61.04871229837501</v>
       </c>
     </row>
     <row r="33">
@@ -1176,22 +2058,49 @@
         <v>100</v>
       </c>
       <c r="B33" t="n">
-        <v>99.98699017758408</v>
+        <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>11.02132918859198</v>
+        <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>13.91632396716967</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>27.29875750383918</v>
+        <v>49.03277342375305</v>
       </c>
       <c r="F33" t="n">
-        <v>43.70661503214335</v>
+        <v>64.1754693688309</v>
       </c>
       <c r="G33" t="n">
-        <v>60.33795828839566</v>
+        <v>87.73356720311479</v>
+      </c>
+      <c r="H33" t="n">
+        <v>60.68362222582213</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13.51483520885886</v>
+      </c>
+      <c r="J33" t="n">
+        <v>84.35475756733025</v>
+      </c>
+      <c r="K33" t="n">
+        <v>65.05855431417419</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22.58473549602907</v>
+      </c>
+      <c r="M33" t="n">
+        <v>30.33157705994317</v>
+      </c>
+      <c r="N33" t="n">
+        <v>26.74632352941177</v>
+      </c>
+      <c r="O33" t="n">
+        <v>87.27652096646872</v>
+      </c>
+      <c r="P33" t="n">
+        <v>44.04741082776553</v>
       </c>
     </row>
     <row r="34">
@@ -1202,19 +2111,46 @@
         <v>100</v>
       </c>
       <c r="C34" t="n">
-        <v>6.716634519952819</v>
+        <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>20.95337149239145</v>
+        <v>63.4029170413983</v>
       </c>
       <c r="F34" t="n">
-        <v>47.56237076026532</v>
+        <v>84.37913717691616</v>
       </c>
       <c r="G34" t="n">
-        <v>59.00097020829985</v>
+        <v>50.24327298524721</v>
+      </c>
+      <c r="H34" t="n">
+        <v>51.75150963316333</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20.69819269073449</v>
+      </c>
+      <c r="J34" t="n">
+        <v>88.96810954327138</v>
+      </c>
+      <c r="K34" t="n">
+        <v>30.44797415533719</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.081572216987482</v>
+      </c>
+      <c r="M34" t="n">
+        <v>36.33589991244144</v>
+      </c>
+      <c r="N34" t="n">
+        <v>67.86436644854254</v>
+      </c>
+      <c r="O34" t="n">
+        <v>86.932055231617</v>
+      </c>
+      <c r="P34" t="n">
+        <v>47.93032240460879</v>
       </c>
     </row>
     <row r="35">
@@ -1225,19 +2161,46 @@
         <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>20.46778150221907</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>4.796143985408747</v>
+        <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>33.2910791567779</v>
+        <v>62.68957696755057</v>
       </c>
       <c r="F35" t="n">
-        <v>54.00590639780229</v>
+        <v>76.21678388086048</v>
       </c>
       <c r="G35" t="n">
-        <v>61.51724180380845</v>
+        <v>60.34119664612858</v>
+      </c>
+      <c r="H35" t="n">
+        <v>69.08059011155365</v>
+      </c>
+      <c r="I35" t="n">
+        <v>35.45379155246327</v>
+      </c>
+      <c r="J35" t="n">
+        <v>85.06515941326222</v>
+      </c>
+      <c r="K35" t="n">
+        <v>46.34836451743168</v>
+      </c>
+      <c r="L35" t="n">
+        <v>11.69363305963117</v>
+      </c>
+      <c r="M35" t="n">
+        <v>67.27633944057268</v>
+      </c>
+      <c r="N35" t="n">
+        <v>90.8463568094175</v>
+      </c>
+      <c r="O35" t="n">
+        <v>89.82066902450805</v>
+      </c>
+      <c r="P35" t="n">
+        <v>56.27665561105122</v>
       </c>
     </row>
     <row r="36">
@@ -1248,19 +2211,46 @@
         <v>100</v>
       </c>
       <c r="C36" t="n">
-        <v>22.58993277279451</v>
+        <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>11.35152868909674</v>
+        <v>57.01246250356111</v>
       </c>
       <c r="F36" t="n">
-        <v>37.69809665742234</v>
+        <v>65.65074825295922</v>
       </c>
       <c r="G36" t="n">
-        <v>61.66655669558906</v>
+        <v>91.64269315204702</v>
+      </c>
+      <c r="H36" t="n">
+        <v>56.40972645056056</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13.8276984623928</v>
+      </c>
+      <c r="J36" t="n">
+        <v>47.96439033575444</v>
+      </c>
+      <c r="K36" t="n">
+        <v>49.93996500201911</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.815722169874817</v>
+      </c>
+      <c r="M36" t="n">
+        <v>35.04939001686488</v>
+      </c>
+      <c r="N36" t="n">
+        <v>61.9200734956362</v>
+      </c>
+      <c r="O36" t="n">
+        <v>73.82419860295967</v>
+      </c>
+      <c r="P36" t="n">
+        <v>35.69353208691258</v>
       </c>
     </row>
     <row r="37">
@@ -1268,22 +2258,49 @@
         <v>100</v>
       </c>
       <c r="B37" t="n">
-        <v>99.98699017758408</v>
+        <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>7.045748206962415</v>
+        <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E37" t="n">
-        <v>26.89152589697055</v>
+        <v>62.35217884335007</v>
       </c>
       <c r="F37" t="n">
-        <v>52.20480428259683</v>
+        <v>67.36734500075411</v>
       </c>
       <c r="G37" t="n">
-        <v>57.37959737013583</v>
+        <v>49.26571219493121</v>
+      </c>
+      <c r="H37" t="n">
+        <v>66.23225727165575</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17.5706829355625</v>
+      </c>
+      <c r="J37" t="n">
+        <v>55.79562843381385</v>
+      </c>
+      <c r="K37" t="n">
+        <v>52.72661192623502</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7.452954637232466</v>
+      </c>
+      <c r="M37" t="n">
+        <v>58.10972750481946</v>
+      </c>
+      <c r="N37" t="n">
+        <v>86.12798169175248</v>
+      </c>
+      <c r="O37" t="n">
+        <v>87.52792729143232</v>
+      </c>
+      <c r="P37" t="n">
+        <v>51.63111940281508</v>
       </c>
     </row>
     <row r="38">
@@ -1291,22 +2308,49 @@
         <v>100</v>
       </c>
       <c r="B38" t="n">
-        <v>99.98699017758408</v>
+        <v>100</v>
       </c>
       <c r="C38" t="n">
-        <v>13.30265350836126</v>
+        <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>15.5372050816697</v>
+        <v>66.2054441756928</v>
       </c>
       <c r="F38" t="n">
-        <v>40.58241798109612</v>
+        <v>72.07136752375473</v>
       </c>
       <c r="G38" t="n">
-        <v>54.43423902502101</v>
+        <v>66.08422663769363</v>
+      </c>
+      <c r="H38" t="n">
+        <v>50.34940815676723</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.22367059797227</v>
+      </c>
+      <c r="J38" t="n">
+        <v>47.95084959977531</v>
+      </c>
+      <c r="K38" t="n">
+        <v>40.6364248216449</v>
+      </c>
+      <c r="L38" t="n">
+        <v>27.40018845066631</v>
+      </c>
+      <c r="M38" t="n">
+        <v>41.78030032602747</v>
+      </c>
+      <c r="N38" t="n">
+        <v>81.09650463670641</v>
+      </c>
+      <c r="O38" t="n">
+        <v>77.37052520556583</v>
+      </c>
+      <c r="P38" t="n">
+        <v>35.41589926352761</v>
       </c>
     </row>
     <row r="39">
@@ -1317,19 +2361,46 @@
         <v>100</v>
       </c>
       <c r="C39" t="n">
-        <v>15.62049399823974</v>
+        <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E39" t="n">
-        <v>5.243892223928526</v>
+        <v>73.68071188769781</v>
       </c>
       <c r="F39" t="n">
-        <v>42.6651285773538</v>
+        <v>81.61459526190251</v>
       </c>
       <c r="G39" t="n">
-        <v>57.43661925760559</v>
+        <v>49.61316523011781</v>
+      </c>
+      <c r="H39" t="n">
+        <v>52.32575677170325</v>
+      </c>
+      <c r="I39" t="n">
+        <v>21.62882638653564</v>
+      </c>
+      <c r="J39" t="n">
+        <v>53.66321736291502</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.083995154125716</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.38322789069862</v>
+      </c>
+      <c r="M39" t="n">
+        <v>50.33308803594252</v>
+      </c>
+      <c r="N39" t="n">
+        <v>86.09012825038239</v>
+      </c>
+      <c r="O39" t="n">
+        <v>70.59082643993136</v>
+      </c>
+      <c r="P39" t="n">
+        <v>41.58826798333833</v>
       </c>
     </row>
     <row r="40">
@@ -1340,19 +2411,46 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>26.56598191045111</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>77.16362133205226</v>
       </c>
       <c r="F40" t="n">
-        <v>35.98665503303428</v>
+        <v>88.42623884882441</v>
       </c>
       <c r="G40" t="n">
-        <v>52.49527933888338</v>
+        <v>59.48820503080713</v>
+      </c>
+      <c r="H40" t="n">
+        <v>50.005306758576</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15.6309378393051</v>
+      </c>
+      <c r="J40" t="n">
+        <v>47.74102031794706</v>
+      </c>
+      <c r="K40" t="n">
+        <v>16.86821914120338</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.180239601561453</v>
+      </c>
+      <c r="M40" t="n">
+        <v>39.94488939249569</v>
+      </c>
+      <c r="N40" t="n">
+        <v>73.42149252743252</v>
+      </c>
+      <c r="O40" t="n">
+        <v>61.59298434629842</v>
+      </c>
+      <c r="P40" t="n">
+        <v>37.99542124298062</v>
       </c>
     </row>
     <row r="41">
@@ -1360,22 +2458,49 @@
         <v>100</v>
       </c>
       <c r="B41" t="n">
-        <v>99.71378390684967</v>
+        <v>100</v>
       </c>
       <c r="C41" t="n">
-        <v>13.82558379056572</v>
+        <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>69.26493014629895</v>
       </c>
       <c r="F41" t="n">
-        <v>33.3375163432342</v>
+        <v>62.80073959456364</v>
       </c>
       <c r="G41" t="n">
-        <v>53.61149699820461</v>
+        <v>78.72995302122145</v>
+      </c>
+      <c r="H41" t="n">
+        <v>52.54026153940687</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13.50471887999284</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26.76453176659815</v>
+      </c>
+      <c r="K41" t="n">
+        <v>44.78422398707767</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.064611657019796</v>
+      </c>
+      <c r="M41" t="n">
+        <v>37.2321840926889</v>
+      </c>
+      <c r="N41" t="n">
+        <v>54.70381287439384</v>
+      </c>
+      <c r="O41" t="n">
+        <v>59.76812407530228</v>
+      </c>
+      <c r="P41" t="n">
+        <v>31.08712934665895</v>
       </c>
     </row>
     <row r="42">
@@ -1386,19 +2511,46 @@
         <v>100</v>
       </c>
       <c r="C42" t="n">
-        <v>26.92458942716428</v>
+        <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>65.62281794466448</v>
       </c>
       <c r="F42" t="n">
-        <v>30.54456588876656</v>
+        <v>65.48260779702485</v>
       </c>
       <c r="G42" t="n">
-        <v>53.94714093648491</v>
+        <v>86.60965159733433</v>
+      </c>
+      <c r="H42" t="n">
+        <v>60.09317550847126</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.399826461274955</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27.96236179459767</v>
+      </c>
+      <c r="K42" t="n">
+        <v>20.23717862431013</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.550948983712473</v>
+      </c>
+      <c r="M42" t="n">
+        <v>41.88917314522739</v>
+      </c>
+      <c r="N42" t="n">
+        <v>58.084945387551</v>
+      </c>
+      <c r="O42" t="n">
+        <v>54.21903578869121</v>
+      </c>
+      <c r="P42" t="n">
+        <v>32.37675802428251</v>
       </c>
     </row>
     <row r="43">
@@ -1406,22 +2558,49 @@
         <v>100</v>
       </c>
       <c r="B43" t="n">
-        <v>99.98699017758408</v>
+        <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>11.31814010973578</v>
+        <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" t="n">
-        <v>3.884266368839874</v>
+        <v>60.2953909405252</v>
       </c>
       <c r="F43" t="n">
-        <v>31.85653869607754</v>
+        <v>67.57682231296469</v>
       </c>
       <c r="G43" t="n">
-        <v>60.31345378948197</v>
+        <v>66.53613902590257</v>
+      </c>
+      <c r="H43" t="n">
+        <v>61.76620097532636</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.42897903184682</v>
+      </c>
+      <c r="J43" t="n">
+        <v>27.43360295340025</v>
+      </c>
+      <c r="K43" t="n">
+        <v>32.34917216314443</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.137568986404631</v>
+      </c>
+      <c r="M43" t="n">
+        <v>53.63131935881628</v>
+      </c>
+      <c r="N43" t="n">
+        <v>57.26525987820422</v>
+      </c>
+      <c r="O43" t="n">
+        <v>57.6247696339864</v>
+      </c>
+      <c r="P43" t="n">
+        <v>35.47857216312894</v>
       </c>
     </row>
     <row r="44">
@@ -1432,19 +2611,46 @@
         <v>100</v>
       </c>
       <c r="C44" t="n">
-        <v>12.68983726896499</v>
+        <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>7.455674996509842</v>
+        <v>73.84270767580732</v>
       </c>
       <c r="F44" t="n">
-        <v>44.72008189503346</v>
+        <v>71.80602959495467</v>
       </c>
       <c r="G44" t="n">
-        <v>62.70867940199336</v>
+        <v>46.86873313707637</v>
+      </c>
+      <c r="H44" t="n">
+        <v>60.99923470955272</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21.90515733331705</v>
+      </c>
+      <c r="J44" t="n">
+        <v>33.24552494604545</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.829990577466688</v>
+      </c>
+      <c r="L44" t="n">
+        <v>9.221967963386717</v>
+      </c>
+      <c r="M44" t="n">
+        <v>71.47393648891551</v>
+      </c>
+      <c r="N44" t="n">
+        <v>82.07954289151192</v>
+      </c>
+      <c r="O44" t="n">
+        <v>78.20067068966985</v>
+      </c>
+      <c r="P44" t="n">
+        <v>40.25059051417643</v>
       </c>
     </row>
     <row r="45">
@@ -1452,22 +2658,49 @@
         <v>100</v>
       </c>
       <c r="B45" t="n">
-        <v>99.99349508879205</v>
+        <v>100</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>74.49292525290895</v>
       </c>
       <c r="F45" t="n">
-        <v>37.49056626640093</v>
+        <v>67.70921197428177</v>
       </c>
       <c r="G45" t="n">
-        <v>60.23174246312338</v>
+        <v>36.85404179491333</v>
+      </c>
+      <c r="H45" t="n">
+        <v>47.98091801337303</v>
+      </c>
+      <c r="I45" t="n">
+        <v>13.92112991190044</v>
+      </c>
+      <c r="J45" t="n">
+        <v>20.2880648979076</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7.326961906043877</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.348499125050466</v>
+      </c>
+      <c r="M45" t="n">
+        <v>57.89907878454558</v>
+      </c>
+      <c r="N45" t="n">
+        <v>58.12291288300428</v>
+      </c>
+      <c r="O45" t="n">
+        <v>69.3852857705635</v>
+      </c>
+      <c r="P45" t="n">
+        <v>34.59563236374277</v>
       </c>
     </row>
     <row r="46">
@@ -1478,19 +2711,46 @@
         <v>100</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>74.17060949518761</v>
       </c>
       <c r="F46" t="n">
-        <v>32.42962980788688</v>
+        <v>70.93572118849048</v>
       </c>
       <c r="G46" t="n">
-        <v>58.21159361594856</v>
+        <v>36.86968276755839</v>
+      </c>
+      <c r="H46" t="n">
+        <v>44.17513420513136</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15.89098832017716</v>
+      </c>
+      <c r="J46" t="n">
+        <v>17.97139289363152</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.869699825010102</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.051823933234616</v>
+      </c>
+      <c r="M46" t="n">
+        <v>68.42499064721287</v>
+      </c>
+      <c r="N46" t="n">
+        <v>48.44976306826596</v>
+      </c>
+      <c r="O46" t="n">
+        <v>56.63497843683071</v>
+      </c>
+      <c r="P46" t="n">
+        <v>30.69408414213551</v>
       </c>
     </row>
     <row r="47">
@@ -1501,19 +2761,46 @@
         <v>100</v>
       </c>
       <c r="C47" t="n">
-        <v>2.802381977865593</v>
+        <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>83.31443382472055</v>
       </c>
       <c r="F47" t="n">
-        <v>38.35356487640457</v>
+        <v>65.00444091901886</v>
       </c>
       <c r="G47" t="n">
-        <v>62.17522117255835</v>
+        <v>37.37577995385914</v>
+      </c>
+      <c r="H47" t="n">
+        <v>56.33152158733528</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23.74216946917244</v>
+      </c>
+      <c r="J47" t="n">
+        <v>23.95054612524856</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.928388746803066</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.247678018575854</v>
+      </c>
+      <c r="M47" t="n">
+        <v>64.85960522657771</v>
+      </c>
+      <c r="N47" t="n">
+        <v>58.49125092081523</v>
+      </c>
+      <c r="O47" t="n">
+        <v>63.65283399425012</v>
+      </c>
+      <c r="P47" t="n">
+        <v>40.70731349937493</v>
       </c>
     </row>
     <row r="48">
@@ -1521,22 +2808,49 @@
         <v>100</v>
       </c>
       <c r="B48" t="n">
-        <v>99.99349508879205</v>
+        <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>76.32962232637124</v>
       </c>
       <c r="F48" t="n">
-        <v>44.87926211118189</v>
+        <v>69.05824586491785</v>
       </c>
       <c r="G48" t="n">
-        <v>63.34414805387191</v>
+        <v>39.97218141293843</v>
+      </c>
+      <c r="H48" t="n">
+        <v>51.07894780942593</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24.75364151887474</v>
+      </c>
+      <c r="J48" t="n">
+        <v>21.18695131971573</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.685556602503709</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.509489837124775</v>
+      </c>
+      <c r="M48" t="n">
+        <v>93.23076923076923</v>
+      </c>
+      <c r="N48" t="n">
+        <v>56.50733292107765</v>
+      </c>
+      <c r="O48" t="n">
+        <v>65.2570482499427</v>
+      </c>
+      <c r="P48" t="n">
+        <v>50.26768816605775</v>
       </c>
     </row>
     <row r="49">
@@ -1547,19 +2861,46 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>12.63880826201756</v>
+        <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" t="n">
-        <v>1.763227697891949</v>
+        <v>82.43016026410899</v>
       </c>
       <c r="F49" t="n">
-        <v>42.64988487623075</v>
+        <v>66.91878424954055</v>
       </c>
       <c r="G49" t="n">
-        <v>59.88491129235685</v>
+        <v>41.72006010602345</v>
+      </c>
+      <c r="H49" t="n">
+        <v>62.81861499187228</v>
+      </c>
+      <c r="I49" t="n">
+        <v>33.12579469520419</v>
+      </c>
+      <c r="J49" t="n">
+        <v>18.95114690947295</v>
+      </c>
+      <c r="K49" t="n">
+        <v>10.60708036074843</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.782062371832694</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>46.78259429470459</v>
+      </c>
+      <c r="O49" t="n">
+        <v>58.92353356059716</v>
+      </c>
+      <c r="P49" t="n">
+        <v>50.55707662541526</v>
       </c>
     </row>
     <row r="50">
@@ -1570,19 +2911,46 @@
         <v>100</v>
       </c>
       <c r="C50" t="n">
-        <v>32.93243572217749</v>
+        <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>21.20899064637722</v>
+        <v>78.03392973851645</v>
       </c>
       <c r="F50" t="n">
-        <v>52.41538312156062</v>
+        <v>64.29221805750292</v>
       </c>
       <c r="G50" t="n">
-        <v>68.25579478596063</v>
+        <v>58.60672450102504</v>
+      </c>
+      <c r="H50" t="n">
+        <v>88.04917968684538</v>
+      </c>
+      <c r="I50" t="n">
+        <v>38.37685921129982</v>
+      </c>
+      <c r="J50" t="n">
+        <v>34.19311467289388</v>
+      </c>
+      <c r="K50" t="n">
+        <v>27.5797550141338</v>
+      </c>
+      <c r="L50" t="n">
+        <v>20.34512901868099</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>70.07423705470364</v>
+      </c>
+      <c r="O50" t="n">
+        <v>68.7816325746698</v>
+      </c>
+      <c r="P50" t="n">
+        <v>69.55486172409013</v>
       </c>
     </row>
     <row r="51">
@@ -1590,22 +2958,49 @@
         <v>100</v>
       </c>
       <c r="B51" t="n">
-        <v>77.1222272815976</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>20.96705291079158</v>
+        <v>66.41715591256695</v>
       </c>
       <c r="F51" t="n">
-        <v>51.71154221382641</v>
+        <v>54.43058480479507</v>
       </c>
       <c r="G51" t="n">
-        <v>73.06518612538582</v>
+        <v>37.18641246362078</v>
+      </c>
+      <c r="H51" t="n">
+        <v>85.13325550087421</v>
+      </c>
+      <c r="I51" t="n">
+        <v>45.64303465662085</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33.07860940510427</v>
+      </c>
+      <c r="K51" t="n">
+        <v>13.96338672768879</v>
+      </c>
+      <c r="L51" t="n">
+        <v>46.04305884888985</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>82.54428120280105</v>
+      </c>
+      <c r="O51" t="n">
+        <v>55.45429669155305</v>
+      </c>
+      <c r="P51" t="n">
+        <v>82.05277605669056</v>
       </c>
     </row>
     <row r="52">
@@ -1616,19 +3011,46 @@
         <v>100</v>
       </c>
       <c r="C52" t="n">
-        <v>25.39980524709276</v>
+        <v>100</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>17.02624598631857</v>
+        <v>85.75442555734929</v>
       </c>
       <c r="F52" t="n">
-        <v>49.85305827320736</v>
+        <v>62.58958646385539</v>
       </c>
       <c r="G52" t="n">
-        <v>72.86113367170748</v>
+        <v>50.62535960271929</v>
+      </c>
+      <c r="H52" t="n">
+        <v>80.45325304300709</v>
+      </c>
+      <c r="I52" t="n">
+        <v>38.75978700708681</v>
+      </c>
+      <c r="J52" t="n">
+        <v>18.16428991388354</v>
+      </c>
+      <c r="K52" t="n">
+        <v>19.81585677749361</v>
+      </c>
+      <c r="L52" t="n">
+        <v>52.3888475611932</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>62.90228669841445</v>
+      </c>
+      <c r="O52" t="n">
+        <v>56.36657859500641</v>
+      </c>
+      <c r="P52" t="n">
+        <v>71.51545939455515</v>
       </c>
     </row>
     <row r="53">
@@ -1636,22 +3058,49 @@
         <v>100</v>
       </c>
       <c r="B53" t="n">
-        <v>76.94659467898263</v>
+        <v>100</v>
       </c>
       <c r="C53" t="n">
-        <v>7.578977921761762</v>
+        <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>13.31676671785564</v>
+        <v>85.09359446309568</v>
       </c>
       <c r="F53" t="n">
-        <v>54.26188820084668</v>
+        <v>77.79428769334756</v>
       </c>
       <c r="G53" t="n">
-        <v>77.23028671061726</v>
+        <v>43.19422177781998</v>
+      </c>
+      <c r="H53" t="n">
+        <v>49.98966578593095</v>
+      </c>
+      <c r="I53" t="n">
+        <v>30.83237666892073</v>
+      </c>
+      <c r="J53" t="n">
+        <v>16.5842004551682</v>
+      </c>
+      <c r="K53" t="n">
+        <v>16.06541930273254</v>
+      </c>
+      <c r="L53" t="n">
+        <v>39.22364620004847</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>72.04128221064207</v>
+      </c>
+      <c r="O53" t="n">
+        <v>60.59468921460547</v>
+      </c>
+      <c r="P53" t="n">
+        <v>77.55529087554589</v>
       </c>
     </row>
     <row r="54">
@@ -1659,22 +3108,49 @@
         <v>100</v>
       </c>
       <c r="B54" t="n">
-        <v>80.59584986664932</v>
+        <v>100</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" t="n">
-        <v>10.16738796593606</v>
+        <v>83.69205159286548</v>
       </c>
       <c r="F54" t="n">
-        <v>55.84729684241817</v>
+        <v>61.21038784026099</v>
       </c>
       <c r="G54" t="n">
-        <v>76.08152056081521</v>
+        <v>43.33219750079601</v>
+      </c>
+      <c r="H54" t="n">
+        <v>55.48802627683405</v>
+      </c>
+      <c r="I54" t="n">
+        <v>31.87933193636781</v>
+      </c>
+      <c r="J54" t="n">
+        <v>17.21230186840151</v>
+      </c>
+      <c r="K54" t="n">
+        <v>25.02436397900121</v>
+      </c>
+      <c r="L54" t="n">
+        <v>35.51352302018698</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>60.23027737701605</v>
+      </c>
+      <c r="O54" t="n">
+        <v>66.16765282448789</v>
+      </c>
+      <c r="P54" t="n">
+        <v>74.48556595218878</v>
       </c>
     </row>
     <row r="55">
@@ -1682,22 +3158,49 @@
         <v>100</v>
       </c>
       <c r="B55" t="n">
-        <v>99.9674754439602</v>
+        <v>100</v>
       </c>
       <c r="C55" t="n">
-        <v>25.21769255257392</v>
+        <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7797012424961594</v>
+        <v>68.65995966863483</v>
       </c>
       <c r="F55" t="n">
-        <v>27.81774416502132</v>
+        <v>55.08806426205333</v>
       </c>
       <c r="G55" t="n">
-        <v>47.78412867207231</v>
+        <v>66.59926152264869</v>
+      </c>
+      <c r="H55" t="n">
+        <v>84.67910868800169</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22.17833536912522</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.8014602013353</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10.97025171624713</v>
+      </c>
+      <c r="L55" t="n">
+        <v>26.7181822099019</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>28.07807975050123</v>
+      </c>
+      <c r="O55" t="n">
+        <v>6.804868575766008</v>
+      </c>
+      <c r="P55" t="n">
+        <v>37.76484585143803</v>
       </c>
     </row>
     <row r="56">
@@ -1708,19 +3211,46 @@
         <v>100</v>
       </c>
       <c r="C56" t="n">
-        <v>40.80916087713713</v>
+        <v>100</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E56" t="n">
-        <v>10.50788775652659</v>
+        <v>96.50591843232766</v>
       </c>
       <c r="F56" t="n">
-        <v>44.80170744132914</v>
+        <v>69.76711708943844</v>
       </c>
       <c r="G56" t="n">
-        <v>65.12172151031707</v>
+        <v>55.19475803973924</v>
+      </c>
+      <c r="H56" t="n">
+        <v>75.11912276487708</v>
+      </c>
+      <c r="I56" t="n">
+        <v>70.77697865961497</v>
+      </c>
+      <c r="J56" t="n">
+        <v>14.12568242129505</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4.3696325212007</v>
+      </c>
+      <c r="L56" t="n">
+        <v>47.26638412088854</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>53.60260183688874</v>
+      </c>
+      <c r="O56" t="n">
+        <v>27.83157401889844</v>
+      </c>
+      <c r="P56" t="n">
+        <v>64.66587935942857</v>
       </c>
     </row>
     <row r="57">
@@ -1731,19 +3261,46 @@
         <v>100</v>
       </c>
       <c r="C57" t="n">
-        <v>49.97612404262093</v>
+        <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>4.858733245005766</v>
+        <v>100</v>
       </c>
       <c r="E57" t="n">
-        <v>11.94220298757503</v>
+        <v>98.40853103336555</v>
       </c>
       <c r="F57" t="n">
-        <v>43.01863418159294</v>
+        <v>67.96002614276856</v>
       </c>
       <c r="G57" t="n">
-        <v>64.89622520304226</v>
+        <v>66.16801756257786</v>
+      </c>
+      <c r="H57" t="n">
+        <v>78.73330465821681</v>
+      </c>
+      <c r="I57" t="n">
+        <v>78.00045694468039</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22.34154183412495</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9.110512855027594</v>
+      </c>
+      <c r="L57" t="n">
+        <v>44.99379225532366</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>52.37077313042071</v>
+      </c>
+      <c r="O57" t="n">
+        <v>22.68692347120658</v>
+      </c>
+      <c r="P57" t="n">
+        <v>68.80889896218538</v>
       </c>
     </row>
     <row r="58">
@@ -1754,19 +3311,46 @@
         <v>100</v>
       </c>
       <c r="C58" t="n">
-        <v>38.98054343551619</v>
+        <v>100</v>
       </c>
       <c r="D58" t="n">
-        <v>2.096632654817014</v>
+        <v>100</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>98.20184675198445</v>
       </c>
       <c r="F58" t="n">
-        <v>26.33741975255674</v>
+        <v>67.4667768982834</v>
       </c>
       <c r="G58" t="n">
-        <v>42.77192549383677</v>
+        <v>44.05391666713218</v>
+      </c>
+      <c r="H58" t="n">
+        <v>90.06909958272119</v>
+      </c>
+      <c r="I58" t="n">
+        <v>70.73344078788725</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8.736614558177351</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.599811549333694</v>
+      </c>
+      <c r="L58" t="n">
+        <v>39.10982441133984</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>19.40946234270149</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3.289309168814086</v>
+      </c>
+      <c r="P58" t="n">
+        <v>30.13738941715253</v>
       </c>
     </row>
     <row r="59">
@@ -1774,22 +3358,49 @@
         <v>100</v>
       </c>
       <c r="B59" t="n">
-        <v>26.28634619137449</v>
+        <v>100</v>
       </c>
       <c r="C59" t="n">
-        <v>3.228872118499652</v>
+        <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" t="n">
-        <v>7.411699008795196</v>
+        <v>80.71412212247999</v>
       </c>
       <c r="F59" t="n">
-        <v>36.29256585805528</v>
+        <v>66.62216437545038</v>
       </c>
       <c r="G59" t="n">
-        <v>65.64441990316439</v>
+        <v>26.02601987520738</v>
+      </c>
+      <c r="H59" t="n">
+        <v>72.79532111475447</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43.03137510473886</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14.74936799366718</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8.925023556333286</v>
+      </c>
+      <c r="L59" t="n">
+        <v>49.75160175072997</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>41.13329279390011</v>
+      </c>
+      <c r="O59" t="n">
+        <v>18.46782632026115</v>
+      </c>
+      <c r="P59" t="n">
+        <v>49.83661517569173</v>
       </c>
     </row>
     <row r="60">
@@ -1797,22 +3408,49 @@
         <v>100</v>
       </c>
       <c r="B60" t="n">
-        <v>99.49261692577896</v>
+        <v>100</v>
       </c>
       <c r="C60" t="n">
-        <v>74.51311773187768</v>
+        <v>100</v>
       </c>
       <c r="D60" t="n">
-        <v>20.77038560145913</v>
+        <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>11.71520312718135</v>
+        <v>96.58188887088936</v>
       </c>
       <c r="F60" t="n">
-        <v>38.26860832574018</v>
+        <v>82.15309160582515</v>
       </c>
       <c r="G60" t="n">
-        <v>72.07347114200815</v>
+        <v>81.69335873129367</v>
+      </c>
+      <c r="H60" t="n">
+        <v>87.89835602205378</v>
+      </c>
+      <c r="I60" t="n">
+        <v>70.99153765800871</v>
+      </c>
+      <c r="J60" t="n">
+        <v>7.416659097102368</v>
+      </c>
+      <c r="K60" t="n">
+        <v>35.76120608426437</v>
+      </c>
+      <c r="L60" t="n">
+        <v>50.78767144247306</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>38.21907340653499</v>
+      </c>
+      <c r="O60" t="n">
+        <v>22.7162614280858</v>
+      </c>
+      <c r="P60" t="n">
+        <v>52.74181351543344</v>
       </c>
     </row>
     <row r="61">
@@ -1820,22 +3458,49 @@
         <v>100</v>
       </c>
       <c r="B61" t="n">
-        <v>99.96097053275223</v>
+        <v>100</v>
       </c>
       <c r="C61" t="n">
-        <v>33.34300855789218</v>
+        <v>100</v>
       </c>
       <c r="D61" t="n">
-        <v>19.65345768019684</v>
+        <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>11.92391456093816</v>
+        <v>57.18563041498852</v>
       </c>
       <c r="F61" t="n">
-        <v>40.37311913942808</v>
+        <v>61.63157688934571</v>
       </c>
       <c r="G61" t="n">
-        <v>60.33229639878211</v>
+        <v>93.16098471094924</v>
+      </c>
+      <c r="H61" t="n">
+        <v>85.62929777618885</v>
+      </c>
+      <c r="I61" t="n">
+        <v>53.00423236825349</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.566324297214948</v>
+      </c>
+      <c r="K61" t="n">
+        <v>28.68353748822183</v>
+      </c>
+      <c r="L61" t="n">
+        <v>71.40842291182112</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>33.39107195882411</v>
+      </c>
+      <c r="O61" t="n">
+        <v>11.9859821396805</v>
+      </c>
+      <c r="P61" t="n">
+        <v>57.85796582747039</v>
       </c>
     </row>
     <row r="62">
@@ -1843,22 +3508,49 @@
         <v>100</v>
       </c>
       <c r="B62" t="n">
-        <v>99.96097053275223</v>
+        <v>100</v>
       </c>
       <c r="C62" t="n">
-        <v>23.6343888691223</v>
+        <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>16.68036030765525</v>
+        <v>100</v>
       </c>
       <c r="E62" t="n">
-        <v>19.16445623342176</v>
+        <v>60.59815548244021</v>
       </c>
       <c r="F62" t="n">
-        <v>35.60098773703304</v>
+        <v>54.45069462676729</v>
       </c>
       <c r="G62" t="n">
-        <v>55.53447414264163</v>
+        <v>75.34088941273734</v>
+      </c>
+      <c r="H62" t="n">
+        <v>95.32390778529414</v>
+      </c>
+      <c r="I62" t="n">
+        <v>65.44335799960749</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9.96966992661288</v>
+      </c>
+      <c r="K62" t="n">
+        <v>27.48229909812896</v>
+      </c>
+      <c r="L62" t="n">
+        <v>63.18227737017725</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>33.25492686286172</v>
+      </c>
+      <c r="O62" t="n">
+        <v>13.43079234066552</v>
+      </c>
+      <c r="P62" t="n">
+        <v>53.73685251990197</v>
       </c>
     </row>
     <row r="63">
@@ -1866,22 +3558,49 @@
         <v>100</v>
       </c>
       <c r="B63" t="n">
-        <v>99.63572497235413</v>
+        <v>100</v>
       </c>
       <c r="C63" t="n">
-        <v>43.49450384824254</v>
+        <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>23.17996455426123</v>
+        <v>100</v>
       </c>
       <c r="E63" t="n">
-        <v>13.78807762110847</v>
+        <v>94.15530368624209</v>
       </c>
       <c r="F63" t="n">
-        <v>45.98551987128775</v>
+        <v>61.1869263812934</v>
       </c>
       <c r="G63" t="n">
-        <v>62.25367736582462</v>
+        <v>63.26103107526101</v>
+      </c>
+      <c r="H63" t="n">
+        <v>89.48926638252233</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64.74299085446862</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.79769250630252</v>
+      </c>
+      <c r="K63" t="n">
+        <v>33.83497105936196</v>
+      </c>
+      <c r="L63" t="n">
+        <v>64.46348318420659</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>34.97310308573415</v>
+      </c>
+      <c r="O63" t="n">
+        <v>22.81080214475301</v>
+      </c>
+      <c r="P63" t="n">
+        <v>68.69240003693785</v>
       </c>
     </row>
     <row r="64">
@@ -1889,22 +3608,49 @@
         <v>100</v>
       </c>
       <c r="B64" t="n">
-        <v>75.42444545631952</v>
+        <v>100</v>
       </c>
       <c r="C64" t="n">
-        <v>19.77397427014476</v>
+        <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>18.40038198805857</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>9.907720228954346</v>
+        <v>89.5037901428356</v>
       </c>
       <c r="F64" t="n">
-        <v>37.50132168578433</v>
+        <v>45.92915756604121</v>
       </c>
       <c r="G64" t="n">
-        <v>70.03629320626435</v>
+        <v>52.27883385376808</v>
+      </c>
+      <c r="H64" t="n">
+        <v>87.94360312149125</v>
+      </c>
+      <c r="I64" t="n">
+        <v>68.66463679860809</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9.55351643766798</v>
+      </c>
+      <c r="K64" t="n">
+        <v>34.41378382016423</v>
+      </c>
+      <c r="L64" t="n">
+        <v>51.71433598156472</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>25.51520881653396</v>
+      </c>
+      <c r="O64" t="n">
+        <v>30.70662134094192</v>
+      </c>
+      <c r="P64" t="n">
+        <v>69.74037600716204</v>
       </c>
     </row>
     <row r="65">
@@ -1915,19 +3661,46 @@
         <v>100</v>
       </c>
       <c r="C65" t="n">
-        <v>53.87773637197805</v>
+        <v>100</v>
       </c>
       <c r="D65" t="n">
-        <v>11.38694357933134</v>
+        <v>100</v>
       </c>
       <c r="E65" t="n">
-        <v>4.920145190562607</v>
+        <v>99.86314148935575</v>
       </c>
       <c r="F65" t="n">
-        <v>40.55475311437156</v>
+        <v>60.85176268175648</v>
       </c>
       <c r="G65" t="n">
-        <v>57.2705265005505</v>
+        <v>75.41350821430368</v>
+      </c>
+      <c r="H65" t="n">
+        <v>88.60834445890615</v>
+      </c>
+      <c r="I65" t="n">
+        <v>87.14526920264011</v>
+      </c>
+      <c r="J65" t="n">
+        <v>9.132622385367554</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6.591735092206221</v>
+      </c>
+      <c r="L65" t="n">
+        <v>51.2948565225666</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>24.06832415160034</v>
+      </c>
+      <c r="O65" t="n">
+        <v>12.51213906947214</v>
+      </c>
+      <c r="P65" t="n">
+        <v>61.4255941729996</v>
       </c>
     </row>
     <row r="66">
@@ -1935,22 +3708,49 @@
         <v>100</v>
       </c>
       <c r="B66" t="n">
-        <v>86.7104664021336</v>
+        <v>100</v>
       </c>
       <c r="C66" t="n">
-        <v>75.70597928877737</v>
+        <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>31.1718171963453</v>
+        <v>100</v>
       </c>
       <c r="E66" t="n">
-        <v>13.55214295686164</v>
+        <v>98.75095661305909</v>
       </c>
       <c r="F66" t="n">
-        <v>53.22852812431366</v>
+        <v>85.40026924817197</v>
       </c>
       <c r="G66" t="n">
-        <v>68.02661122277323</v>
+        <v>75.27441527899585</v>
+      </c>
+      <c r="H66" t="n">
+        <v>98.67889641765866</v>
+      </c>
+      <c r="I66" t="n">
+        <v>68.06235530760181</v>
+      </c>
+      <c r="J66" t="n">
+        <v>30.52743664371407</v>
+      </c>
+      <c r="K66" t="n">
+        <v>15.137972809261</v>
+      </c>
+      <c r="L66" t="n">
+        <v>68.62685290233787</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>45.50786985116447</v>
+      </c>
+      <c r="O66" t="n">
+        <v>31.59869735503928</v>
+      </c>
+      <c r="P66" t="n">
+        <v>84.27021063704235</v>
       </c>
     </row>
     <row r="67">
@@ -1961,19 +3761,46 @@
         <v>100</v>
       </c>
       <c r="C67" t="n">
-        <v>70.00758412763807</v>
+        <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>8.130796496722127</v>
+        <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>15.4651682256038</v>
+        <v>91.7644692962121</v>
       </c>
       <c r="F67" t="n">
-        <v>49.86388562050356</v>
+        <v>64.53688755816486</v>
       </c>
       <c r="G67" t="n">
-        <v>55.88956125836564</v>
+        <v>92.26665623935158</v>
+      </c>
+      <c r="H67" t="n">
+        <v>95.56690146745839</v>
+      </c>
+      <c r="I67" t="n">
+        <v>63.10455192034139</v>
+      </c>
+      <c r="J67" t="n">
+        <v>25.4452051876947</v>
+      </c>
+      <c r="K67" t="n">
+        <v>8.567236505586223</v>
+      </c>
+      <c r="L67" t="n">
+        <v>43.76101822972161</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>36.76039713948484</v>
+      </c>
+      <c r="O67" t="n">
+        <v>19.41382937576589</v>
+      </c>
+      <c r="P67" t="n">
+        <v>60.80389217322434</v>
       </c>
     </row>
     <row r="68">
@@ -1984,19 +3811,46 @@
         <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>66.07975506076664</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>25.32370046630074</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>28.92126204104426</v>
+        <v>85.70415100241877</v>
       </c>
       <c r="F68" t="n">
-        <v>55.58855847440546</v>
+        <v>93.1537228307926</v>
       </c>
       <c r="G68" t="n">
-        <v>61.46871004348707</v>
+        <v>73.97174570012903</v>
+      </c>
+      <c r="H68" t="n">
+        <v>89.55853354709329</v>
+      </c>
+      <c r="I68" t="n">
+        <v>64.30669110046048</v>
+      </c>
+      <c r="J68" t="n">
+        <v>67.75499650514567</v>
+      </c>
+      <c r="K68" t="n">
+        <v>14.03499798088572</v>
+      </c>
+      <c r="L68" t="n">
+        <v>45.43487527147989</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>49.25758443826049</v>
+      </c>
+      <c r="O68" t="n">
+        <v>26.75662011340224</v>
+      </c>
+      <c r="P68" t="n">
+        <v>68.2019960331203</v>
       </c>
     </row>
     <row r="69">
@@ -2004,22 +3858,49 @@
         <v>100</v>
       </c>
       <c r="B69" t="n">
-        <v>58.47264684837052</v>
+        <v>100</v>
       </c>
       <c r="C69" t="n">
-        <v>29.77378700773394</v>
+        <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>19.40761739250134</v>
+        <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>24.27977104565127</v>
+        <v>98.34317411195585</v>
       </c>
       <c r="F69" t="n">
-        <v>53.6063406476636</v>
+        <v>98.09627018663032</v>
       </c>
       <c r="G69" t="n">
-        <v>62.67068484047427</v>
+        <v>34.14480189032327</v>
+      </c>
+      <c r="H69" t="n">
+        <v>59.94961372383628</v>
+      </c>
+      <c r="I69" t="n">
+        <v>65.63223836597179</v>
+      </c>
+      <c r="J69" t="n">
+        <v>58.85892198694386</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5.687979539641944</v>
+      </c>
+      <c r="L69" t="n">
+        <v>48.72249021803457</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>36.93376755655623</v>
+      </c>
+      <c r="O69" t="n">
+        <v>28.79555069915767</v>
+      </c>
+      <c r="P69" t="n">
+        <v>73.13553797635618</v>
       </c>
     </row>
     <row r="70">
@@ -2027,22 +3908,49 @@
         <v>100</v>
       </c>
       <c r="B70" t="n">
-        <v>98.95921420672607</v>
+        <v>100</v>
       </c>
       <c r="C70" t="n">
-        <v>41.40980505983034</v>
+        <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>9.48754237142316</v>
+        <v>100</v>
       </c>
       <c r="E70" t="n">
-        <v>19.43878263297502</v>
+        <v>99.11349201472486</v>
       </c>
       <c r="F70" t="n">
-        <v>47.0833842100884</v>
+        <v>92.31246194495495</v>
       </c>
       <c r="G70" t="n">
-        <v>54.03571437486116</v>
+        <v>51.71464162621427</v>
+      </c>
+      <c r="H70" t="n">
+        <v>66.66797008105377</v>
+      </c>
+      <c r="I70" t="n">
+        <v>75.51953893302027</v>
+      </c>
+      <c r="J70" t="n">
+        <v>37.58828130555359</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.057073630367483</v>
+      </c>
+      <c r="L70" t="n">
+        <v>36.98230036801215</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>17.08999147845502</v>
+      </c>
+      <c r="O70" t="n">
+        <v>17.04029822436861</v>
+      </c>
+      <c r="P70" t="n">
+        <v>63.41622777491784</v>
       </c>
     </row>
     <row r="71">
@@ -2053,19 +3961,46 @@
         <v>100</v>
       </c>
       <c r="C71" t="n">
-        <v>79.74242055392222</v>
+        <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>9.513352375380705</v>
+        <v>100</v>
       </c>
       <c r="E71" t="n">
-        <v>27.7859835264554</v>
+        <v>98.1473559120618</v>
       </c>
       <c r="F71" t="n">
-        <v>45.21882404704179</v>
+        <v>85.93708977359692</v>
       </c>
       <c r="G71" t="n">
-        <v>52.84345501560507</v>
+        <v>84.49532725942228</v>
+      </c>
+      <c r="H71" t="n">
+        <v>90.23990605077732</v>
+      </c>
+      <c r="I71" t="n">
+        <v>74.67480753915582</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26.6511501284901</v>
+      </c>
+      <c r="K71" t="n">
+        <v>11.61529142549468</v>
+      </c>
+      <c r="L71" t="n">
+        <v>65.85501269035532</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>32.17388571508387</v>
+      </c>
+      <c r="O71" t="n">
+        <v>16.58695990080936</v>
+      </c>
+      <c r="P71" t="n">
+        <v>77.82865865292882</v>
       </c>
     </row>
     <row r="72">
@@ -2073,22 +4008,49 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>84.22559032069212</v>
+        <v>100</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D72" t="n">
-        <v>6.094387184472708</v>
+        <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>35.33728884545582</v>
+        <v>99.21292391225414</v>
       </c>
       <c r="F72" t="n">
-        <v>58.42415406508583</v>
+        <v>42.062485685717</v>
       </c>
       <c r="G72" t="n">
-        <v>58.27287116990748</v>
+        <v>26.62763871587615</v>
+      </c>
+      <c r="H72" t="n">
+        <v>84.04173905271567</v>
+      </c>
+      <c r="I72" t="n">
+        <v>81.58897307478276</v>
+      </c>
+      <c r="J72" t="n">
+        <v>47.27284123673744</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.84223987077668</v>
+      </c>
+      <c r="L72" t="n">
+        <v>46.89509986994388</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>60.54300995871403</v>
+      </c>
+      <c r="O72" t="n">
+        <v>15.10985677250915</v>
+      </c>
+      <c r="P72" t="n">
+        <v>69.34372267654169</v>
       </c>
     </row>
     <row r="73">
@@ -2096,22 +4058,49 @@
         <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>99.85689195342484</v>
+        <v>100</v>
       </c>
       <c r="C73" t="n">
-        <v>40.75345030991929</v>
+        <v>100</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E73" t="n">
-        <v>37.18023174647494</v>
+        <v>98.70116156282999</v>
       </c>
       <c r="F73" t="n">
-        <v>56.74838197756144</v>
+        <v>70.96700313378059</v>
       </c>
       <c r="G73" t="n">
-        <v>59.6931688296063</v>
+        <v>50.16227509119246</v>
+      </c>
+      <c r="H73" t="n">
+        <v>90.03552659954826</v>
+      </c>
+      <c r="I73" t="n">
+        <v>72.98698067833153</v>
+      </c>
+      <c r="J73" t="n">
+        <v>36.33903262551018</v>
+      </c>
+      <c r="K73" t="n">
+        <v>10.00484587427648</v>
+      </c>
+      <c r="L73" t="n">
+        <v>65.85227594807552</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>53.80329496149474</v>
+      </c>
+      <c r="O73" t="n">
+        <v>30.94714104475128</v>
+      </c>
+      <c r="P73" t="n">
+        <v>73.43871182184141</v>
       </c>
     </row>
     <row r="74">
@@ -2122,19 +4111,46 @@
         <v>100</v>
       </c>
       <c r="C74" t="n">
-        <v>82.72363813411734</v>
+        <v>100</v>
       </c>
       <c r="D74" t="n">
-        <v>27.79350276167042</v>
+        <v>100</v>
       </c>
       <c r="E74" t="n">
-        <v>27.35264553957839</v>
+        <v>96.33319513206351</v>
       </c>
       <c r="F74" t="n">
-        <v>44.89947012318648</v>
+        <v>90.44448292620254</v>
       </c>
       <c r="G74" t="n">
-        <v>48.05921817307016</v>
+        <v>93.87544199712876</v>
+      </c>
+      <c r="H74" t="n">
+        <v>87.79499067111438</v>
+      </c>
+      <c r="I74" t="n">
+        <v>57.90773701416636</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29.46558800338502</v>
+      </c>
+      <c r="K74" t="n">
+        <v>34.53600753802665</v>
+      </c>
+      <c r="L74" t="n">
+        <v>63.71553974942553</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>19.32548989937202</v>
+      </c>
+      <c r="O74" t="n">
+        <v>14.69799604854643</v>
+      </c>
+      <c r="P74" t="n">
+        <v>73.00606388320266</v>
       </c>
     </row>
     <row r="75">
@@ -2142,22 +4158,49 @@
         <v>100</v>
       </c>
       <c r="B75" t="n">
-        <v>74.35113510700579</v>
+        <v>100</v>
       </c>
       <c r="C75" t="n">
-        <v>27.65912623359114</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E75" t="n">
-        <v>25.83610219181907</v>
+        <v>98.89938801662295</v>
       </c>
       <c r="F75" t="n">
-        <v>50.52977957684652</v>
+        <v>68.36222258221287</v>
       </c>
       <c r="G75" t="n">
-        <v>49.84279247539128</v>
+        <v>26.57568834244792</v>
+      </c>
+      <c r="H75" t="n">
+        <v>90.78902142861168</v>
+      </c>
+      <c r="I75" t="n">
+        <v>83.14414357283277</v>
+      </c>
+      <c r="J75" t="n">
+        <v>13.38183004964185</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.3085206622694869</v>
+      </c>
+      <c r="L75" t="n">
+        <v>48.49499161633351</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>18.03429972934305</v>
+      </c>
+      <c r="O75" t="n">
+        <v>17.76430973917134</v>
+      </c>
+      <c r="P75" t="n">
+        <v>82.29784449261729</v>
       </c>
     </row>
     <row r="76">
@@ -2165,22 +4208,49 @@
         <v>100</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C76" t="n">
-        <v>28.53457800415723</v>
+        <v>100</v>
       </c>
       <c r="D76" t="n">
-        <v>5.940387494192748</v>
+        <v>100</v>
       </c>
       <c r="E76" t="n">
-        <v>34.01800921401647</v>
+        <v>98.62715688218961</v>
       </c>
       <c r="F76" t="n">
-        <v>47.04206167962106</v>
+        <v>71.18430093231369</v>
       </c>
       <c r="G76" t="n">
-        <v>56.04757009925726</v>
+        <v>30.17702229397207</v>
+      </c>
+      <c r="H76" t="n">
+        <v>85.8203038098878</v>
+      </c>
+      <c r="I76" t="n">
+        <v>80.98124509734009</v>
+      </c>
+      <c r="J76" t="n">
+        <v>45.87456284051103</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.006326558083188</v>
+      </c>
+      <c r="L76" t="n">
+        <v>42.06051311027701</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>18.54262265473614</v>
+      </c>
+      <c r="O76" t="n">
+        <v>16.71174877245183</v>
+      </c>
+      <c r="P76" t="n">
+        <v>77.69784172661871</v>
       </c>
     </row>
     <row r="77">
@@ -2191,19 +4261,46 @@
         <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>60.97451358588791</v>
+        <v>100</v>
       </c>
       <c r="D77" t="n">
-        <v>10.78040848632929</v>
+        <v>100</v>
       </c>
       <c r="E77" t="n">
-        <v>33.56289264274746</v>
+        <v>98.71427231430984</v>
       </c>
       <c r="F77" t="n">
-        <v>44.65732348762796</v>
+        <v>84.61151734192842</v>
       </c>
       <c r="G77" t="n">
-        <v>50.3750928094123</v>
+        <v>62.69851466620489</v>
+      </c>
+      <c r="H77" t="n">
+        <v>94.57156809237928</v>
+      </c>
+      <c r="I77" t="n">
+        <v>72.03254505360809</v>
+      </c>
+      <c r="J77" t="n">
+        <v>32.15599302722485</v>
+      </c>
+      <c r="K77" t="n">
+        <v>7.967424956252529</v>
+      </c>
+      <c r="L77" t="n">
+        <v>71.03841162082564</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>31.31166479868955</v>
+      </c>
+      <c r="O77" t="n">
+        <v>18.15156416886073</v>
+      </c>
+      <c r="P77" t="n">
+        <v>77.85445420326224</v>
       </c>
     </row>
     <row r="78">
@@ -2214,19 +4311,46 @@
         <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>62.48572124117526</v>
+        <v>100</v>
       </c>
       <c r="D78" t="n">
-        <v>11.3828569953714</v>
+        <v>100</v>
       </c>
       <c r="E78" t="n">
-        <v>30.21694820605892</v>
+        <v>98.76029405265251</v>
       </c>
       <c r="F78" t="n">
-        <v>43.83610780888535</v>
+        <v>93.14813676913366</v>
       </c>
       <c r="G78" t="n">
-        <v>41.3822540386882</v>
+        <v>63.95090969014116</v>
+      </c>
+      <c r="H78" t="n">
+        <v>97.91576942441024</v>
+      </c>
+      <c r="I78" t="n">
+        <v>79.56786418588699</v>
+      </c>
+      <c r="J78" t="n">
+        <v>24.80170790204116</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9.238928523354417</v>
+      </c>
+      <c r="L78" t="n">
+        <v>65.45408793161748</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>20.03873458472549</v>
+      </c>
+      <c r="O78" t="n">
+        <v>15.78573829890553</v>
+      </c>
+      <c r="P78" t="n">
+        <v>80.67109402306886</v>
       </c>
     </row>
     <row r="79">
@@ -2237,19 +4361,46 @@
         <v>100</v>
       </c>
       <c r="C79" t="n">
-        <v>51.64463212299395</v>
+        <v>100</v>
       </c>
       <c r="D79" t="n">
-        <v>5.150601373092215</v>
+        <v>100</v>
       </c>
       <c r="E79" t="n">
-        <v>27.23830797152031</v>
+        <v>99.2922585052218</v>
       </c>
       <c r="F79" t="n">
-        <v>38.4122795611443</v>
+        <v>73.17740773222654</v>
       </c>
       <c r="G79" t="n">
-        <v>35.58267855818227</v>
+        <v>58.38160621616942</v>
+      </c>
+      <c r="H79" t="n">
+        <v>99.76332064700286</v>
+      </c>
+      <c r="I79" t="n">
+        <v>80.09239516702203</v>
+      </c>
+      <c r="J79" t="n">
+        <v>22.21141664138756</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3.03432494279177</v>
+      </c>
+      <c r="L79" t="n">
+        <v>68.88232361192763</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5.205908195922234</v>
+      </c>
+      <c r="O79" t="n">
+        <v>9.818034865942479</v>
+      </c>
+      <c r="P79" t="n">
+        <v>74.85990437509639</v>
       </c>
     </row>
     <row r="80">
@@ -2260,19 +4411,46 @@
         <v>100</v>
       </c>
       <c r="C80" t="n">
-        <v>51.27432070560477</v>
+        <v>100</v>
       </c>
       <c r="D80" t="n">
-        <v>4.752697145413563</v>
+        <v>100</v>
       </c>
       <c r="E80" t="n">
-        <v>27.46837917073852</v>
+        <v>99.28329683456101</v>
       </c>
       <c r="F80" t="n">
-        <v>38.36685096739784</v>
+        <v>75.51014708100348</v>
       </c>
       <c r="G80" t="n">
-        <v>36.18136386820946</v>
+        <v>59.92726947720049</v>
+      </c>
+      <c r="H80" t="n">
+        <v>99.78485264551561</v>
+      </c>
+      <c r="I80" t="n">
+        <v>81.94274341702388</v>
+      </c>
+      <c r="J80" t="n">
+        <v>18.09417432293503</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2.443397496298289</v>
+      </c>
+      <c r="L80" t="n">
+        <v>74.09190882431352</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3.706313987320257</v>
+      </c>
+      <c r="O80" t="n">
+        <v>11.74821610601427</v>
+      </c>
+      <c r="P80" t="n">
+        <v>81.91865273287723</v>
       </c>
     </row>
     <row r="81">
@@ -2283,19 +4461,46 @@
         <v>100</v>
       </c>
       <c r="C81" t="n">
-        <v>54.78034119211251</v>
+        <v>100</v>
       </c>
       <c r="D81" t="n">
-        <v>7.676970593802153</v>
+        <v>100</v>
       </c>
       <c r="E81" t="n">
-        <v>28.20577970124249</v>
+        <v>99.30811276224448</v>
       </c>
       <c r="F81" t="n">
-        <v>38.35472207632679</v>
+        <v>78.80592345978314</v>
       </c>
       <c r="G81" t="n">
-        <v>37.59935476503169</v>
+        <v>63.13534468793466</v>
+      </c>
+      <c r="H81" t="n">
+        <v>99.96368825410578</v>
+      </c>
+      <c r="I81" t="n">
+        <v>83.76891334250344</v>
+      </c>
+      <c r="J81" t="n">
+        <v>18.92778479339813</v>
+      </c>
+      <c r="K81" t="n">
+        <v>4.217525911966618</v>
+      </c>
+      <c r="L81" t="n">
+        <v>77.72404558459448</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.196785797935277</v>
+      </c>
+      <c r="O81" t="n">
+        <v>12.81611865377164</v>
+      </c>
+      <c r="P81" t="n">
+        <v>80.38139662505145</v>
       </c>
     </row>
     <row r="82">
@@ -2306,19 +4511,46 @@
         <v>100</v>
       </c>
       <c r="C82" t="n">
-        <v>55.27471395666748</v>
+        <v>100</v>
       </c>
       <c r="D82" t="n">
-        <v>11.59170294406113</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
-        <v>30.5987714644702</v>
+        <v>99.13035242252818</v>
       </c>
       <c r="F82" t="n">
-        <v>35.99607253598691</v>
+        <v>79.7561125479703</v>
       </c>
       <c r="G82" t="n">
-        <v>33.54511872413732</v>
+        <v>69.51574431478575</v>
+      </c>
+      <c r="H82" t="n">
+        <v>99.99933337777482</v>
+      </c>
+      <c r="I82" t="n">
+        <v>80.27972027972028</v>
+      </c>
+      <c r="J82" t="n">
+        <v>18.45117011836999</v>
+      </c>
+      <c r="K82" t="n">
+        <v>4.688921792973474</v>
+      </c>
+      <c r="L82" t="n">
+        <v>84.33213736545362</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2.648530127805543</v>
+      </c>
+      <c r="O82" t="n">
+        <v>11.00437852701369</v>
+      </c>
+      <c r="P82" t="n">
+        <v>80.44119713362372</v>
       </c>
     </row>
     <row r="83">
@@ -2329,19 +4561,46 @@
         <v>100</v>
       </c>
       <c r="C83" t="n">
-        <v>66.11346229471359</v>
+        <v>100</v>
       </c>
       <c r="D83" t="n">
-        <v>25.55878658568062</v>
+        <v>100</v>
       </c>
       <c r="E83" t="n">
-        <v>35.04615554071248</v>
+        <v>99.73255419899067</v>
       </c>
       <c r="F83" t="n">
-        <v>38.09081831216714</v>
+        <v>94.15753811090566</v>
       </c>
       <c r="G83" t="n">
-        <v>39.31884566460051</v>
+        <v>78.22497304725249</v>
+      </c>
+      <c r="H83" t="n">
+        <v>99.85348951351193</v>
+      </c>
+      <c r="I83" t="n">
+        <v>89.12562580044242</v>
+      </c>
+      <c r="J83" t="n">
+        <v>34.48966547174757</v>
+      </c>
+      <c r="K83" t="n">
+        <v>14.73414995288734</v>
+      </c>
+      <c r="L83" t="n">
+        <v>90.05061460592914</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4.336411943319845</v>
+      </c>
+      <c r="O83" t="n">
+        <v>17.35794066951654</v>
+      </c>
+      <c r="P83" t="n">
+        <v>57.46268656716418</v>
       </c>
     </row>
     <row r="84">
@@ -2352,19 +4611,46 @@
         <v>100</v>
       </c>
       <c r="C84" t="n">
-        <v>59.95580607104736</v>
+        <v>100</v>
       </c>
       <c r="D84" t="n">
-        <v>15.51977046303146</v>
+        <v>100</v>
       </c>
       <c r="E84" t="n">
-        <v>33.19558844059752</v>
+        <v>99.63714969505133</v>
       </c>
       <c r="F84" t="n">
-        <v>37.03324834151734</v>
+        <v>80.79009256104169</v>
       </c>
       <c r="G84" t="n">
-        <v>35.83858087108389</v>
+        <v>72.60371919985252</v>
+      </c>
+      <c r="H84" t="n">
+        <v>100</v>
+      </c>
+      <c r="I84" t="n">
+        <v>83.06633125910234</v>
+      </c>
+      <c r="J84" t="n">
+        <v>23.43851037784937</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9.329923273657286</v>
+      </c>
+      <c r="L84" t="n">
+        <v>92.68082006452285</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.340118060409736</v>
+      </c>
+      <c r="O84" t="n">
+        <v>14.22862064060223</v>
+      </c>
+      <c r="P84" t="n">
+        <v>80.98018128744815</v>
       </c>
     </row>
     <row r="85">
@@ -2375,19 +4661,46 @@
         <v>100</v>
       </c>
       <c r="C85" t="n">
-        <v>57.78262579352447</v>
+        <v>100</v>
       </c>
       <c r="D85" t="n">
-        <v>19.56398299981072</v>
+        <v>100</v>
       </c>
       <c r="E85" t="n">
-        <v>34.40405061589581</v>
+        <v>99.55773223713001</v>
       </c>
       <c r="F85" t="n">
-        <v>35.78199792696456</v>
+        <v>81.43751710731382</v>
       </c>
       <c r="G85" t="n">
-        <v>33.98502702077377</v>
+        <v>74.19016071099392</v>
+      </c>
+      <c r="H85" t="n">
+        <v>100</v>
+      </c>
+      <c r="I85" t="n">
+        <v>82.01727948563391</v>
+      </c>
+      <c r="J85" t="n">
+        <v>22.41942475471789</v>
+      </c>
+      <c r="K85" t="n">
+        <v>11.72001615291425</v>
+      </c>
+      <c r="L85" t="n">
+        <v>92.94336636311959</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.246512699346596</v>
+      </c>
+      <c r="O85" t="n">
+        <v>14.11936401828314</v>
+      </c>
+      <c r="P85" t="n">
+        <v>80.10269576379974</v>
       </c>
     </row>
     <row r="86">
@@ -2398,19 +4711,46 @@
         <v>100</v>
       </c>
       <c r="C86" t="n">
-        <v>58.90713657047621</v>
+        <v>100</v>
       </c>
       <c r="D86" t="n">
-        <v>27.77285475850439</v>
+        <v>100</v>
       </c>
       <c r="E86" t="n">
-        <v>37.00628686610289</v>
+        <v>99.75023572130721</v>
       </c>
       <c r="F86" t="n">
-        <v>38.20792050758956</v>
+        <v>89.08148388141909</v>
       </c>
       <c r="G86" t="n">
-        <v>39.44435934747646</v>
+        <v>77.48035102811465</v>
+      </c>
+      <c r="H86" t="n">
+        <v>99.81900661588583</v>
+      </c>
+      <c r="I86" t="n">
+        <v>86.83700440528634</v>
+      </c>
+      <c r="J86" t="n">
+        <v>30.31082817776981</v>
+      </c>
+      <c r="K86" t="n">
+        <v>19.99676941714901</v>
+      </c>
+      <c r="L86" t="n">
+        <v>89.49594474718033</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4.866126244609845</v>
+      </c>
+      <c r="O86" t="n">
+        <v>18.51570953291063</v>
+      </c>
+      <c r="P86" t="n">
+        <v>30.11363636363636</v>
       </c>
     </row>
     <row r="87">
@@ -2421,19 +4761,46 @@
         <v>100</v>
       </c>
       <c r="C87" t="n">
-        <v>63.33636074230819</v>
+        <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>31.26795946108712</v>
+        <v>100</v>
       </c>
       <c r="E87" t="n">
-        <v>38.20555124360807</v>
+        <v>99.77008999052731</v>
       </c>
       <c r="F87" t="n">
-        <v>37.76089289321855</v>
+        <v>88.05253132384075</v>
       </c>
       <c r="G87" t="n">
-        <v>37.34642481621976</v>
+        <v>80.93533016417436</v>
+      </c>
+      <c r="H87" t="n">
+        <v>100</v>
+      </c>
+      <c r="I87" t="n">
+        <v>86.58536585365853</v>
+      </c>
+      <c r="J87" t="n">
+        <v>32.60143807090716</v>
+      </c>
+      <c r="K87" t="n">
+        <v>21.73643828240679</v>
+      </c>
+      <c r="L87" t="n">
+        <v>92.43785388306983</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>6.279147336183627</v>
+      </c>
+      <c r="O87" t="n">
+        <v>17.30761297673186</v>
+      </c>
+      <c r="P87" t="n">
+        <v>70.66205106014712</v>
       </c>
     </row>
     <row r="88">
@@ -2441,22 +4808,49 @@
         <v>100</v>
       </c>
       <c r="B88" t="n">
-        <v>99.83737721980096</v>
+        <v>100</v>
       </c>
       <c r="C88" t="n">
-        <v>59.06771408775116</v>
+        <v>100</v>
       </c>
       <c r="D88" t="n">
-        <v>48.16297296832253</v>
+        <v>100</v>
       </c>
       <c r="E88" t="n">
-        <v>36.0044785668586</v>
+        <v>99.7078971177459</v>
       </c>
       <c r="F88" t="n">
-        <v>37.81343746697271</v>
+        <v>99.36095454621628</v>
       </c>
       <c r="G88" t="n">
-        <v>41.27759126239895</v>
+        <v>87.85478474111397</v>
+      </c>
+      <c r="H88" t="n">
+        <v>99.63952323436608</v>
+      </c>
+      <c r="I88" t="n">
+        <v>79.23041261010663</v>
+      </c>
+      <c r="J88" t="n">
+        <v>40.20615107607334</v>
+      </c>
+      <c r="K88" t="n">
+        <v>27.73584549249671</v>
+      </c>
+      <c r="L88" t="n">
+        <v>84.99079189686924</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>8.241649817109618</v>
+      </c>
+      <c r="O88" t="n">
+        <v>18.20681685424297</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2467,19 +4861,46 @@
         <v>100</v>
       </c>
       <c r="C89" t="n">
-        <v>51.25653077657722</v>
+        <v>100</v>
       </c>
       <c r="D89" t="n">
-        <v>22.11186055715196</v>
+        <v>100</v>
       </c>
       <c r="E89" t="n">
-        <v>33.26807312363873</v>
+        <v>99.90085087972311</v>
       </c>
       <c r="F89" t="n">
-        <v>36.95126976043077</v>
+        <v>83.19991956071212</v>
       </c>
       <c r="G89" t="n">
-        <v>42.49957486461339</v>
+        <v>67.65726160085356</v>
+      </c>
+      <c r="H89" t="n">
+        <v>99.77966851165698</v>
+      </c>
+      <c r="I89" t="n">
+        <v>91.97382589248737</v>
+      </c>
+      <c r="J89" t="n">
+        <v>25.93168641072833</v>
+      </c>
+      <c r="K89" t="n">
+        <v>15.38231635406065</v>
+      </c>
+      <c r="L89" t="n">
+        <v>87.96073717948718</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4.266376140542022</v>
+      </c>
+      <c r="O89" t="n">
+        <v>14.97610866926024</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2487,22 +4908,49 @@
         <v>100</v>
       </c>
       <c r="B90" t="n">
-        <v>99.8633968646328</v>
+        <v>100</v>
       </c>
       <c r="C90" t="n">
-        <v>53.82857998913878</v>
+        <v>100</v>
       </c>
       <c r="D90" t="n">
-        <v>37.84585405303096</v>
+        <v>100</v>
       </c>
       <c r="E90" t="n">
-        <v>35.07745531772302</v>
+        <v>99.8935935533265</v>
       </c>
       <c r="F90" t="n">
-        <v>36.59449112851772</v>
+        <v>92.46552003441013</v>
       </c>
       <c r="G90" t="n">
-        <v>38.90069441809282</v>
+        <v>84.00263662110302</v>
+      </c>
+      <c r="H90" t="n">
+        <v>99.61789962971717</v>
+      </c>
+      <c r="I90" t="n">
+        <v>85.51797040169133</v>
+      </c>
+      <c r="J90" t="n">
+        <v>31.29089577505373</v>
+      </c>
+      <c r="K90" t="n">
+        <v>24.96123316489188</v>
+      </c>
+      <c r="L90" t="n">
+        <v>82.09311449682862</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.851568876771964</v>
+      </c>
+      <c r="O90" t="n">
+        <v>16.32746195572243</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2510,22 +4958,49 @@
         <v>100</v>
       </c>
       <c r="B91" t="n">
-        <v>99.95446562154427</v>
+        <v>100</v>
       </c>
       <c r="C91" t="n">
-        <v>52.0949982210071</v>
+        <v>100</v>
       </c>
       <c r="D91" t="n">
-        <v>39.72224134074367</v>
+        <v>100</v>
       </c>
       <c r="E91" t="n">
-        <v>37.05321058543191</v>
+        <v>99.46277590722035</v>
       </c>
       <c r="F91" t="n">
-        <v>35.27066625863058</v>
+        <v>88.98763804554875</v>
       </c>
       <c r="G91" t="n">
-        <v>33.19649337795164</v>
+        <v>85.88402218783691</v>
+      </c>
+      <c r="H91" t="n">
+        <v>99.88226719739866</v>
+      </c>
+      <c r="I91" t="n">
+        <v>49.27536231884058</v>
+      </c>
+      <c r="J91" t="n">
+        <v>26.1724505545213</v>
+      </c>
+      <c r="K91" t="n">
+        <v>28.3928182016428</v>
+      </c>
+      <c r="L91" t="n">
+        <v>87.74544902254334</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>4.910243194280937</v>
+      </c>
+      <c r="O91" t="n">
+        <v>16.67965039530877</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2533,22 +5008,49 @@
         <v>100</v>
       </c>
       <c r="B92" t="n">
-        <v>99.94145579912835</v>
+        <v>100</v>
       </c>
       <c r="C92" t="n">
-        <v>55.42546019737458</v>
+        <v>100</v>
       </c>
       <c r="D92" t="n">
-        <v>40.5184799628336</v>
+        <v>100</v>
       </c>
       <c r="E92" t="n">
-        <v>37.00393444191317</v>
+        <v>99.9001688502163</v>
       </c>
       <c r="F92" t="n">
-        <v>38.84256202245071</v>
+        <v>88.33630325611534</v>
       </c>
       <c r="G92" t="n">
-        <v>41.18706318901678</v>
+        <v>84.06184887468788</v>
+      </c>
+      <c r="H92" t="n">
+        <v>99.74569621569499</v>
+      </c>
+      <c r="I92" t="n">
+        <v>85.73065902578797</v>
+      </c>
+      <c r="J92" t="n">
+        <v>28.93253976557666</v>
+      </c>
+      <c r="K92" t="n">
+        <v>31.16390821205061</v>
+      </c>
+      <c r="L92" t="n">
+        <v>85.17208863743517</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5.925024180368879</v>
+      </c>
+      <c r="O92" t="n">
+        <v>20.40509756726554</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2556,22 +5058,49 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>99.88291159825668</v>
+        <v>100</v>
       </c>
       <c r="C93" t="n">
-        <v>51.70455609445516</v>
+        <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>48.14124954832493</v>
+        <v>100</v>
       </c>
       <c r="E93" t="n">
-        <v>39.73858523992788</v>
+        <v>99.5727513857785</v>
       </c>
       <c r="F93" t="n">
-        <v>39.04848436634245</v>
+        <v>89.47921147153622</v>
       </c>
       <c r="G93" t="n">
-        <v>37.49778083702155</v>
+        <v>87.48498745929157</v>
+      </c>
+      <c r="H93" t="n">
+        <v>99.85988468206928</v>
+      </c>
+      <c r="I93" t="n">
+        <v>40.94202898550725</v>
+      </c>
+      <c r="J93" t="n">
+        <v>30.18313190613186</v>
+      </c>
+      <c r="K93" t="n">
+        <v>39.94038466726012</v>
+      </c>
+      <c r="L93" t="n">
+        <v>87.82953035002215</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>7.208452211126954</v>
+      </c>
+      <c r="O93" t="n">
+        <v>22.52570044260426</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2579,22 +5108,49 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>84.51180641384245</v>
+        <v>100</v>
       </c>
       <c r="C94" t="n">
-        <v>55.52424111908017</v>
+        <v>100</v>
       </c>
       <c r="D94" t="n">
-        <v>54.10486604607946</v>
+        <v>100</v>
       </c>
       <c r="E94" t="n">
-        <v>38.54802994219065</v>
+        <v>99.80246163197083</v>
       </c>
       <c r="F94" t="n">
-        <v>37.91298305104295</v>
+        <v>94.41476118810108</v>
       </c>
       <c r="G94" t="n">
-        <v>36.17649198612003</v>
+        <v>93.241982605004</v>
+      </c>
+      <c r="H94" t="n">
+        <v>99.75375186396158</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>33.98607994275864</v>
+      </c>
+      <c r="K94" t="n">
+        <v>43.10005198216192</v>
+      </c>
+      <c r="L94" t="n">
+        <v>87.95781177561427</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.82035713656569</v>
+      </c>
+      <c r="O94" t="n">
+        <v>22.02577275879837</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2602,22 +5158,49 @@
         <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>92.74051909191439</v>
+        <v>100</v>
       </c>
       <c r="C95" t="n">
-        <v>56.54997097432633</v>
+        <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>59.03973880275995</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
-        <v>40.61083165660631</v>
+        <v>99.93690993893783</v>
       </c>
       <c r="F95" t="n">
-        <v>40.48869196241719</v>
+        <v>97.03882871459135</v>
       </c>
       <c r="G95" t="n">
-        <v>43.50853972727112</v>
+        <v>95.7288972555679</v>
+      </c>
+      <c r="H95" t="n">
+        <v>99.49015673568738</v>
+      </c>
+      <c r="I95" t="n">
+        <v>95.74468085106383</v>
+      </c>
+      <c r="J95" t="n">
+        <v>43.04728988775121</v>
+      </c>
+      <c r="K95" t="n">
+        <v>46.79059731295312</v>
+      </c>
+      <c r="L95" t="n">
+        <v>79.37472218106386</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>9.598330865526989</v>
+      </c>
+      <c r="O95" t="n">
+        <v>27.39886684231388</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2625,22 +5208,49 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>87.99843882131009</v>
+        <v>100</v>
       </c>
       <c r="C96" t="n">
-        <v>58.26014494110597</v>
+        <v>100</v>
       </c>
       <c r="D96" t="n">
-        <v>57.91012096288522</v>
+        <v>100</v>
       </c>
       <c r="E96" t="n">
-        <v>40.68843438260544</v>
+        <v>99.89994207172573</v>
       </c>
       <c r="F96" t="n">
-        <v>39.94711091575937</v>
+        <v>96.20353650832695</v>
       </c>
       <c r="G96" t="n">
-        <v>40.15703964996777</v>
+        <v>94.9798063871029</v>
+      </c>
+      <c r="H96" t="n">
+        <v>99.84662341446955</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>38.66879341987681</v>
+      </c>
+      <c r="K96" t="n">
+        <v>47.95925720620843</v>
+      </c>
+      <c r="L96" t="n">
+        <v>87.71711053709807</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>9.727670703280452</v>
+      </c>
+      <c r="O96" t="n">
+        <v>24.85204715681994</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2648,22 +5258,49 @@
         <v>100</v>
       </c>
       <c r="B97" t="n">
-        <v>83.17829961621024</v>
+        <v>100</v>
       </c>
       <c r="C97" t="n">
-        <v>57.11316267485628</v>
+        <v>100</v>
       </c>
       <c r="D97" t="n">
-        <v>55.17834712734656</v>
+        <v>100</v>
       </c>
       <c r="E97" t="n">
-        <v>41.37843387424743</v>
+        <v>99.95185446291934</v>
       </c>
       <c r="F97" t="n">
-        <v>41.55157847549096</v>
+        <v>94.47147477613858</v>
       </c>
       <c r="G97" t="n">
-        <v>44.13683379970767</v>
+        <v>94.59548534496724</v>
+      </c>
+      <c r="H97" t="n">
+        <v>97.82321541662897</v>
+      </c>
+      <c r="I97" t="n">
+        <v>99.31643406436912</v>
+      </c>
+      <c r="J97" t="n">
+        <v>43.79742214728351</v>
+      </c>
+      <c r="K97" t="n">
+        <v>43.63652404058227</v>
+      </c>
+      <c r="L97" t="n">
+        <v>89.39393939393939</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>11.89561303510358</v>
+      </c>
+      <c r="O97" t="n">
+        <v>27.01897736586596</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/trainingData/2020-5-19.xlsx
+++ b/trainingData/2020-5-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mckennareed/Documents/Clubs/SURP/weatherRNNSurp/trainingData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0326096-E07F-8B43-A414-2FEE57153502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6135FED5-C337-504A-93D2-CA6835647BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1620" yWindow="2160" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -61,28 +61,23 @@
     <t>Ring 4 SW</t>
   </si>
   <si>
-    <t>Wind Speed</t>
+    <t>Wind Direction</t>
   </si>
   <si>
-    <t>Wind Direction</t>
+    <t>Wind Speed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -101,30 +96,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +407,26 @@
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -484,11 +477,11 @@
       <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
         <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -505,31 +498,31 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>41.884290318796538</v>
+        <v>41.701626102548907</v>
       </c>
       <c r="F2">
-        <v>87.671025512639872</v>
+        <v>87.789797272907236</v>
       </c>
       <c r="G2">
-        <v>98.761566501542205</v>
+        <v>98.708991494532199</v>
       </c>
       <c r="H2">
-        <v>71.785361166816557</v>
+        <v>71.918309434299545</v>
       </c>
       <c r="I2">
-        <v>14.77349515007444</v>
+        <v>14.669039356681539</v>
       </c>
       <c r="J2">
-        <v>79.803296057859527</v>
+        <v>79.659338254770759</v>
       </c>
       <c r="K2">
-        <v>83.557332000999253</v>
+        <v>83.457406944791416</v>
       </c>
       <c r="L2">
-        <v>43.259864663922578</v>
+        <v>43.092580221106388</v>
       </c>
       <c r="M2">
-        <v>20.548000821008799</v>
+        <v>20.428458330419961</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -538,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>30.862036631868481</v>
+        <v>30.881484722829981</v>
       </c>
       <c r="Q2">
         <v>9.9</v>
@@ -561,31 +554,31 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>54.22445912957987</v>
+        <v>54.045146550327622</v>
       </c>
       <c r="F3">
-        <v>95.112231713034433</v>
+        <v>95.103083942231834</v>
       </c>
       <c r="G3">
-        <v>98.684240609067416</v>
+        <v>98.661377717826198</v>
       </c>
       <c r="H3">
-        <v>80.656027081226924</v>
+        <v>80.537602574057217</v>
       </c>
       <c r="I3">
-        <v>8.5085933966530973</v>
+        <v>8.3303719497749427</v>
       </c>
       <c r="J3">
-        <v>77.18747264291342</v>
+        <v>77.139324170533143</v>
       </c>
       <c r="K3">
-        <v>86.687256176853055</v>
+        <v>86.473775465973119</v>
       </c>
       <c r="L3">
-        <v>42.477318616233681</v>
+        <v>42.108224525508142</v>
       </c>
       <c r="M3">
-        <v>17.986391829628989</v>
+        <v>17.899346935427271</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -594,7 +587,7 @@
         <v>100</v>
       </c>
       <c r="P3">
-        <v>46.863128028027802</v>
+        <v>46.836982691787412</v>
       </c>
       <c r="Q3">
         <v>8.9</v>
@@ -617,40 +610,40 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>64.014032186887277</v>
+        <v>67.575146494467006</v>
       </c>
       <c r="F4">
-        <v>95.859678205207189</v>
+        <v>96.53933775431949</v>
       </c>
       <c r="G4">
-        <v>99.49701510073686</v>
+        <v>99.483026603293311</v>
       </c>
       <c r="H4">
-        <v>94.213957333661043</v>
+        <v>94.755246708413168</v>
       </c>
       <c r="I4">
-        <v>17.248425683370531</v>
+        <v>17.043031595270389</v>
       </c>
       <c r="J4">
-        <v>86.014691349220101</v>
+        <v>86.850451836985116</v>
       </c>
       <c r="K4">
-        <v>92.54536281553905</v>
+        <v>92.137973301668168</v>
       </c>
       <c r="L4">
-        <v>61.230582850989357</v>
+        <v>62.579620406515012</v>
       </c>
       <c r="M4">
-        <v>24.90384413781214</v>
+        <v>23.88720963935241</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>95.357142857142861</v>
+        <v>100</v>
       </c>
       <c r="P4">
-        <v>48.214875523514657</v>
+        <v>48.031617617447409</v>
       </c>
       <c r="Q4">
         <v>7.8</v>
@@ -673,40 +666,40 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>24.459688186038189</v>
+        <v>27.05273800812213</v>
       </c>
       <c r="F5">
-        <v>87.928743848356135</v>
+        <v>89.319710410475281</v>
       </c>
       <c r="G5">
-        <v>98.977312801222524</v>
+        <v>99.529092371631592</v>
       </c>
       <c r="H5">
-        <v>70.31119949502002</v>
+        <v>61.290268521983947</v>
       </c>
       <c r="I5">
-        <v>14.51271010554397</v>
+        <v>10.11121311404796</v>
       </c>
       <c r="J5">
-        <v>79.155486168707611</v>
+        <v>71.857398061285252</v>
       </c>
       <c r="K5">
-        <v>91.218271847258777</v>
+        <v>89.626184789122306</v>
       </c>
       <c r="L5">
-        <v>42.922331403957457</v>
+        <v>45.121550679768482</v>
       </c>
       <c r="M5">
-        <v>24.74766997380063</v>
+        <v>22.60134122801108</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>78.788551142666961</v>
+        <v>97.905759162303667</v>
       </c>
       <c r="P5">
-        <v>38.459383697051898</v>
+        <v>36.674170370794592</v>
       </c>
       <c r="Q5">
         <v>9.1</v>
@@ -729,40 +722,40 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>50.244390197579001</v>
+        <v>48.108838825362952</v>
       </c>
       <c r="F6">
-        <v>99.592776105062654</v>
+        <v>99.74862722534732</v>
       </c>
       <c r="G6">
-        <v>99.763709591826469</v>
+        <v>99.931850047760832</v>
       </c>
       <c r="H6">
-        <v>75.735265365859107</v>
+        <v>74.106928392275591</v>
       </c>
       <c r="I6">
-        <v>9.1802254669405841</v>
+        <v>8.4593495168893611</v>
       </c>
       <c r="J6">
-        <v>91.396544128444859</v>
+        <v>90.38254162630453</v>
       </c>
       <c r="K6">
-        <v>91.903032217308905</v>
+        <v>92.107439880889714</v>
       </c>
       <c r="L6">
-        <v>55.416072149683671</v>
+        <v>55.075784089379461</v>
       </c>
       <c r="M6">
-        <v>12.80703572993578</v>
+        <v>13.077224673016561</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>82.842582106455268</v>
+        <v>78.813964610234336</v>
       </c>
       <c r="P6">
-        <v>39.807680199397723</v>
+        <v>39.427726795217957</v>
       </c>
       <c r="Q6">
         <v>9.9</v>
@@ -785,40 +778,40 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>54.66799242530039</v>
+        <v>56.327611344174016</v>
       </c>
       <c r="F7">
-        <v>98.828602870118488</v>
+        <v>98.858767603076799</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>82.802750576760872</v>
+        <v>84.348972443957834</v>
       </c>
       <c r="I7">
-        <v>6.1685287387266072</v>
+        <v>7.2338329084207942</v>
       </c>
       <c r="J7">
-        <v>89.629987369046731</v>
+        <v>90.117183184765338</v>
       </c>
       <c r="K7">
-        <v>94.727760125820609</v>
+        <v>94.622324190066252</v>
       </c>
       <c r="L7">
-        <v>56.5459685018172</v>
+        <v>57.379458877372457</v>
       </c>
       <c r="M7">
-        <v>29.25319763443818</v>
+        <v>28.240832930333109</v>
       </c>
       <c r="N7">
-        <v>29.870129870129869</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>65.980469780944844</v>
+        <v>66.949849273773637</v>
       </c>
       <c r="P7">
-        <v>46.12874152490172</v>
+        <v>45.914667855168481</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -841,40 +834,40 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <v>59.733433137634982</v>
+        <v>56.95101582531268</v>
       </c>
       <c r="F8">
-        <v>99.147566990844439</v>
+        <v>98.90736633950965</v>
       </c>
       <c r="G8">
-        <v>98.897870034689447</v>
+        <v>99.020204785020411</v>
       </c>
       <c r="H8">
-        <v>70.048095990883553</v>
+        <v>71.774189043498666</v>
       </c>
       <c r="I8">
-        <v>3.7227083052900838</v>
+        <v>4.4315878173736678</v>
       </c>
       <c r="J8">
-        <v>92.834829860808412</v>
+        <v>92.929768555466879</v>
       </c>
       <c r="K8">
-        <v>93.259860132829829</v>
+        <v>93.732337257022095</v>
       </c>
       <c r="L8">
-        <v>46.084533584600877</v>
+        <v>45.423340961098397</v>
       </c>
       <c r="M8">
-        <v>20.704051728148119</v>
+        <v>21.011528359957548</v>
       </c>
       <c r="N8">
-        <v>24.600638977635779</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>60.772200772200783</v>
+        <v>64.417283525563789</v>
       </c>
       <c r="P8">
-        <v>40.568517376772562</v>
+        <v>40.253545001278709</v>
       </c>
       <c r="Q8">
         <v>9.4</v>
@@ -897,40 +890,40 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>63.602898048788667</v>
+        <v>63.212990944994047</v>
       </c>
       <c r="F9">
-        <v>96.481339761028281</v>
+        <v>96.364591072356262</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
-        <v>91.261723746906711</v>
+        <v>91.196366825497023</v>
       </c>
       <c r="I9">
-        <v>14.25271574526511</v>
+        <v>13.90773405698779</v>
       </c>
       <c r="J9">
-        <v>91.12631874767392</v>
+        <v>90.87411984372774</v>
       </c>
       <c r="K9">
-        <v>94.457548513542775</v>
+        <v>94.534495214014811</v>
       </c>
       <c r="L9">
-        <v>60.078880064611653</v>
+        <v>59.917889352537351</v>
       </c>
       <c r="M9">
-        <v>16.61198759635667</v>
+        <v>16.357720969673991</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70.291907870427394</v>
+        <v>70.308190430507253</v>
       </c>
       <c r="P9">
-        <v>35.81534423927603</v>
+        <v>35.540283667202807</v>
       </c>
       <c r="Q9">
         <v>9.1999999999999993</v>
@@ -953,40 +946,40 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>65.732304753179875</v>
+        <v>63.602898048788667</v>
       </c>
       <c r="F10">
-        <v>98.100739035957474</v>
+        <v>97.866124446281646</v>
       </c>
       <c r="G10">
-        <v>98.622477194903283</v>
+        <v>98.132579587413488</v>
       </c>
       <c r="H10">
-        <v>78.983560220537711</v>
+        <v>76.303926442740078</v>
       </c>
       <c r="I10">
-        <v>37.300287650423932</v>
+        <v>35.353361313996338</v>
       </c>
       <c r="J10">
-        <v>97.381505335152951</v>
+        <v>97.180826221712735</v>
       </c>
       <c r="K10">
-        <v>95.271273942118512</v>
+        <v>95.589879714491744</v>
       </c>
       <c r="L10">
-        <v>34.398169336384441</v>
+        <v>33.170547853008493</v>
       </c>
       <c r="M10">
-        <v>28.86315298923687</v>
+        <v>28.774537324311279</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>74.056699979604332</v>
+        <v>76.419905046597506</v>
       </c>
       <c r="P10">
-        <v>37.600382862765571</v>
+        <v>37.250054218173943</v>
       </c>
       <c r="Q10">
         <v>6.9</v>
@@ -1009,40 +1002,40 @@
         <v>100</v>
       </c>
       <c r="E11">
-        <v>60.104906237955049</v>
+        <v>58.933509108073537</v>
       </c>
       <c r="F11">
-        <v>98.185088567007597</v>
+        <v>97.895171966908165</v>
       </c>
       <c r="G11">
-        <v>99.190021059452448</v>
+        <v>99.283308289156892</v>
       </c>
       <c r="H11">
-        <v>76.630711049788573</v>
+        <v>77.735634045928606</v>
       </c>
       <c r="I11">
-        <v>25.317808587966081</v>
+        <v>25.791705366878009</v>
       </c>
       <c r="J11">
-        <v>95.967384726719189</v>
+        <v>96.359358346125745</v>
       </c>
       <c r="K11">
-        <v>96.476155203165661</v>
+        <v>96.513938402197411</v>
       </c>
       <c r="L11">
-        <v>41.699017364382833</v>
+        <v>42.175259119666173</v>
       </c>
       <c r="M11">
-        <v>36.507174468251023</v>
+        <v>36.069613198918418</v>
       </c>
       <c r="N11">
-        <v>1.694915254237287</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>83.328158956845698</v>
+        <v>84.423321507463683</v>
       </c>
       <c r="P11">
-        <v>42.752218243197007</v>
+        <v>41.866466696362522</v>
       </c>
       <c r="Q11">
         <v>5.9</v>
@@ -1065,40 +1058,40 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>54.600401079227112</v>
+        <v>50.529279342185383</v>
       </c>
       <c r="F12">
-        <v>97.883999843590274</v>
+        <v>97.095247937346727</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12">
-        <v>68.939262751582248</v>
+        <v>69.25655105381054</v>
       </c>
       <c r="I12">
-        <v>11.92435051823934</v>
+        <v>13.474512844535621</v>
       </c>
       <c r="J12">
-        <v>93.5092526647433</v>
+        <v>93.854104273133927</v>
       </c>
       <c r="K12">
-        <v>95.682690532872044</v>
+        <v>96.091466978375223</v>
       </c>
       <c r="L12">
-        <v>34.155875622560252</v>
+        <v>33.237582447166517</v>
       </c>
       <c r="M12">
-        <v>16.76034285239712</v>
+        <v>16.41042967539363</v>
       </c>
       <c r="N12">
-        <v>34.693877551020407</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>77.137599093997736</v>
+        <v>79.079892986413469</v>
       </c>
       <c r="P12">
-        <v>35.120992354566063</v>
+        <v>34.537821243963407</v>
       </c>
       <c r="Q12">
         <v>7.3</v>
@@ -1121,40 +1114,40 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <v>53.574800158644152</v>
+        <v>49.271856862756053</v>
       </c>
       <c r="F13">
-        <v>97.930922761525437</v>
+        <v>97.422032544395222</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13">
-        <v>77.545707949524342</v>
+        <v>72.102649469044835</v>
       </c>
       <c r="I13">
-        <v>10.17452444717742</v>
+        <v>8.352851858432814</v>
       </c>
       <c r="J13">
-        <v>94.189969482520141</v>
+        <v>92.155236602035188</v>
       </c>
       <c r="K13">
-        <v>94.463176824299637</v>
+        <v>94.248029748747186</v>
       </c>
       <c r="L13">
-        <v>26.587696863642488</v>
+        <v>24.096379055054509</v>
       </c>
       <c r="M13">
-        <v>12.75968837395126</v>
+        <v>13.67694312887949</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>82.21821802835602</v>
+        <v>82.203281483059868</v>
       </c>
       <c r="P13">
-        <v>45.769493762473068</v>
+        <v>46.565664463383193</v>
       </c>
       <c r="Q13">
         <v>8.8000000000000007</v>
@@ -1177,40 +1170,40 @@
         <v>100</v>
       </c>
       <c r="E14">
-        <v>41.198321947077652</v>
+        <v>40.959797114240551</v>
       </c>
       <c r="F14">
-        <v>92.027014194182669</v>
+        <v>91.985677337906452</v>
       </c>
       <c r="G14">
-        <v>99.910623013456828</v>
+        <v>99.909505801125036</v>
       </c>
       <c r="H14">
-        <v>71.15246038085769</v>
+        <v>71.117826798572196</v>
       </c>
       <c r="I14">
-        <v>5.1967876459518436</v>
+        <v>5.1607119300238793</v>
       </c>
       <c r="J14">
-        <v>79.392509618213182</v>
+        <v>79.27022708788769</v>
       </c>
       <c r="K14">
-        <v>91.983205084219634</v>
+        <v>92.001584734271106</v>
       </c>
       <c r="L14">
-        <v>54.046305020864182</v>
+        <v>54.03472876564814</v>
       </c>
       <c r="M14">
-        <v>16.566318864336068</v>
+        <v>16.362470972690691</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>83.26473175021988</v>
+        <v>83.007915567282325</v>
       </c>
       <c r="P14">
-        <v>48.754801460121037</v>
+        <v>48.612447611397847</v>
       </c>
       <c r="Q14">
         <v>6.1</v>
@@ -1233,40 +1226,40 @@
         <v>100</v>
       </c>
       <c r="E15">
-        <v>54.462425356251082</v>
+        <v>63.884994162565569</v>
       </c>
       <c r="F15">
-        <v>88.502209287386108</v>
+        <v>91.79463402917041</v>
       </c>
       <c r="G15">
-        <v>99.999441393834104</v>
+        <v>99.981007390359579</v>
       </c>
       <c r="H15">
-        <v>95.908209834820155</v>
+        <v>95.352955305920673</v>
       </c>
       <c r="I15">
-        <v>14.68396408873404</v>
+        <v>16.06912575146929</v>
       </c>
       <c r="J15">
-        <v>85.950701638380721</v>
+        <v>84.689097571143336</v>
       </c>
       <c r="K15">
-        <v>92.367203997263772</v>
+        <v>91.994605194825326</v>
       </c>
       <c r="L15">
-        <v>54.315789473684212</v>
+        <v>51.759590792838871</v>
       </c>
       <c r="M15">
-        <v>21.163325471698119</v>
+        <v>18.880202400829759</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>86.185322282127629</v>
+        <v>84.023028815243435</v>
       </c>
       <c r="P15">
-        <v>40.563920784095963</v>
+        <v>41.776208742986192</v>
       </c>
       <c r="Q15">
         <v>8.6</v>
@@ -1289,40 +1282,40 @@
         <v>100</v>
       </c>
       <c r="E16">
-        <v>46.665959098856533</v>
+        <v>43.517654747873102</v>
       </c>
       <c r="F16">
-        <v>93.028036443466263</v>
+        <v>91.317025757330313</v>
       </c>
       <c r="G16">
-        <v>75.872123876503352</v>
+        <v>77.828921275633036</v>
       </c>
       <c r="H16">
-        <v>66.204326963361012</v>
+        <v>65.543495869107403</v>
       </c>
       <c r="I16">
-        <v>7.1748552968097954</v>
+        <v>7.8727522864150359</v>
       </c>
       <c r="J16">
-        <v>82.816500154193321</v>
+        <v>83.581964068961526</v>
       </c>
       <c r="K16">
-        <v>89.412814710253713</v>
+        <v>88.916702153265078</v>
       </c>
       <c r="L16">
-        <v>39.08789877507067</v>
+        <v>38.970251716247141</v>
       </c>
       <c r="M16">
-        <v>19.53553235077878</v>
+        <v>18.897918253502912</v>
       </c>
       <c r="N16">
-        <v>7.7380952380952266</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>78.45628897517355</v>
+        <v>80.304417770077961</v>
       </c>
       <c r="P16">
-        <v>43.903466898885107</v>
+        <v>43.682473694099968</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -1345,40 +1338,40 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>26.0031170224057</v>
+        <v>26.02490266287559</v>
       </c>
       <c r="F17">
-        <v>82.995469703994587</v>
+        <v>83.021724193791655</v>
       </c>
       <c r="G17">
-        <v>91.563929682655839</v>
+        <v>91.685147220655026</v>
       </c>
       <c r="H17">
-        <v>53.068702972343409</v>
+        <v>52.647513923258693</v>
       </c>
       <c r="I17">
-        <v>23.15721739692319</v>
+        <v>23.197333491284841</v>
       </c>
       <c r="J17">
-        <v>80.567257097019933</v>
+        <v>80.75038972439296</v>
       </c>
       <c r="K17">
-        <v>93.749201164524607</v>
+        <v>93.847191649506499</v>
       </c>
       <c r="L17">
-        <v>33.317270157490917</v>
+        <v>33.315385650827842</v>
       </c>
       <c r="M17">
-        <v>11.43795897162275</v>
+        <v>11.24559457448153</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>75.016930500296283</v>
+        <v>74.908998560907477</v>
       </c>
       <c r="P17">
-        <v>43.165536122677793</v>
+        <v>43.042928287046117</v>
       </c>
       <c r="Q17">
         <v>6.1</v>
@@ -1401,40 +1394,40 @@
         <v>100</v>
       </c>
       <c r="E18">
-        <v>34.312383740091718</v>
+        <v>33.974427009725332</v>
       </c>
       <c r="F18">
-        <v>94.57146527983376</v>
+        <v>94.524542361898597</v>
       </c>
       <c r="G18">
-        <v>99.928498410765457</v>
+        <v>99.933525866258506</v>
       </c>
       <c r="H18">
-        <v>70.996609260573024</v>
+        <v>70.677645139847058</v>
       </c>
       <c r="I18">
-        <v>24.759371390570859</v>
+        <v>24.689639575362861</v>
       </c>
       <c r="J18">
-        <v>85.707815797334675</v>
+        <v>85.78056794858206</v>
       </c>
       <c r="K18">
-        <v>94.309921581997955</v>
+        <v>94.371292192294575</v>
       </c>
       <c r="L18">
-        <v>43.291156279445417</v>
+        <v>43.368151837394002</v>
       </c>
       <c r="M18">
-        <v>20.47889806781653</v>
+        <v>19.90655928473495</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>84.745390693590863</v>
+        <v>84.886230611647647</v>
       </c>
       <c r="P18">
-        <v>53.789486899668738</v>
+        <v>53.673597496788901</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -1457,40 +1450,40 @@
         <v>100</v>
       </c>
       <c r="E19">
-        <v>49.653384874062247</v>
+        <v>44.288531256808007</v>
       </c>
       <c r="F19">
-        <v>94.470916169972682</v>
+        <v>93.845277264170448</v>
       </c>
       <c r="G19">
-        <v>98.324181502315426</v>
+        <v>98.396800303881761</v>
       </c>
       <c r="H19">
-        <v>80.189032326538822</v>
+        <v>78.011585491880652</v>
       </c>
       <c r="I19">
-        <v>26.509695812884129</v>
+        <v>26.65704577641122</v>
       </c>
       <c r="J19">
-        <v>95.113360478675617</v>
+        <v>94.954438538329043</v>
       </c>
       <c r="K19">
-        <v>95.049651289489873</v>
+        <v>95.593013876771636</v>
       </c>
       <c r="L19">
-        <v>66.783416341364926</v>
+        <v>65.355498721227633</v>
       </c>
       <c r="M19">
-        <v>47.926093621168889</v>
+        <v>49.200195471575171</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>88.046471934520341</v>
+        <v>88.252814296465914</v>
       </c>
       <c r="P19">
-        <v>74.250856330632942</v>
+        <v>73.971003136301391</v>
       </c>
       <c r="Q19">
         <v>6.9</v>
@@ -1513,40 +1506,40 @@
         <v>100</v>
       </c>
       <c r="E20">
-        <v>24.93562063938062</v>
+        <v>24.606601607668541</v>
       </c>
       <c r="F20">
-        <v>80.327566655680741</v>
+        <v>80.436494858030244</v>
       </c>
       <c r="G20">
-        <v>97.851042079802482</v>
+        <v>97.824228983839518</v>
       </c>
       <c r="H20">
-        <v>83.077026204215244</v>
+        <v>82.908885748280881</v>
       </c>
       <c r="I20">
-        <v>18.640736442770329</v>
+        <v>18.378221196692579</v>
       </c>
       <c r="J20">
-        <v>77.108278557470243</v>
+        <v>77.295256706342158</v>
       </c>
       <c r="K20">
-        <v>92.267211372646344</v>
+        <v>92.395115463668233</v>
       </c>
       <c r="L20">
-        <v>86.520393054246867</v>
+        <v>86.599811549333694</v>
       </c>
       <c r="M20">
-        <v>18.201594693330559</v>
+        <v>17.831070206894012</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.529522181909869</v>
+        <v>77.609368652555787</v>
       </c>
       <c r="P20">
-        <v>53.772554143315027</v>
+        <v>53.68526010566972</v>
       </c>
       <c r="Q20">
         <v>7.6</v>
@@ -1569,40 +1562,40 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <v>63.203494640173837</v>
+        <v>59.978661244462813</v>
       </c>
       <c r="F21">
-        <v>98.481708441097766</v>
+        <v>98.16833038203076</v>
       </c>
       <c r="G21">
-        <v>90.390856734276639</v>
+        <v>90.733282313970179</v>
       </c>
       <c r="H21">
-        <v>87.500069825770737</v>
+        <v>86.781702296429941</v>
       </c>
       <c r="I21">
-        <v>22.44958944676269</v>
+        <v>22.159155164707339</v>
       </c>
       <c r="J21">
-        <v>86.272307395703237</v>
+        <v>86.172742189073062</v>
       </c>
       <c r="K21">
-        <v>95.105124835742444</v>
+        <v>95.267952608451125</v>
       </c>
       <c r="L21">
-        <v>64.161259927311889</v>
+        <v>63.583793242697539</v>
       </c>
       <c r="M21">
-        <v>32.278186163293711</v>
+        <v>32.683636778722693</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>85.060882164451499</v>
+        <v>85.236030231693718</v>
       </c>
       <c r="P21">
-        <v>68.283498125770507</v>
+        <v>67.883434999904978</v>
       </c>
       <c r="Q21">
         <v>6.9</v>
@@ -1625,40 +1618,40 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>70.687141444667276</v>
+        <v>67.653351357692287</v>
       </c>
       <c r="F22">
-        <v>98.420261762849336</v>
+        <v>98.954847863610723</v>
       </c>
       <c r="G22">
-        <v>90.253439617466498</v>
+        <v>89.550713060770761</v>
       </c>
       <c r="H22">
-        <v>66.967941592139297</v>
+        <v>64.541356407492032</v>
       </c>
       <c r="I22">
-        <v>30.46197334769148</v>
+        <v>26.886477462437401</v>
       </c>
       <c r="J22">
-        <v>86.233413365004225</v>
+        <v>85.627158649660188</v>
       </c>
       <c r="K22">
-        <v>86.828754366271369</v>
+        <v>86.50654351353711</v>
       </c>
       <c r="L22">
-        <v>30.00484587427648</v>
+        <v>29.56360209987885</v>
       </c>
       <c r="M22">
-        <v>29.222247032230239</v>
+        <v>31.961513157894739</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>83.393669485389552</v>
+        <v>83.836827873575956</v>
       </c>
       <c r="P22">
-        <v>75.514922357006455</v>
+        <v>75.838338030461614</v>
       </c>
       <c r="Q22">
         <v>5.3</v>
@@ -1681,40 +1674,40 @@
         <v>100</v>
       </c>
       <c r="E23">
-        <v>38.370098929151972</v>
+        <v>45.232575677170331</v>
       </c>
       <c r="F23">
-        <v>80.531457906232362</v>
+        <v>78.288095543998622</v>
       </c>
       <c r="G23">
-        <v>64.61788545221961</v>
+        <v>58.579352798896203</v>
       </c>
       <c r="H23">
-        <v>90.676863091214798</v>
+        <v>87.709547137981303</v>
       </c>
       <c r="I23">
-        <v>21.115630990788791</v>
+        <v>21.938497847370769</v>
       </c>
       <c r="J23">
-        <v>83.045620164030623</v>
+        <v>84.167820702608921</v>
       </c>
       <c r="K23">
-        <v>77.247722017227375</v>
+        <v>81.294528972637522</v>
       </c>
       <c r="L23">
-        <v>63.345537757437071</v>
+        <v>63.753398842374473</v>
       </c>
       <c r="M23">
-        <v>42.148675487536671</v>
+        <v>38.962660467554691</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>84.925700058305367</v>
+        <v>83.510408483896313</v>
       </c>
       <c r="P23">
-        <v>73.632521928023152</v>
+        <v>76.506092185274767</v>
       </c>
       <c r="Q23">
         <v>8.1</v>
@@ -1737,40 +1730,40 @@
         <v>100</v>
       </c>
       <c r="E24">
-        <v>76.297781774915236</v>
+        <v>76.226838791846589</v>
       </c>
       <c r="F24">
-        <v>94.897132674550463</v>
+        <v>94.763067194735697</v>
       </c>
       <c r="G24">
-        <v>76.678192573889632</v>
+        <v>76.247507219984698</v>
       </c>
       <c r="H24">
-        <v>97.706921689001604</v>
+        <v>97.69965980884497</v>
       </c>
       <c r="I24">
-        <v>18.337635156821019</v>
+        <v>18.394812998789011</v>
       </c>
       <c r="J24">
-        <v>76.330764853350558</v>
+        <v>76.728725449484003</v>
       </c>
       <c r="K24">
-        <v>79.109752520517844</v>
+        <v>79.230530329608399</v>
       </c>
       <c r="L24">
-        <v>44.169067169201782</v>
+        <v>44.104186296944413</v>
       </c>
       <c r="M24">
-        <v>27.97785436096234</v>
+        <v>27.456035988471541</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>83.840695609144007</v>
+        <v>83.922875043077937</v>
       </c>
       <c r="P24">
-        <v>73.804290495327166</v>
+        <v>73.751170792046679</v>
       </c>
       <c r="Q24">
         <v>5.3</v>
@@ -1793,40 +1786,40 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <v>61.181340319634437</v>
+        <v>60.60765178726043</v>
       </c>
       <c r="F25">
-        <v>95.743979622047064</v>
+        <v>95.701525553439055</v>
       </c>
       <c r="G25">
-        <v>75.700073177407731</v>
+        <v>75.481658166542843</v>
       </c>
       <c r="H25">
-        <v>49.776836836725003</v>
+        <v>49.676287726863933</v>
       </c>
       <c r="I25">
-        <v>27.585108307391579</v>
+        <v>27.4768414146514</v>
       </c>
       <c r="J25">
-        <v>73.498213612054229</v>
+        <v>73.572923832560349</v>
       </c>
       <c r="K25">
-        <v>67.457437743706663</v>
+        <v>67.672435684015113</v>
       </c>
       <c r="L25">
-        <v>65.027056131377037</v>
+        <v>65.059092744649348</v>
       </c>
       <c r="M25">
-        <v>27.114139511473439</v>
+        <v>26.497571094113429</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>83.78787999649019</v>
+        <v>83.779903161219821</v>
       </c>
       <c r="P25">
-        <v>74.527634239496734</v>
+        <v>74.473900996030864</v>
       </c>
       <c r="Q25">
         <v>3.8</v>
@@ -1849,40 +1842,40 @@
         <v>100</v>
       </c>
       <c r="E26">
-        <v>29.306155281342001</v>
+        <v>29.076009540993311</v>
       </c>
       <c r="F26">
-        <v>86.404643134450922</v>
+        <v>86.140981024148545</v>
       </c>
       <c r="G26">
-        <v>44.120390800873658</v>
+        <v>43.417664244177921</v>
       </c>
       <c r="H26">
-        <v>50.588491595770243</v>
+        <v>50.599663719088127</v>
       </c>
       <c r="I26">
-        <v>28.840973995067291</v>
+        <v>28.753623815499111</v>
       </c>
       <c r="J26">
-        <v>91.518740500702592</v>
+        <v>91.789022396834042</v>
       </c>
       <c r="K26">
-        <v>90.455054571529416</v>
+        <v>90.574564414415661</v>
       </c>
       <c r="L26">
-        <v>56.795261811818548</v>
+        <v>56.862565621214159</v>
       </c>
       <c r="M26">
-        <v>31.84535881751658</v>
+        <v>31.272208070351919</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>87.617405606613673</v>
+        <v>87.601535109867115</v>
       </c>
       <c r="P26">
-        <v>74.963133313671094</v>
+        <v>74.814546567758171</v>
       </c>
       <c r="Q26">
         <v>5.8</v>
@@ -1905,40 +1898,40 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <v>31.58191680119765</v>
+        <v>31.22217443036136</v>
       </c>
       <c r="F27">
-        <v>57.683907114966743</v>
+        <v>57.194009507476942</v>
       </c>
       <c r="G27">
-        <v>67.188032421501873</v>
+        <v>66.968500198305179</v>
       </c>
       <c r="H27">
-        <v>66.271918309434312</v>
+        <v>66.191479021545433</v>
       </c>
       <c r="I27">
-        <v>30.075022962065859</v>
+        <v>29.96935681831113</v>
       </c>
       <c r="J27">
-        <v>88.618036083299131</v>
+        <v>88.702225809369409</v>
       </c>
       <c r="K27">
-        <v>94.277595508394313</v>
+        <v>94.436009719000097</v>
       </c>
       <c r="L27">
-        <v>70.587427648404898</v>
+        <v>70.688383362498314</v>
       </c>
       <c r="M27">
-        <v>37.451205510907002</v>
+        <v>36.705153477893553</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>89.417487789408995</v>
+        <v>89.516872519468293</v>
       </c>
       <c r="P27">
-        <v>63.193846946336222</v>
+        <v>62.895040864204667</v>
       </c>
       <c r="Q27">
         <v>11.5</v>
@@ -1961,40 +1954,40 @@
         <v>100</v>
       </c>
       <c r="E28">
-        <v>47.519509320343879</v>
+        <v>47.025142863526924</v>
       </c>
       <c r="F28">
-        <v>65.637900311143625</v>
+        <v>65.385968930325049</v>
       </c>
       <c r="G28">
-        <v>85.370663121379536</v>
+        <v>85.076836278118833</v>
       </c>
       <c r="H28">
-        <v>47.06480390130546</v>
+        <v>46.734109051095707</v>
       </c>
       <c r="I28">
-        <v>25.63266236479777</v>
+        <v>25.594944128166031</v>
       </c>
       <c r="J28">
-        <v>90.23301599288007</v>
+        <v>90.399552307235908</v>
       </c>
       <c r="K28">
-        <v>92.526770730486675</v>
+        <v>92.632031311622995</v>
       </c>
       <c r="L28">
-        <v>23.103513258850459</v>
+        <v>23.020594965675059</v>
       </c>
       <c r="M28">
-        <v>44.271551046454633</v>
+        <v>43.793872020864363</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>91.887730438467187</v>
+        <v>91.92055430559617</v>
       </c>
       <c r="P28">
-        <v>63.836899898811978</v>
+        <v>63.50429112168797</v>
       </c>
       <c r="Q28">
         <v>9.1999999999999993</v>
@@ -2017,40 +2010,40 @@
         <v>100</v>
       </c>
       <c r="E29">
-        <v>37.37075249836608</v>
+        <v>37.271879207002691</v>
       </c>
       <c r="F29">
-        <v>74.833675014104813</v>
+        <v>74.732567298077839</v>
       </c>
       <c r="G29">
-        <v>80.807967958350332</v>
+        <v>80.672785266203761</v>
       </c>
       <c r="H29">
-        <v>45.706273705849163</v>
+        <v>45.415239893417947</v>
       </c>
       <c r="I29">
-        <v>10.14244983270774</v>
+        <v>9.910061725542846</v>
       </c>
       <c r="J29">
-        <v>77.022836845100642</v>
+        <v>76.911629063172569</v>
       </c>
       <c r="K29">
-        <v>70.864456431266149</v>
+        <v>70.886616437319617</v>
       </c>
       <c r="L29">
-        <v>29.115897159779252</v>
+        <v>29.040516893256171</v>
       </c>
       <c r="M29">
-        <v>34.541040061442402</v>
+        <v>34.607933007952823</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>89.04375623939643</v>
+        <v>89.194320035349762</v>
       </c>
       <c r="P29">
-        <v>52.218810894095263</v>
+        <v>52.202194830893802</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -2073,40 +2066,40 @@
         <v>100</v>
       </c>
       <c r="E30">
-        <v>57.505153141880378</v>
+        <v>57.50124289871912</v>
       </c>
       <c r="F30">
-        <v>84.552863694509455</v>
+        <v>84.564594423993256</v>
       </c>
       <c r="G30">
-        <v>49.452286654340092</v>
+        <v>49.394750219252927</v>
       </c>
       <c r="H30">
-        <v>49.943301474161672</v>
+        <v>49.686342637850032</v>
       </c>
       <c r="I30">
-        <v>4.009475059899799</v>
+        <v>3.963188847745585</v>
       </c>
       <c r="J30">
-        <v>75.376721577099644</v>
+        <v>75.295388476751754</v>
       </c>
       <c r="K30">
-        <v>37.563800417480309</v>
+        <v>37.475994882499499</v>
       </c>
       <c r="L30">
-        <v>10.30475164894334</v>
+        <v>10.248485664288591</v>
       </c>
       <c r="M30">
-        <v>18.713166470221179</v>
+        <v>18.675299601597871</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>79.66007759098467</v>
+        <v>79.475836449788048</v>
       </c>
       <c r="P30">
-        <v>40.421764081089961</v>
+        <v>40.369611896047132</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -2129,40 +2122,40 @@
         <v>100</v>
       </c>
       <c r="E31">
-        <v>64.483261366238963</v>
+        <v>68.381215191853286</v>
       </c>
       <c r="F31">
-        <v>91.442153538490757</v>
+        <v>93.689984750051664</v>
       </c>
       <c r="G31">
-        <v>59.541272616567142</v>
+        <v>55.947200545199607</v>
       </c>
       <c r="H31">
-        <v>71.418915521989533</v>
+        <v>66.939452677678659</v>
       </c>
       <c r="I31">
-        <v>9.837975454180679</v>
+        <v>8.2658415909059926</v>
       </c>
       <c r="J31">
-        <v>90.726343299528267</v>
+        <v>89.47884332625388</v>
       </c>
       <c r="K31">
-        <v>59.009177572156609</v>
+        <v>59.854085341230309</v>
       </c>
       <c r="L31">
-        <v>8.9296002153721901</v>
+        <v>9.2483510566698186</v>
       </c>
       <c r="M31">
-        <v>39.50176589303733</v>
+        <v>39.596082528674927</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>4.4117647058823479</v>
       </c>
       <c r="O31">
-        <v>92.245473114480006</v>
+        <v>91.847551277454471</v>
       </c>
       <c r="P31">
-        <v>49.393109107996139</v>
+        <v>50.974613937728193</v>
       </c>
       <c r="Q31">
         <v>10.199999999999999</v>
@@ -2185,40 +2178,40 @@
         <v>100</v>
       </c>
       <c r="E32">
-        <v>62.153873654457399</v>
+        <v>62.352178843350067</v>
       </c>
       <c r="F32">
-        <v>80.765513889742323</v>
+        <v>83.394873112609417</v>
       </c>
       <c r="G32">
-        <v>61.874011965344067</v>
+        <v>61.261779607523309</v>
       </c>
       <c r="H32">
-        <v>74.461643307618829</v>
+        <v>69.193987163230304</v>
       </c>
       <c r="I32">
-        <v>22.890245811805229</v>
+        <v>20.877533184027971</v>
       </c>
       <c r="J32">
-        <v>93.049754425109867</v>
+        <v>90.231902734537314</v>
       </c>
       <c r="K32">
-        <v>70.324253307416043</v>
+        <v>70.258446628079156</v>
       </c>
       <c r="L32">
-        <v>13.562794454166109</v>
+        <v>13.17162471395881</v>
       </c>
       <c r="M32">
-        <v>57.459918560427887</v>
+        <v>59.191449756073183</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>34.285714285714292</v>
       </c>
       <c r="O32">
-        <v>93.131289781967979</v>
+        <v>93.254430846576767</v>
       </c>
       <c r="P32">
-        <v>61.048712298375008</v>
+        <v>63.791671562662437</v>
       </c>
       <c r="Q32">
         <v>11.9</v>
@@ -2241,40 +2234,40 @@
         <v>100</v>
       </c>
       <c r="E33">
-        <v>49.032773423753049</v>
+        <v>47.549674053302198</v>
       </c>
       <c r="F33">
-        <v>64.175469368830903</v>
+        <v>67.01486451007446</v>
       </c>
       <c r="G33">
-        <v>87.733567203114788</v>
+        <v>90.060161884066872</v>
       </c>
       <c r="H33">
-        <v>60.683622225822127</v>
+        <v>57.253780367227691</v>
       </c>
       <c r="I33">
-        <v>13.514835208858861</v>
+        <v>12.845301223270869</v>
       </c>
       <c r="J33">
-        <v>84.354757567330253</v>
+        <v>82.249533704405422</v>
       </c>
       <c r="K33">
-        <v>65.058554314174188</v>
+        <v>64.337865123165969</v>
       </c>
       <c r="L33">
-        <v>22.584735496029069</v>
+        <v>21.81154933369228</v>
       </c>
       <c r="M33">
-        <v>30.331577059943172</v>
+        <v>31.470996542994801</v>
       </c>
       <c r="N33">
-        <v>26.746323529411772</v>
+        <v>67.547169811320757</v>
       </c>
       <c r="O33">
-        <v>87.276520966468723</v>
+        <v>87.66881162142009</v>
       </c>
       <c r="P33">
-        <v>44.047410827765532</v>
+        <v>44.664822938651348</v>
       </c>
       <c r="Q33">
         <v>10.7</v>
@@ -2297,40 +2290,40 @@
         <v>100</v>
       </c>
       <c r="E34">
-        <v>63.402917041398297</v>
+        <v>68.072864588279316</v>
       </c>
       <c r="F34">
-        <v>84.37913717691616</v>
+        <v>82.307266907612131</v>
       </c>
       <c r="G34">
-        <v>50.243272985247209</v>
+        <v>44.885681248149623</v>
       </c>
       <c r="H34">
-        <v>51.75150963316333</v>
+        <v>50.64937966785277</v>
       </c>
       <c r="I34">
-        <v>20.698192690734491</v>
+        <v>20.921425106806279</v>
       </c>
       <c r="J34">
-        <v>88.968109543271382</v>
+        <v>89.244452195143225</v>
       </c>
       <c r="K34">
-        <v>30.447974155337189</v>
+        <v>32.826490779378119</v>
       </c>
       <c r="L34">
-        <v>6.0815722169874817</v>
+        <v>6.9834432628886844</v>
       </c>
       <c r="M34">
-        <v>36.335899912441441</v>
+        <v>34.358518474249593</v>
       </c>
       <c r="N34">
-        <v>67.86436644854254</v>
+        <v>70.790080738177622</v>
       </c>
       <c r="O34">
-        <v>86.932055231616999</v>
+        <v>88.380722411138549</v>
       </c>
       <c r="P34">
-        <v>47.930322404608788</v>
+        <v>48.110781072803853</v>
       </c>
       <c r="Q34">
         <v>11.4</v>
@@ -2353,40 +2346,40 @@
         <v>100</v>
       </c>
       <c r="E35">
-        <v>62.689576967550572</v>
+        <v>68.398531982996033</v>
       </c>
       <c r="F35">
-        <v>76.216783880860476</v>
+        <v>77.504929699414021</v>
       </c>
       <c r="G35">
-        <v>60.34119664612858</v>
+        <v>57.282827887854218</v>
       </c>
       <c r="H35">
-        <v>69.080590111553647</v>
+        <v>67.217638548294303</v>
       </c>
       <c r="I35">
-        <v>35.453791552463272</v>
+        <v>31.788419319429199</v>
       </c>
       <c r="J35">
-        <v>85.065159413262222</v>
+        <v>83.568098018679791</v>
       </c>
       <c r="K35">
-        <v>46.348364517431683</v>
+        <v>46.816799030825138</v>
       </c>
       <c r="L35">
-        <v>11.69363305963117</v>
+        <v>11.56225602369094</v>
       </c>
       <c r="M35">
-        <v>67.276339440572684</v>
+        <v>66.227021341288037</v>
       </c>
       <c r="N35">
-        <v>90.8463568094175</v>
+        <v>89.932287954383469</v>
       </c>
       <c r="O35">
-        <v>89.820669024508049</v>
+        <v>91.132259299210133</v>
       </c>
       <c r="P35">
-        <v>56.276655611051218</v>
+        <v>57.657444288943907</v>
       </c>
       <c r="Q35">
         <v>11</v>
@@ -2409,40 +2402,40 @@
         <v>100</v>
       </c>
       <c r="E36">
-        <v>57.01246250356111</v>
+        <v>60.55123256450505</v>
       </c>
       <c r="F36">
-        <v>65.650748252959218</v>
+        <v>72.7595703201372</v>
       </c>
       <c r="G36">
-        <v>91.642693152047016</v>
+        <v>92.451554880262762</v>
       </c>
       <c r="H36">
-        <v>56.409726450560562</v>
+        <v>49.256215890111001</v>
       </c>
       <c r="I36">
-        <v>13.827698462392799</v>
+        <v>12.33555479216764</v>
       </c>
       <c r="J36">
-        <v>47.964390335754437</v>
+        <v>45.493172419469737</v>
       </c>
       <c r="K36">
-        <v>49.939965002019107</v>
+        <v>45.81477991654328</v>
       </c>
       <c r="L36">
-        <v>6.8157221698748174</v>
+        <v>6.0034997980885692</v>
       </c>
       <c r="M36">
-        <v>35.049390016864884</v>
+        <v>35.914573603500898</v>
       </c>
       <c r="N36">
-        <v>61.920073495636203</v>
+        <v>70.500532481363152</v>
       </c>
       <c r="O36">
-        <v>73.824198602959669</v>
+        <v>78.61801354194661</v>
       </c>
       <c r="P36">
-        <v>35.693532086912583</v>
+        <v>38.675770311231027</v>
       </c>
       <c r="Q36">
         <v>12</v>
@@ -2465,40 +2458,40 @@
         <v>100</v>
       </c>
       <c r="E37">
-        <v>62.352178843350067</v>
+        <v>62.286263315774477</v>
       </c>
       <c r="F37">
-        <v>67.367345000754113</v>
+        <v>67.33606305546401</v>
       </c>
       <c r="G37">
-        <v>49.265712194931211</v>
+        <v>49.041711122407371</v>
       </c>
       <c r="H37">
-        <v>66.232257271655754</v>
+        <v>66.045682812246881</v>
       </c>
       <c r="I37">
-        <v>17.570682935562498</v>
+        <v>17.248151157506229</v>
       </c>
       <c r="J37">
-        <v>55.795628433813853</v>
+        <v>55.64853556485356</v>
       </c>
       <c r="K37">
-        <v>52.726611926235023</v>
+        <v>52.465203930542472</v>
       </c>
       <c r="L37">
-        <v>7.452954637232466</v>
+        <v>7.2825413918427842</v>
       </c>
       <c r="M37">
-        <v>58.10972750481946</v>
+        <v>58.059709269004323</v>
       </c>
       <c r="N37">
-        <v>86.127981691752481</v>
+        <v>85.98714901857231</v>
       </c>
       <c r="O37">
-        <v>87.52792729143232</v>
+        <v>87.334256754453648</v>
       </c>
       <c r="P37">
-        <v>51.631119402815081</v>
+        <v>51.508793989881383</v>
       </c>
       <c r="Q37">
         <v>12.3</v>
@@ -2521,40 +2514,40 @@
         <v>100</v>
       </c>
       <c r="E38">
-        <v>66.205444175692804</v>
+        <v>66.190920415379537</v>
       </c>
       <c r="F38">
-        <v>72.071367523754731</v>
+        <v>72.048464670953038</v>
       </c>
       <c r="G38">
-        <v>66.084226637693632</v>
+        <v>66.105453671997623</v>
       </c>
       <c r="H38">
-        <v>50.349408156767232</v>
+        <v>50.152220180206349</v>
       </c>
       <c r="I38">
-        <v>11.223670597972269</v>
+        <v>11.182012552589841</v>
       </c>
       <c r="J38">
-        <v>47.95084959977531</v>
+        <v>47.902541777840192</v>
       </c>
       <c r="K38">
-        <v>40.636424821644901</v>
+        <v>40.595234890294797</v>
       </c>
       <c r="L38">
-        <v>27.40018845066631</v>
+        <v>27.32992327365729</v>
       </c>
       <c r="M38">
-        <v>41.780300326027472</v>
+        <v>41.694628876038173</v>
       </c>
       <c r="N38">
-        <v>81.096504636706413</v>
+        <v>81.144060599884511</v>
       </c>
       <c r="O38">
-        <v>77.370525205565826</v>
+        <v>77.35019694840453</v>
       </c>
       <c r="P38">
-        <v>35.415899263527614</v>
+        <v>35.369913730200992</v>
       </c>
       <c r="Q38">
         <v>12.1</v>
@@ -2577,40 +2570,40 @@
         <v>100</v>
       </c>
       <c r="E39">
-        <v>73.680711887697811</v>
+        <v>79.531552869280574</v>
       </c>
       <c r="F39">
-        <v>81.614595261902508</v>
+        <v>78.521034315176763</v>
       </c>
       <c r="G39">
-        <v>49.613165230117808</v>
+        <v>42.784204852053151</v>
       </c>
       <c r="H39">
-        <v>52.325756771703247</v>
+        <v>53.152493897227643</v>
       </c>
       <c r="I39">
-        <v>21.628826386535639</v>
+        <v>21.69008241606284</v>
       </c>
       <c r="J39">
-        <v>53.66321736291502</v>
+        <v>54.396894564648527</v>
       </c>
       <c r="K39">
-        <v>8.0839951541257165</v>
+        <v>10.015076053304609</v>
       </c>
       <c r="L39">
-        <v>3.38322789069862</v>
+        <v>3.2082379862700212</v>
       </c>
       <c r="M39">
-        <v>50.333088035942517</v>
+        <v>43.820023180087198</v>
       </c>
       <c r="N39">
-        <v>86.090128250382392</v>
+        <v>86.434858435294444</v>
       </c>
       <c r="O39">
-        <v>70.590826439931362</v>
+        <v>73.609547525666983</v>
       </c>
       <c r="P39">
-        <v>41.588267983338334</v>
+        <v>41.774855647234993</v>
       </c>
       <c r="Q39">
         <v>12.9</v>
@@ -2633,40 +2626,40 @@
         <v>100</v>
       </c>
       <c r="E40">
-        <v>77.163621332052259</v>
+        <v>84.679667294167587</v>
       </c>
       <c r="F40">
-        <v>88.426238848824411</v>
+        <v>83.003848796483013</v>
       </c>
       <c r="G40">
-        <v>59.48820503080713</v>
+        <v>54.31830496545021</v>
       </c>
       <c r="H40">
-        <v>50.005306758575998</v>
+        <v>54.114413714898582</v>
       </c>
       <c r="I40">
-        <v>15.6309378393051</v>
+        <v>16.836526248794499</v>
       </c>
       <c r="J40">
-        <v>47.741020317947061</v>
+        <v>48.793086571672283</v>
       </c>
       <c r="K40">
-        <v>16.86821914120338</v>
+        <v>17.799434648001078</v>
       </c>
       <c r="L40">
-        <v>1.1802396015614529</v>
+        <v>1.1390496702113351</v>
       </c>
       <c r="M40">
-        <v>39.944889392495689</v>
+        <v>31.769771875616328</v>
       </c>
       <c r="N40">
-        <v>73.42149252743252</v>
+        <v>75.287931897846775</v>
       </c>
       <c r="O40">
-        <v>61.592984346298422</v>
+        <v>64.497523984726783</v>
       </c>
       <c r="P40">
-        <v>37.995421242980619</v>
+        <v>36.571394415166523</v>
       </c>
       <c r="Q40">
         <v>13.1</v>
@@ -2689,40 +2682,40 @@
         <v>100</v>
       </c>
       <c r="E41">
-        <v>69.264930146298951</v>
+        <v>69.303473971745703</v>
       </c>
       <c r="F41">
-        <v>62.800739594563638</v>
+        <v>62.794594926738803</v>
       </c>
       <c r="G41">
-        <v>78.729953021221448</v>
+        <v>78.660685856650488</v>
       </c>
       <c r="H41">
-        <v>52.54026153940687</v>
+        <v>52.411782121251058</v>
       </c>
       <c r="I41">
-        <v>13.50471887999284</v>
+        <v>13.43147560048307</v>
       </c>
       <c r="J41">
-        <v>26.76453176659815</v>
+        <v>26.62295594674292</v>
       </c>
       <c r="K41">
-        <v>44.784223987077667</v>
+        <v>44.743034055727563</v>
       </c>
       <c r="L41">
-        <v>6.0646116570197961</v>
+        <v>5.9709247543410982</v>
       </c>
       <c r="M41">
-        <v>37.232184092688897</v>
+        <v>37.400855404509947</v>
       </c>
       <c r="N41">
-        <v>54.70381287439384</v>
+        <v>55.027098982599597</v>
       </c>
       <c r="O41">
-        <v>59.768124075302282</v>
+        <v>59.645936431814697</v>
       </c>
       <c r="P41">
-        <v>31.087129346658951</v>
+        <v>31.162240852399439</v>
       </c>
       <c r="Q41">
         <v>13.3</v>
@@ -2745,40 +2738,40 @@
         <v>100</v>
       </c>
       <c r="E42">
-        <v>65.622817944664476</v>
+        <v>65.602149516526367</v>
       </c>
       <c r="F42">
-        <v>65.482607797024855</v>
+        <v>65.455236094896009</v>
       </c>
       <c r="G42">
-        <v>86.609651597334334</v>
+        <v>86.616354871325072</v>
       </c>
       <c r="H42">
-        <v>60.093175508471262</v>
+        <v>60.027818587061567</v>
       </c>
       <c r="I42">
-        <v>9.3998264612749551</v>
+        <v>9.3029152252059362</v>
       </c>
       <c r="J42">
-        <v>27.962361794597669</v>
+        <v>27.895370031793181</v>
       </c>
       <c r="K42">
-        <v>20.237178624310129</v>
+        <v>20.142414860681111</v>
       </c>
       <c r="L42">
-        <v>5.5509489837124733</v>
+        <v>5.464261677210942</v>
       </c>
       <c r="M42">
-        <v>41.889173145227389</v>
+        <v>41.578698989096146</v>
       </c>
       <c r="N42">
-        <v>58.084945387551002</v>
+        <v>58.422160810632981</v>
       </c>
       <c r="O42">
-        <v>54.219035788691208</v>
+        <v>54.364528213304119</v>
       </c>
       <c r="P42">
-        <v>32.376758024282509</v>
+        <v>32.458216042689337</v>
       </c>
       <c r="Q42">
         <v>16</v>
@@ -2801,40 +2794,40 @@
         <v>100</v>
       </c>
       <c r="E43">
-        <v>60.295390940525202</v>
+        <v>68.987861488015113</v>
       </c>
       <c r="F43">
-        <v>67.576822312964694</v>
+        <v>65.775876034119662</v>
       </c>
       <c r="G43">
-        <v>66.536139025902571</v>
+        <v>61.814799711759207</v>
       </c>
       <c r="H43">
-        <v>61.766200975326363</v>
+        <v>64.513984705363185</v>
       </c>
       <c r="I43">
-        <v>11.42897903184682</v>
+        <v>10.101929325577609</v>
       </c>
       <c r="J43">
-        <v>27.43360295340025</v>
+        <v>27.622374690831851</v>
       </c>
       <c r="K43">
-        <v>32.349172163144431</v>
+        <v>31.17243235967155</v>
       </c>
       <c r="L43">
-        <v>8.1375689864046308</v>
+        <v>7.3522681383766297</v>
       </c>
       <c r="M43">
-        <v>53.631319358816278</v>
+        <v>48.226788680105507</v>
       </c>
       <c r="N43">
-        <v>57.265259878204219</v>
+        <v>59.095040904959092</v>
       </c>
       <c r="O43">
-        <v>57.624769633986404</v>
+        <v>60.724021218895189</v>
       </c>
       <c r="P43">
-        <v>35.478572163128938</v>
+        <v>36.120517087189938</v>
       </c>
       <c r="Q43">
         <v>13.7</v>
@@ -2857,40 +2850,40 @@
         <v>100</v>
       </c>
       <c r="E44">
-        <v>73.842707675807318</v>
+        <v>79.867833781149272</v>
       </c>
       <c r="F44">
-        <v>71.806029594954666</v>
+        <v>74.500745739231476</v>
       </c>
       <c r="G44">
-        <v>46.868733137076369</v>
+        <v>40.657032572325527</v>
       </c>
       <c r="H44">
-        <v>60.999234709552717</v>
+        <v>56.060597596876278</v>
       </c>
       <c r="I44">
-        <v>21.90515733331705</v>
+        <v>20.747882397155319</v>
       </c>
       <c r="J44">
-        <v>33.24552494604545</v>
+        <v>31.76478155210842</v>
       </c>
       <c r="K44">
-        <v>6.8299905774666883</v>
+        <v>7.7073630367478776</v>
       </c>
       <c r="L44">
-        <v>9.2219679633867173</v>
+        <v>8.4272445820433433</v>
       </c>
       <c r="M44">
-        <v>71.473936488915513</v>
+        <v>71.308326498899291</v>
       </c>
       <c r="N44">
-        <v>82.07954289151192</v>
+        <v>82.450297060260795</v>
       </c>
       <c r="O44">
-        <v>78.200670689669849</v>
+        <v>80.907175365372609</v>
       </c>
       <c r="P44">
-        <v>40.25059051417643</v>
+        <v>42.117693028173463</v>
       </c>
       <c r="Q44">
         <v>14.1</v>
@@ -2913,40 +2906,40 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>74.492925252908947</v>
+        <v>82.550819195942282</v>
       </c>
       <c r="F45">
-        <v>67.709211974281772</v>
+        <v>65.840674349363468</v>
       </c>
       <c r="G45">
-        <v>36.854041794913329</v>
+        <v>29.055341112855199</v>
       </c>
       <c r="H45">
-        <v>47.980918013373028</v>
+        <v>45.95317763117469</v>
       </c>
       <c r="I45">
-        <v>13.92112991190044</v>
+        <v>13.04401546218882</v>
       </c>
       <c r="J45">
-        <v>20.288064897907599</v>
+        <v>20.293615472891641</v>
       </c>
       <c r="K45">
-        <v>7.3269619060438771</v>
+        <v>11.772243909005249</v>
       </c>
       <c r="L45">
-        <v>1.3484991250504661</v>
+        <v>1.1067438417014439</v>
       </c>
       <c r="M45">
-        <v>57.89907878454558</v>
+        <v>54.482801058396397</v>
       </c>
       <c r="N45">
-        <v>58.122912883004282</v>
+        <v>59.717866538006447</v>
       </c>
       <c r="O45">
-        <v>69.385285770563499</v>
+        <v>71.837669175528248</v>
       </c>
       <c r="P45">
-        <v>34.595632363742773</v>
+        <v>35.100441077763918</v>
       </c>
       <c r="Q45">
         <v>12.3</v>
@@ -2969,40 +2962,40 @@
         <v>100</v>
       </c>
       <c r="E46">
-        <v>74.170609495187605</v>
+        <v>82.621203572845033</v>
       </c>
       <c r="F46">
-        <v>70.935721188490476</v>
+        <v>65.092700693230256</v>
       </c>
       <c r="G46">
-        <v>36.869682767558388</v>
+        <v>29.86867169039812</v>
       </c>
       <c r="H46">
-        <v>44.175134205131357</v>
+        <v>45.739790075802858</v>
       </c>
       <c r="I46">
-        <v>15.89098832017716</v>
+        <v>15.993352506483721</v>
       </c>
       <c r="J46">
-        <v>17.971392893631521</v>
+        <v>17.996906072393429</v>
       </c>
       <c r="K46">
-        <v>5.8696998250101018</v>
+        <v>6.5871584331673176</v>
       </c>
       <c r="L46">
-        <v>1.051823933234616</v>
+        <v>0.45928119531565409</v>
       </c>
       <c r="M46">
-        <v>68.424990647212866</v>
+        <v>44.525340393343413</v>
       </c>
       <c r="N46">
-        <v>48.449763068265959</v>
+        <v>52.11762875369535</v>
       </c>
       <c r="O46">
-        <v>56.634978436830707</v>
+        <v>61.093198856476128</v>
       </c>
       <c r="P46">
-        <v>30.694084142135509</v>
+        <v>29.837603572345639</v>
       </c>
       <c r="Q46">
         <v>11.3</v>
@@ -3025,40 +3018,40 @@
         <v>100</v>
       </c>
       <c r="E47">
-        <v>83.314433824720552</v>
+        <v>88.035214532698006</v>
       </c>
       <c r="F47">
-        <v>65.004440919018862</v>
+        <v>66.226671209996823</v>
       </c>
       <c r="G47">
-        <v>37.375779953859137</v>
+        <v>32.309780635358649</v>
       </c>
       <c r="H47">
-        <v>56.331521587335281</v>
+        <v>51.813514917577663</v>
       </c>
       <c r="I47">
-        <v>23.742169469172438</v>
+        <v>23.666896383352849</v>
       </c>
       <c r="J47">
-        <v>23.950546125248561</v>
+        <v>22.856853881445321</v>
       </c>
       <c r="K47">
-        <v>1.928388746803066</v>
+        <v>2.621348768340297</v>
       </c>
       <c r="L47">
-        <v>2.2476780185758538</v>
+        <v>1.5706016960560021</v>
       </c>
       <c r="M47">
-        <v>64.859605226577713</v>
+        <v>61.475004124731889</v>
       </c>
       <c r="N47">
-        <v>58.491250920815233</v>
+        <v>58.503906287171581</v>
       </c>
       <c r="O47">
-        <v>63.652833994250123</v>
+        <v>66.867900580003536</v>
       </c>
       <c r="P47">
-        <v>40.707313499374933</v>
+        <v>42.762495258276758</v>
       </c>
       <c r="Q47">
         <v>12.5</v>
@@ -3081,40 +3074,40 @@
         <v>100</v>
       </c>
       <c r="E48">
-        <v>76.329622326371236</v>
+        <v>82.909444354446777</v>
       </c>
       <c r="F48">
-        <v>69.058245864917851</v>
+        <v>67.917572074160546</v>
       </c>
       <c r="G48">
-        <v>39.972181412938433</v>
+        <v>34.132512554673582</v>
       </c>
       <c r="H48">
-        <v>51.078947809425927</v>
+        <v>46.967047822273869</v>
       </c>
       <c r="I48">
-        <v>24.753641518874741</v>
+        <v>24.588312039585691</v>
       </c>
       <c r="J48">
-        <v>21.186951319715732</v>
+        <v>20.60609638838751</v>
       </c>
       <c r="K48">
-        <v>3.6855566025037092</v>
+        <v>5.0499394265715409</v>
       </c>
       <c r="L48">
-        <v>5.5094898371247751</v>
+        <v>4.4388208372593994</v>
       </c>
       <c r="M48">
-        <v>93.230769230769226</v>
+        <v>86.223021582733821</v>
       </c>
       <c r="N48">
-        <v>56.507332921077648</v>
+        <v>57.403846982851533</v>
       </c>
       <c r="O48">
-        <v>65.257048249942699</v>
+        <v>68.243694949313294</v>
       </c>
       <c r="P48">
-        <v>50.267688166057752</v>
+        <v>52.683640235933531</v>
       </c>
       <c r="Q48">
         <v>15.1</v>
@@ -3137,40 +3130,40 @@
         <v>100</v>
       </c>
       <c r="E49">
-        <v>82.430160264108991</v>
+        <v>90.1556835384349</v>
       </c>
       <c r="F49">
-        <v>66.91878424954055</v>
+        <v>63.502907545093493</v>
       </c>
       <c r="G49">
-        <v>41.720060106023453</v>
+        <v>31.809828116882759</v>
       </c>
       <c r="H49">
-        <v>62.81861499187228</v>
+        <v>58.784361261779608</v>
       </c>
       <c r="I49">
-        <v>33.125794695204192</v>
+        <v>33.797670625833973</v>
       </c>
       <c r="J49">
-        <v>18.95114690947295</v>
+        <v>19.374220098982288</v>
       </c>
       <c r="K49">
-        <v>10.60708036074843</v>
+        <v>15.67667249966348</v>
       </c>
       <c r="L49">
-        <v>7.7820623718326942</v>
+        <v>6.8552968097994409</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>87.853773584905667</v>
       </c>
       <c r="N49">
-        <v>46.782594294704587</v>
+        <v>48.53114733182354</v>
       </c>
       <c r="O49">
-        <v>58.923533560597157</v>
+        <v>60.577287102436337</v>
       </c>
       <c r="P49">
-        <v>50.557076625415263</v>
+        <v>52.411932604231893</v>
       </c>
       <c r="Q49">
         <v>18.2</v>
@@ -3193,40 +3186,40 @@
         <v>100</v>
       </c>
       <c r="E50">
-        <v>78.033929738516449</v>
+        <v>86.865493221314182</v>
       </c>
       <c r="F50">
-        <v>64.292218057502922</v>
+        <v>64.832948826089137</v>
       </c>
       <c r="G50">
-        <v>58.606724501025042</v>
+        <v>50.622007965723917</v>
       </c>
       <c r="H50">
-        <v>88.049179686845378</v>
+        <v>83.345715770010671</v>
       </c>
       <c r="I50">
-        <v>38.376859211299823</v>
+        <v>37.518044461553274</v>
       </c>
       <c r="J50">
-        <v>34.193114672893877</v>
+        <v>35.650885486488392</v>
       </c>
       <c r="K50">
-        <v>27.579755014133799</v>
+        <v>27.32938484318213</v>
       </c>
       <c r="L50">
-        <v>20.345129018680989</v>
+        <v>18.12787723785166</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>82.608695652173907</v>
       </c>
       <c r="N50">
-        <v>70.074237054703644</v>
+        <v>70.420779297422499</v>
       </c>
       <c r="O50">
-        <v>68.7816325746698</v>
+        <v>72.296350750985027</v>
       </c>
       <c r="P50">
-        <v>69.554861724090131</v>
+        <v>74.107736044373723</v>
       </c>
       <c r="Q50">
         <v>20.399999999999999</v>
@@ -3249,40 +3242,40 @@
         <v>100</v>
       </c>
       <c r="E51">
-        <v>66.417155912566955</v>
+        <v>66.388666998106331</v>
       </c>
       <c r="F51">
-        <v>54.430584804795068</v>
+        <v>54.356290184731058</v>
       </c>
       <c r="G51">
-        <v>37.186412463620783</v>
+        <v>36.762988989872468</v>
       </c>
       <c r="H51">
-        <v>85.133255500874213</v>
+        <v>85.071250216459887</v>
       </c>
       <c r="I51">
-        <v>45.643034656620848</v>
+        <v>45.279208176069098</v>
       </c>
       <c r="J51">
-        <v>33.078609405104267</v>
+        <v>32.744690347987728</v>
       </c>
       <c r="K51">
-        <v>13.963386727688791</v>
+        <v>13.349037555525641</v>
       </c>
       <c r="L51">
-        <v>46.043058848889849</v>
+        <v>45.386397930588487</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>82.544281202801045</v>
+        <v>82.428944116435531</v>
       </c>
       <c r="O51">
-        <v>55.454296691553047</v>
+        <v>55.569114259195572</v>
       </c>
       <c r="P51">
-        <v>82.052776056690561</v>
+        <v>82.196389956874796</v>
       </c>
       <c r="Q51">
         <v>18.7</v>
@@ -3305,40 +3298,40 @@
         <v>100</v>
       </c>
       <c r="E52">
-        <v>85.754425557349293</v>
+        <v>91.478462939273925</v>
       </c>
       <c r="F52">
-        <v>62.58958646385539</v>
+        <v>57.844785690744452</v>
       </c>
       <c r="G52">
-        <v>50.625359602719293</v>
+        <v>44.056709697961651</v>
       </c>
       <c r="H52">
-        <v>80.453253043007095</v>
+        <v>79.729299452007353</v>
       </c>
       <c r="I52">
-        <v>38.759787007086807</v>
+        <v>39.4133963042093</v>
       </c>
       <c r="J52">
-        <v>18.16428991388354</v>
+        <v>18.88566516226091</v>
       </c>
       <c r="K52">
-        <v>19.815856777493611</v>
+        <v>19.4311482029883</v>
       </c>
       <c r="L52">
-        <v>52.388847561193202</v>
+        <v>50.06910691150258</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>62.90228669841445</v>
+        <v>64.575879165814769</v>
       </c>
       <c r="O52">
-        <v>56.366578595006409</v>
+        <v>61.805480708279518</v>
       </c>
       <c r="P52">
-        <v>71.515459394555151</v>
+        <v>72.567107849790503</v>
       </c>
       <c r="Q52">
         <v>18.399999999999999</v>
@@ -3361,40 +3354,40 @@
         <v>100</v>
       </c>
       <c r="E53">
-        <v>85.093594463095684</v>
+        <v>84.84780775010195</v>
       </c>
       <c r="F53">
-        <v>77.794287693347556</v>
+        <v>77.442365808833799</v>
       </c>
       <c r="G53">
-        <v>43.194221777819983</v>
+        <v>42.67415943737187</v>
       </c>
       <c r="H53">
-        <v>49.989665785930953</v>
+        <v>49.412625616561563</v>
       </c>
       <c r="I53">
-        <v>30.83237666892073</v>
+        <v>30.888990234159991</v>
       </c>
       <c r="J53">
-        <v>16.584200455168201</v>
+        <v>16.167246005955679</v>
       </c>
       <c r="K53">
-        <v>16.06541930273254</v>
+        <v>16.12760802261408</v>
       </c>
       <c r="L53">
-        <v>39.223646200048471</v>
+        <v>39.267754117419628</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>72.041282210642066</v>
+        <v>71.482526174881684</v>
       </c>
       <c r="O53">
-        <v>60.594689214605467</v>
+        <v>60.091994721436294</v>
       </c>
       <c r="P53">
-        <v>77.555290875545893</v>
+        <v>77.234872369742405</v>
       </c>
       <c r="Q53">
         <v>20.2</v>
@@ -3417,40 +3410,40 @@
         <v>100</v>
       </c>
       <c r="E54">
-        <v>83.692051592865482</v>
+        <v>83.621108609796835</v>
       </c>
       <c r="F54">
-        <v>61.210387840260992</v>
+        <v>60.637257914052853</v>
       </c>
       <c r="G54">
-        <v>43.332197500796013</v>
+        <v>42.831686376154217</v>
       </c>
       <c r="H54">
-        <v>55.488026276834049</v>
+        <v>55.056782316763211</v>
       </c>
       <c r="I54">
-        <v>31.879331936367809</v>
+        <v>31.828495616917341</v>
       </c>
       <c r="J54">
-        <v>17.212301868401511</v>
+        <v>16.791529006409348</v>
       </c>
       <c r="K54">
-        <v>25.024363979001208</v>
+        <v>25.011172432359668</v>
       </c>
       <c r="L54">
-        <v>35.51352302018698</v>
+        <v>35.282963907468577</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>60.230277377016051</v>
+        <v>59.75928098667849</v>
       </c>
       <c r="O54">
-        <v>66.167652824487888</v>
+        <v>65.921083394780851</v>
       </c>
       <c r="P54">
-        <v>74.485565952188779</v>
+        <v>74.045120723844832</v>
       </c>
       <c r="Q54">
         <v>18.100000000000001</v>
@@ -3473,40 +3466,40 @@
         <v>100</v>
       </c>
       <c r="E55">
-        <v>68.659959668634826</v>
+        <v>81.817369300122337</v>
       </c>
       <c r="F55">
-        <v>55.088064262053329</v>
+        <v>52.704491752179962</v>
       </c>
       <c r="G55">
-        <v>66.599261522648689</v>
+        <v>56.296329398883913</v>
       </c>
       <c r="H55">
-        <v>84.679108688001691</v>
+        <v>87.126362300787079</v>
       </c>
       <c r="I55">
-        <v>22.178335369125222</v>
+        <v>22.356041467026738</v>
       </c>
       <c r="J55">
-        <v>11.801460201335299</v>
+        <v>11.816794585978229</v>
       </c>
       <c r="K55">
-        <v>10.97025171624713</v>
+        <v>6.8461434917216337</v>
       </c>
       <c r="L55">
-        <v>26.718182209901901</v>
+        <v>24.967539418406471</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>28.078079750501232</v>
+        <v>27.395686652338242</v>
       </c>
       <c r="O55">
-        <v>6.8048685757660081</v>
+        <v>11.179810499543271</v>
       </c>
       <c r="P55">
-        <v>37.764845851438032</v>
+        <v>40.086639912828559</v>
       </c>
       <c r="Q55">
         <v>21.2</v>
@@ -3529,40 +3522,40 @@
         <v>100</v>
       </c>
       <c r="E56">
-        <v>96.505918432327661</v>
+        <v>98.339822474960485</v>
       </c>
       <c r="F56">
-        <v>69.767117089438443</v>
+        <v>66.371350206963584</v>
       </c>
       <c r="G56">
-        <v>55.194758039739241</v>
+        <v>45.754313836116133</v>
       </c>
       <c r="H56">
-        <v>75.119122764877076</v>
+        <v>71.42841182680975</v>
       </c>
       <c r="I56">
-        <v>70.776978659614969</v>
+        <v>72.716684773601926</v>
       </c>
       <c r="J56">
-        <v>14.12568242129505</v>
+        <v>13.41479325856719</v>
       </c>
       <c r="K56">
-        <v>4.3696325212006997</v>
+        <v>4.0051150895140637</v>
       </c>
       <c r="L56">
-        <v>47.266384120888539</v>
+        <v>44.727765389934802</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>53.602601836888738</v>
+        <v>56.393413298617673</v>
       </c>
       <c r="O56">
-        <v>27.83157401889844</v>
+        <v>34.235950153088957</v>
       </c>
       <c r="P56">
-        <v>64.665879359428573</v>
+        <v>66.688412763814483</v>
       </c>
       <c r="Q56">
         <v>19</v>
@@ -3585,40 +3578,40 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>98.408531033365549</v>
+        <v>99.18890384712067</v>
       </c>
       <c r="F57">
-        <v>67.960026142768555</v>
+        <v>66.057413541730682</v>
       </c>
       <c r="G57">
-        <v>66.168017562577859</v>
+        <v>59.193260975214642</v>
       </c>
       <c r="H57">
-        <v>78.733304658216809</v>
+        <v>74.29350285168448</v>
       </c>
       <c r="I57">
-        <v>78.000456944680394</v>
+        <v>79.763965611141373</v>
       </c>
       <c r="J57">
-        <v>22.34154183412495</v>
+        <v>22.410272119262771</v>
       </c>
       <c r="K57">
-        <v>9.1105128550275936</v>
+        <v>7.2362363709786024</v>
       </c>
       <c r="L57">
-        <v>44.993792255323662</v>
+        <v>43.307000754682328</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>52.370773130420709</v>
+        <v>53.194313688570887</v>
       </c>
       <c r="O57">
-        <v>22.68692347120658</v>
+        <v>28.513331533023461</v>
       </c>
       <c r="P57">
-        <v>68.808898962185381</v>
+        <v>70.98338120136485</v>
       </c>
       <c r="Q57">
         <v>16.100000000000001</v>
@@ -3641,40 +3634,40 @@
         <v>100</v>
       </c>
       <c r="E58">
-        <v>98.201846751984448</v>
+        <v>98.989481445896203</v>
       </c>
       <c r="F58">
-        <v>67.466776898283399</v>
+        <v>67.123792712423949</v>
       </c>
       <c r="G58">
-        <v>44.053916667132178</v>
+        <v>34.479965589860193</v>
       </c>
       <c r="H58">
-        <v>90.069099582721194</v>
+        <v>84.454549009311961</v>
       </c>
       <c r="I58">
-        <v>70.733440787887247</v>
+        <v>73.767729902675526</v>
       </c>
       <c r="J58">
-        <v>8.7366145581773509</v>
+        <v>8.9704059432059609</v>
       </c>
       <c r="K58">
-        <v>0.59981154933369396</v>
+        <v>0.48162606003499769</v>
       </c>
       <c r="L58">
-        <v>39.109824411339837</v>
+        <v>36.34072462751152</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>19.409462342701492</v>
+        <v>19.38694839729769</v>
       </c>
       <c r="O58">
-        <v>3.2893091688140861</v>
+        <v>3.7152954137366119</v>
       </c>
       <c r="P58">
-        <v>30.13738941715253</v>
+        <v>32.214552926919232</v>
       </c>
       <c r="Q58">
         <v>14.8</v>
@@ -3697,40 +3690,40 @@
         <v>100</v>
       </c>
       <c r="E59">
-        <v>80.714122122479992</v>
+        <v>80.786182317880417</v>
       </c>
       <c r="F59">
-        <v>66.622164375450382</v>
+        <v>66.567420971192689</v>
       </c>
       <c r="G59">
-        <v>26.026019875207378</v>
+        <v>25.713200422306262</v>
       </c>
       <c r="H59">
-        <v>72.795321114754472</v>
+        <v>72.638352782138014</v>
       </c>
       <c r="I59">
-        <v>43.031375104738864</v>
+        <v>43.0664249686468</v>
       </c>
       <c r="J59">
-        <v>14.74936799366718</v>
+        <v>14.6821242222279</v>
       </c>
       <c r="K59">
-        <v>8.9250235563332865</v>
+        <v>8.4067842239870743</v>
       </c>
       <c r="L59">
-        <v>49.751601750729968</v>
+        <v>49.527983615269321</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>41.133292793900111</v>
+        <v>40.953452967788408</v>
       </c>
       <c r="O59">
-        <v>18.46782632026115</v>
+        <v>18.824844609399449</v>
       </c>
       <c r="P59">
-        <v>49.836615175691733</v>
+        <v>50.110337803428962</v>
       </c>
       <c r="Q59">
         <v>15.7</v>
@@ -3753,40 +3746,40 @@
         <v>100</v>
       </c>
       <c r="E60">
-        <v>96.581888870889358</v>
+        <v>96.61763966550663</v>
       </c>
       <c r="F60">
-        <v>82.153091605825153</v>
+        <v>82.114547780378402</v>
       </c>
       <c r="G60">
-        <v>81.693358731293671</v>
+        <v>81.940262656619211</v>
       </c>
       <c r="H60">
-        <v>87.898356022053775</v>
+        <v>87.876011775417979</v>
       </c>
       <c r="I60">
-        <v>70.99153765800871</v>
+        <v>70.971584840553518</v>
       </c>
       <c r="J60">
-        <v>7.416659097102368</v>
+        <v>7.2968707421200918</v>
       </c>
       <c r="K60">
-        <v>35.761206084264373</v>
+        <v>35.381612599273112</v>
       </c>
       <c r="L60">
-        <v>50.787671442473062</v>
+        <v>50.448917640290588</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>38.219073406534989</v>
+        <v>38.180451502516647</v>
       </c>
       <c r="O60">
-        <v>22.716261428085801</v>
+        <v>23.24208756015959</v>
       </c>
       <c r="P60">
-        <v>52.741813515433442</v>
+        <v>52.796046349977473</v>
       </c>
       <c r="Q60">
         <v>16.399999999999999</v>
@@ -3809,40 +3802,40 @@
         <v>100</v>
       </c>
       <c r="E61">
-        <v>57.185630414988523</v>
+        <v>61.628783858516229</v>
       </c>
       <c r="F61">
-        <v>61.631576889345709</v>
+        <v>63.966550662786211</v>
       </c>
       <c r="G61">
-        <v>93.160984710949236</v>
+        <v>90.631057385611427</v>
       </c>
       <c r="H61">
-        <v>85.629297776188849</v>
+        <v>86.101878592535911</v>
       </c>
       <c r="I61">
-        <v>53.00423236825349</v>
+        <v>50.052278660914972</v>
       </c>
       <c r="J61">
-        <v>3.566324297214948</v>
+        <v>3.3598542672788061</v>
       </c>
       <c r="K61">
-        <v>28.68353748822183</v>
+        <v>23.490913985731581</v>
       </c>
       <c r="L61">
-        <v>71.40842291182112</v>
+        <v>69.43471327582526</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>33.391071958824107</v>
+        <v>35.023699916117152</v>
       </c>
       <c r="O61">
-        <v>11.9859821396805</v>
+        <v>14.107318400842299</v>
       </c>
       <c r="P61">
-        <v>57.857965827470387</v>
+        <v>59.955722971186887</v>
       </c>
       <c r="Q61">
         <v>16</v>
@@ -3865,40 +3858,40 @@
         <v>100</v>
       </c>
       <c r="E62">
-        <v>60.598155482440212</v>
+        <v>69.096789690364602</v>
       </c>
       <c r="F62">
-        <v>54.450694626767287</v>
+        <v>67.132171804912389</v>
       </c>
       <c r="G62">
-        <v>75.34088941273734</v>
+        <v>56.747683180926948</v>
       </c>
       <c r="H62">
-        <v>95.323907785294139</v>
+        <v>90.561231614874572</v>
       </c>
       <c r="I62">
-        <v>65.443357999607485</v>
+        <v>61.630305808748183</v>
       </c>
       <c r="J62">
-        <v>9.9696699266128803</v>
+        <v>8.3530513235168939</v>
       </c>
       <c r="K62">
-        <v>27.482299098128959</v>
+        <v>22.06622694844528</v>
       </c>
       <c r="L62">
-        <v>63.182277370177253</v>
+        <v>57.82501430784005</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>33.254926862861723</v>
+        <v>34.897906817616317</v>
       </c>
       <c r="O62">
-        <v>13.430792340665519</v>
+        <v>20.694661523681159</v>
       </c>
       <c r="P62">
-        <v>53.736852519901973</v>
+        <v>60.643252769385697</v>
       </c>
       <c r="Q62">
         <v>16</v>
@@ -3921,40 +3914,40 @@
         <v>100</v>
       </c>
       <c r="E63">
-        <v>94.155303686242092</v>
+        <v>96.924314450582912</v>
       </c>
       <c r="F63">
-        <v>61.186926381293397</v>
+        <v>61.956127071730613</v>
       </c>
       <c r="G63">
-        <v>63.261031075261009</v>
+        <v>57.900646307333943</v>
       </c>
       <c r="H63">
-        <v>89.489266382522331</v>
+        <v>88.649681315182363</v>
       </c>
       <c r="I63">
-        <v>64.742990854468616</v>
+        <v>64.736375912991704</v>
       </c>
       <c r="J63">
-        <v>11.79769250630252</v>
+        <v>12.217093148951511</v>
       </c>
       <c r="K63">
-        <v>33.834971059361962</v>
+        <v>32.180643424417823</v>
       </c>
       <c r="L63">
-        <v>64.463483184206595</v>
+        <v>63.088145126892726</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>34.973103085734152</v>
+        <v>35.785599890959901</v>
       </c>
       <c r="O63">
-        <v>22.810802144753008</v>
+        <v>23.340241703227189</v>
       </c>
       <c r="P63">
-        <v>68.692400036937855</v>
+        <v>69.812517070506061</v>
       </c>
       <c r="Q63">
         <v>16.8</v>
@@ -3977,40 +3970,40 @@
         <v>100</v>
       </c>
       <c r="E64">
-        <v>89.503790142835598</v>
+        <v>89.49708686884486</v>
       </c>
       <c r="F64">
-        <v>45.929157566041212</v>
+        <v>45.574442650697968</v>
       </c>
       <c r="G64">
-        <v>52.278833853768077</v>
+        <v>52.126892976644683</v>
       </c>
       <c r="H64">
-        <v>87.94360312149125</v>
+        <v>87.693906165336259</v>
       </c>
       <c r="I64">
-        <v>68.664636798608086</v>
+        <v>68.590296176203083</v>
       </c>
       <c r="J64">
-        <v>9.5535164376679802</v>
+        <v>9.465247168145865</v>
       </c>
       <c r="K64">
-        <v>34.413783820164227</v>
+        <v>34.133799973078467</v>
       </c>
       <c r="L64">
-        <v>51.714335981564723</v>
+        <v>51.720890440494138</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>25.51520881653396</v>
+        <v>25.64004077351494</v>
       </c>
       <c r="O64">
-        <v>30.706621340941918</v>
+        <v>31.295951588676228</v>
       </c>
       <c r="P64">
-        <v>69.740376007162041</v>
+        <v>70.177345781643012</v>
       </c>
       <c r="Q64">
         <v>17.899999999999999</v>
@@ -4033,40 +4026,40 @@
         <v>100</v>
       </c>
       <c r="E65">
-        <v>99.863141489355755</v>
+        <v>99.917884893613461</v>
       </c>
       <c r="F65">
-        <v>60.851762681756483</v>
+        <v>63.188412273694681</v>
       </c>
       <c r="G65">
-        <v>75.413508214303675</v>
+        <v>75.698397358910043</v>
       </c>
       <c r="H65">
-        <v>88.608344458906146</v>
+        <v>86.771088779277946</v>
       </c>
       <c r="I65">
-        <v>87.145269202640108</v>
+        <v>87.799577422275888</v>
       </c>
       <c r="J65">
-        <v>9.1326223853675543</v>
+        <v>9.6127469494273612</v>
       </c>
       <c r="K65">
-        <v>6.5917350922062212</v>
+        <v>5.6661731053977604</v>
       </c>
       <c r="L65">
-        <v>51.294856522566597</v>
+        <v>50.800937403991107</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>24.06832415160034</v>
+        <v>22.596362531469751</v>
       </c>
       <c r="O65">
-        <v>12.512139069472139</v>
+        <v>13.297359348797711</v>
       </c>
       <c r="P65">
-        <v>61.425594172999602</v>
+        <v>62.691124397747721</v>
       </c>
       <c r="Q65">
         <v>15.3</v>
@@ -4089,40 +4082,40 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>98.750956613059088</v>
+        <v>98.742577520570677</v>
       </c>
       <c r="F66">
-        <v>85.400269248171966</v>
+        <v>85.268438193020771</v>
       </c>
       <c r="G66">
-        <v>75.274415278995846</v>
+        <v>75.097895730573072</v>
       </c>
       <c r="H66">
-        <v>98.678896417658663</v>
+        <v>98.692302965640138</v>
       </c>
       <c r="I66">
-        <v>68.062355307601806</v>
+        <v>67.953243007324744</v>
       </c>
       <c r="J66">
-        <v>30.527436643714069</v>
+        <v>30.522325548377939</v>
       </c>
       <c r="K66">
-        <v>15.137972809261001</v>
+        <v>15.11724323596717</v>
       </c>
       <c r="L66">
-        <v>68.626852902337873</v>
+        <v>68.536090910781709</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>45.507869851164472</v>
+        <v>44.506316753991527</v>
       </c>
       <c r="O66">
-        <v>31.598697355039281</v>
+        <v>30.948997771222079</v>
       </c>
       <c r="P66">
-        <v>84.270210637042354</v>
+        <v>84.52933781460861</v>
       </c>
       <c r="Q66">
         <v>16.2</v>
@@ -4145,40 +4138,40 @@
         <v>100</v>
       </c>
       <c r="E67">
-        <v>91.764469296212098</v>
+        <v>91.782344693520727</v>
       </c>
       <c r="F67">
-        <v>64.536887558164864</v>
+        <v>64.533535921169502</v>
       </c>
       <c r="G67">
-        <v>92.266656239351576</v>
+        <v>92.235374294061458</v>
       </c>
       <c r="H67">
-        <v>95.566901467458393</v>
+        <v>95.550701888647453</v>
       </c>
       <c r="I67">
-        <v>63.104551920341393</v>
+        <v>63.193456614509238</v>
       </c>
       <c r="J67">
-        <v>25.4452051876947</v>
+        <v>25.318835352884221</v>
       </c>
       <c r="K67">
-        <v>8.567236505586223</v>
+        <v>8.432628886794987</v>
       </c>
       <c r="L67">
-        <v>43.761018229721607</v>
+        <v>43.750169511226488</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>36.760397139484837</v>
+        <v>36.369159202943827</v>
       </c>
       <c r="O67">
-        <v>19.413829375765889</v>
+        <v>19.567999190292181</v>
       </c>
       <c r="P67">
-        <v>60.803892173224341</v>
+        <v>61.290413826266509</v>
       </c>
       <c r="Q67">
         <v>16.100000000000001</v>
@@ -4201,40 +4194,40 @@
         <v>100</v>
       </c>
       <c r="E68">
-        <v>85.704151002418769</v>
+        <v>85.660021115313072</v>
       </c>
       <c r="F68">
-        <v>93.153722830792603</v>
+        <v>92.968265583715507</v>
       </c>
       <c r="G68">
-        <v>73.971745700129034</v>
+        <v>73.992972734433039</v>
       </c>
       <c r="H68">
-        <v>89.55853354709329</v>
+        <v>89.484238927029281</v>
       </c>
       <c r="I68">
-        <v>64.306691100460483</v>
+        <v>64.203317357391228</v>
       </c>
       <c r="J68">
-        <v>67.75499650514567</v>
+        <v>67.590766765356051</v>
       </c>
       <c r="K68">
-        <v>14.03499798088572</v>
+        <v>13.46910755148741</v>
       </c>
       <c r="L68">
-        <v>45.434875271479889</v>
+        <v>44.974932510605477</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>49.257584438260487</v>
+        <v>48.939065313471929</v>
       </c>
       <c r="O68">
-        <v>26.756620113402239</v>
+        <v>26.247053046076669</v>
       </c>
       <c r="P68">
-        <v>68.201996033120295</v>
+        <v>68.296445549853601</v>
       </c>
       <c r="Q68">
         <v>18.8</v>
@@ -4257,40 +4250,40 @@
         <v>100</v>
       </c>
       <c r="E69">
-        <v>98.343174111955847</v>
+        <v>98.326415926978996</v>
       </c>
       <c r="F69">
-        <v>98.096270186630321</v>
+        <v>98.070015696833266</v>
       </c>
       <c r="G69">
-        <v>34.144801890323272</v>
+        <v>33.839802923744671</v>
       </c>
       <c r="H69">
-        <v>59.949613723836279</v>
+        <v>59.750191322611819</v>
       </c>
       <c r="I69">
-        <v>65.632238365971787</v>
+        <v>65.354548325963364</v>
       </c>
       <c r="J69">
-        <v>58.858921986943862</v>
+        <v>58.781937287297808</v>
       </c>
       <c r="K69">
-        <v>5.6879795396419439</v>
+        <v>5.4599542334096176</v>
       </c>
       <c r="L69">
-        <v>48.722490218034572</v>
+        <v>48.239246224523249</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>36.933767556556226</v>
+        <v>36.414106893963762</v>
       </c>
       <c r="O69">
-        <v>28.795550699157669</v>
+        <v>28.124482972406408</v>
       </c>
       <c r="P69">
-        <v>73.135537976356176</v>
+        <v>73.405098750858897</v>
       </c>
       <c r="Q69">
         <v>19</v>
@@ -4313,40 +4306,40 @@
         <v>100</v>
       </c>
       <c r="E70">
-        <v>99.113492014724855</v>
+        <v>99.106230134568222</v>
       </c>
       <c r="F70">
-        <v>92.312461944954947</v>
+        <v>92.428652027461084</v>
       </c>
       <c r="G70">
-        <v>51.714641626214267</v>
+        <v>51.414111508962833</v>
       </c>
       <c r="H70">
-        <v>66.667970081053767</v>
+        <v>66.547869755386358</v>
       </c>
       <c r="I70">
-        <v>75.519538933020272</v>
+        <v>75.226797993504817</v>
       </c>
       <c r="J70">
-        <v>37.588281305553593</v>
+        <v>37.381781981085119</v>
       </c>
       <c r="K70">
-        <v>2.057073630367483</v>
+        <v>1.89392919639252</v>
       </c>
       <c r="L70">
-        <v>36.982300368012147</v>
+        <v>37.172372577478022</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>17.089991478455019</v>
+        <v>16.88025577846626</v>
       </c>
       <c r="O70">
-        <v>17.040298224368609</v>
+        <v>17.1637680736515</v>
       </c>
       <c r="P70">
-        <v>63.416227774917843</v>
+        <v>63.790440739714093</v>
       </c>
       <c r="Q70">
         <v>19</v>
@@ -4369,40 +4362,40 @@
         <v>100</v>
       </c>
       <c r="E71">
-        <v>98.147355912061798</v>
+        <v>99.463179474575043</v>
       </c>
       <c r="F71">
-        <v>85.937089773596924</v>
+        <v>83.79260070272656</v>
       </c>
       <c r="G71">
-        <v>84.495327259422282</v>
+        <v>77.19937212666953</v>
       </c>
       <c r="H71">
-        <v>90.239906050777321</v>
+        <v>85.725378036722773</v>
       </c>
       <c r="I71">
-        <v>74.674807539155822</v>
+        <v>79.590922128208803</v>
       </c>
       <c r="J71">
-        <v>26.651150128490102</v>
+        <v>24.967123428044431</v>
       </c>
       <c r="K71">
-        <v>11.61529142549468</v>
+        <v>6.4759725400457739</v>
       </c>
       <c r="L71">
-        <v>65.855012690355323</v>
+        <v>64.370418386509442</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>32.17388571508387</v>
+        <v>33.855613755408783</v>
       </c>
       <c r="O71">
-        <v>16.586959900809362</v>
+        <v>18.781665473441748</v>
       </c>
       <c r="P71">
-        <v>77.828658652928823</v>
+        <v>79.412494641608191</v>
       </c>
       <c r="Q71">
         <v>17.899999999999999</v>
@@ -4425,40 +4418,40 @@
         <v>100</v>
       </c>
       <c r="E72">
-        <v>99.212923912254141</v>
+        <v>99.198400151940874</v>
       </c>
       <c r="F72">
-        <v>42.062485685717</v>
+        <v>42.073657809034891</v>
       </c>
       <c r="G72">
-        <v>26.627638715876149</v>
+        <v>26.501393722383909</v>
       </c>
       <c r="H72">
-        <v>84.04173905271567</v>
+        <v>83.909907997564474</v>
       </c>
       <c r="I72">
-        <v>81.588973074782757</v>
+        <v>81.434870082616328</v>
       </c>
       <c r="J72">
-        <v>47.272841236737442</v>
+        <v>47.225831082544133</v>
       </c>
       <c r="K72">
-        <v>1.8422398707766801</v>
+        <v>1.6451743168663311</v>
       </c>
       <c r="L72">
-        <v>46.895099869943877</v>
+        <v>46.83993988067224</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>60.54300995871403</v>
+        <v>60.420050981424531</v>
       </c>
       <c r="O72">
-        <v>15.109856772509151</v>
+        <v>15.177517512732351</v>
       </c>
       <c r="P72">
-        <v>69.343722676541688</v>
+        <v>69.711464280203671</v>
       </c>
       <c r="Q72">
         <v>17.3</v>
@@ -4481,40 +4474,40 @@
         <v>100</v>
       </c>
       <c r="E73">
-        <v>98.701161562829995</v>
+        <v>98.972815819541381</v>
       </c>
       <c r="F73">
-        <v>70.967003133780594</v>
+        <v>61.922052095611029</v>
       </c>
       <c r="G73">
-        <v>50.162275091192463</v>
+        <v>41.711681013535028</v>
       </c>
       <c r="H73">
-        <v>90.035526599548263</v>
+        <v>86.544294675924633</v>
       </c>
       <c r="I73">
-        <v>72.986980678331534</v>
+        <v>74.655509345091943</v>
       </c>
       <c r="J73">
-        <v>36.339032625510178</v>
+        <v>39.130720073034347</v>
       </c>
       <c r="K73">
-        <v>10.00484587427648</v>
+        <v>10.53789204468973</v>
       </c>
       <c r="L73">
-        <v>65.852275948075516</v>
+        <v>62.901971794484147</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>53.803294961494743</v>
+        <v>54.942786101208981</v>
       </c>
       <c r="O73">
-        <v>30.94714104475128</v>
+        <v>30.267611954355829</v>
       </c>
       <c r="P73">
-        <v>73.438711821841409</v>
+        <v>75.262178369915219</v>
       </c>
       <c r="Q73">
         <v>19.5</v>
@@ -4537,40 +4530,40 @@
         <v>100</v>
       </c>
       <c r="E74">
-        <v>96.333195132063508</v>
+        <v>96.21848739495799</v>
       </c>
       <c r="F74">
-        <v>90.444482926202539</v>
+        <v>90.543914823731825</v>
       </c>
       <c r="G74">
-        <v>93.87544199712876</v>
+        <v>93.515699626292474</v>
       </c>
       <c r="H74">
-        <v>87.794990671114377</v>
+        <v>87.680461982675652</v>
       </c>
       <c r="I74">
-        <v>57.907737014166358</v>
+        <v>57.390838014056293</v>
       </c>
       <c r="J74">
-        <v>29.465588003385019</v>
+        <v>27.945545120084091</v>
       </c>
       <c r="K74">
-        <v>34.536007538026652</v>
+        <v>31.463184816260611</v>
       </c>
       <c r="L74">
-        <v>63.715539749425531</v>
+        <v>61.678715373296647</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>19.32548989937202</v>
+        <v>20.454147269359769</v>
       </c>
       <c r="O74">
-        <v>14.697996048546431</v>
+        <v>14.54822666849898</v>
       </c>
       <c r="P74">
-        <v>73.006063883202657</v>
+        <v>74.373278477040543</v>
       </c>
       <c r="Q74">
         <v>16</v>
@@ -4593,40 +4586,40 @@
         <v>100</v>
       </c>
       <c r="E75">
-        <v>98.89938801662295</v>
+        <v>98.891603492257389</v>
       </c>
       <c r="F75">
-        <v>68.362222582212866</v>
+        <v>68.261673472351788</v>
       </c>
       <c r="G75">
-        <v>26.575688342447918</v>
+        <v>26.37794175972115</v>
       </c>
       <c r="H75">
-        <v>90.789021428611676</v>
+        <v>90.763665458971218</v>
       </c>
       <c r="I75">
-        <v>83.144143572832775</v>
+        <v>83.080728010653814</v>
       </c>
       <c r="J75">
-        <v>13.381830049641851</v>
+        <v>13.304246754957029</v>
       </c>
       <c r="K75">
-        <v>0.30852066226948688</v>
+        <v>0.28079149279849958</v>
       </c>
       <c r="L75">
-        <v>48.494991616333508</v>
+        <v>48.761772974051148</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>18.034299729343051</v>
+        <v>18.00271276299247</v>
       </c>
       <c r="O75">
-        <v>17.764309739171338</v>
+        <v>17.792121010762401</v>
       </c>
       <c r="P75">
-        <v>82.297844492617287</v>
+        <v>82.440999631886783</v>
       </c>
       <c r="Q75">
         <v>17.899999999999999</v>
@@ -4649,25 +4642,25 @@
         <v>100</v>
       </c>
       <c r="E76">
-        <v>98.62715688218961</v>
+        <v>98.627776675922249</v>
       </c>
       <c r="F76">
-        <v>71.18430093231369</v>
+        <v>71.247423429059808</v>
       </c>
       <c r="G76">
-        <v>30.177022293972069</v>
+        <v>29.687683292648192</v>
       </c>
       <c r="H76">
-        <v>85.820303809887804</v>
+        <v>85.756986315435213</v>
       </c>
       <c r="I76">
-        <v>80.981245097340093</v>
+        <v>80.83149112172859</v>
       </c>
       <c r="J76">
-        <v>45.874562840511032</v>
+        <v>45.912433260557087</v>
       </c>
       <c r="K76">
-        <v>1.0063265580831879</v>
+        <v>0.94629156010229565</v>
       </c>
       <c r="L76">
         <v>42.060513110277007</v>
@@ -4676,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>18.542622654736139</v>
+        <v>18.44588865181575</v>
       </c>
       <c r="O76">
-        <v>16.711748772451831</v>
+        <v>17.069963671336421</v>
       </c>
       <c r="P76">
-        <v>77.697841726618705</v>
+        <v>77.985611510791358</v>
       </c>
       <c r="Q76">
         <v>21.3</v>
@@ -4705,40 +4698,40 @@
         <v>100</v>
       </c>
       <c r="E77">
-        <v>98.714272314309838</v>
+        <v>99.159388856448004</v>
       </c>
       <c r="F77">
-        <v>84.611517341928419</v>
+        <v>85.74995670802214</v>
       </c>
       <c r="G77">
-        <v>62.698514666204893</v>
+        <v>54.785299720138312</v>
       </c>
       <c r="H77">
-        <v>94.57156809237928</v>
+        <v>94.006442567293547</v>
       </c>
       <c r="I77">
-        <v>72.032545053608089</v>
+        <v>84.285543655691356</v>
       </c>
       <c r="J77">
-        <v>32.155993027224852</v>
+        <v>36.35516866659384</v>
       </c>
       <c r="K77">
-        <v>7.967424956252529</v>
+        <v>7.2631578947368354</v>
       </c>
       <c r="L77">
-        <v>71.038411620825642</v>
+        <v>67.25222844150295</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>31.311664798689549</v>
+        <v>26.47286962634379</v>
       </c>
       <c r="O77">
-        <v>18.15156416886073</v>
+        <v>19.667382623426899</v>
       </c>
       <c r="P77">
-        <v>77.854454203262236</v>
+        <v>81.786733021787938</v>
       </c>
       <c r="Q77">
         <v>19.100000000000001</v>
@@ -4761,40 +4754,40 @@
         <v>100</v>
       </c>
       <c r="E78">
-        <v>98.760294052652512</v>
+        <v>99.20572093796774</v>
       </c>
       <c r="F78">
-        <v>93.148136769133657</v>
+        <v>90.412083768580644</v>
       </c>
       <c r="G78">
-        <v>63.95090969014116</v>
+        <v>55.353960797019283</v>
       </c>
       <c r="H78">
-        <v>97.915769424410243</v>
+        <v>96.15679882837874</v>
       </c>
       <c r="I78">
-        <v>79.56786418588699</v>
+        <v>85.231285310734464</v>
       </c>
       <c r="J78">
-        <v>24.801707902041159</v>
+        <v>26.633326423438358</v>
       </c>
       <c r="K78">
-        <v>9.2389285233544172</v>
+        <v>7.294117647058826</v>
       </c>
       <c r="L78">
-        <v>65.45408793161748</v>
+        <v>63.469096944927259</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>20.038734584725489</v>
+        <v>18.4803223921739</v>
       </c>
       <c r="O78">
-        <v>15.78573829890553</v>
+        <v>16.149641121203292</v>
       </c>
       <c r="P78">
-        <v>80.671094023068861</v>
+        <v>79.486390896509306</v>
       </c>
       <c r="Q78">
         <v>18.3</v>
@@ -4817,40 +4810,40 @@
         <v>100</v>
       </c>
       <c r="E79">
-        <v>99.292258505221795</v>
+        <v>99.479300457521333</v>
       </c>
       <c r="F79">
-        <v>73.177407732226541</v>
+        <v>78.351218040744726</v>
       </c>
       <c r="G79">
-        <v>58.381606216169423</v>
+        <v>55.386918560807082</v>
       </c>
       <c r="H79">
-        <v>99.763320647002857</v>
+        <v>99.267277369701219</v>
       </c>
       <c r="I79">
-        <v>80.092395167022033</v>
+        <v>85.976468222043437</v>
       </c>
       <c r="J79">
-        <v>22.211416641387562</v>
+        <v>24.201587008246889</v>
       </c>
       <c r="K79">
-        <v>3.0343249427917698</v>
+        <v>2.5858123569794031</v>
       </c>
       <c r="L79">
-        <v>68.882323611927632</v>
+        <v>66.678588155149669</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>5.205908195922234</v>
+        <v>4.9934039291189833</v>
       </c>
       <c r="O79">
-        <v>9.8180348659424794</v>
+        <v>11.241057268045781</v>
       </c>
       <c r="P79">
-        <v>74.859904375096392</v>
+        <v>77.684294871794876</v>
       </c>
       <c r="Q79">
         <v>18.3</v>
@@ -4873,40 +4866,40 @@
         <v>100</v>
       </c>
       <c r="E80">
-        <v>99.283296834561014</v>
+        <v>99.468312126100443</v>
       </c>
       <c r="F80">
-        <v>75.510147081003481</v>
+        <v>79.056179022104047</v>
       </c>
       <c r="G80">
-        <v>59.92726947720049</v>
+        <v>56.919175273856673</v>
       </c>
       <c r="H80">
-        <v>99.784852645515613</v>
+        <v>99.691906329585692</v>
       </c>
       <c r="I80">
-        <v>81.942743417023877</v>
+        <v>86.170752324598482</v>
       </c>
       <c r="J80">
-        <v>18.094174322935029</v>
+        <v>19.964064163696118</v>
       </c>
       <c r="K80">
-        <v>2.4433974962982892</v>
+        <v>2.3279041593754219</v>
       </c>
       <c r="L80">
-        <v>74.091908824313521</v>
+        <v>72.641955616555236</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
-        <v>3.7063139873202569</v>
+        <v>3.1939947012069472</v>
       </c>
       <c r="O80">
-        <v>11.74821610601427</v>
+        <v>12.956438707978011</v>
       </c>
       <c r="P80">
-        <v>81.918652732877234</v>
+        <v>78.703452025006797</v>
       </c>
       <c r="Q80">
         <v>18.5</v>
@@ -4929,40 +4922,40 @@
         <v>100</v>
       </c>
       <c r="E81">
-        <v>99.308112762244477</v>
+        <v>99.403785846525864</v>
       </c>
       <c r="F81">
-        <v>78.805923459783145</v>
+        <v>80.440963707357398</v>
       </c>
       <c r="G81">
-        <v>63.135344687934662</v>
+        <v>61.07352932961674</v>
       </c>
       <c r="H81">
-        <v>99.963688254105776</v>
+        <v>99.932171720726657</v>
       </c>
       <c r="I81">
-        <v>83.768913342503438</v>
+        <v>86.074017550553222</v>
       </c>
       <c r="J81">
-        <v>18.927784793398128</v>
+        <v>19.692136369436351</v>
       </c>
       <c r="K81">
-        <v>4.217525911966618</v>
+        <v>4.0166913447301198</v>
       </c>
       <c r="L81">
-        <v>77.724045584594478</v>
+        <v>76.793052018546888</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>3.1967857979352772</v>
+        <v>3.054221703276653</v>
       </c>
       <c r="O81">
-        <v>12.816118653771641</v>
+        <v>13.318190436909051</v>
       </c>
       <c r="P81">
-        <v>80.381396625051451</v>
+        <v>76.92607003891051</v>
       </c>
       <c r="Q81">
         <v>18.2</v>
@@ -4985,40 +4978,40 @@
         <v>100</v>
       </c>
       <c r="E82">
-        <v>99.130352422528176</v>
+        <v>99.507666004416762</v>
       </c>
       <c r="F82">
-        <v>79.756112547970304</v>
+        <v>81.611243624907132</v>
       </c>
       <c r="G82">
-        <v>69.515744314785749</v>
+        <v>62.252188339654893</v>
       </c>
       <c r="H82">
-        <v>99.999333377774818</v>
+        <v>99.988093426910183</v>
       </c>
       <c r="I82">
-        <v>80.27972027972028</v>
+        <v>86.280465755406084</v>
       </c>
       <c r="J82">
-        <v>18.451170118369991</v>
+        <v>19.968716201286242</v>
       </c>
       <c r="K82">
-        <v>4.6889217929734741</v>
+        <v>3.6457127473415061</v>
       </c>
       <c r="L82">
-        <v>84.332137365453619</v>
+        <v>81.474288138052657</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2.6485301278055431</v>
+        <v>2.6706334606994768</v>
       </c>
       <c r="O82">
-        <v>11.00437852701369</v>
+        <v>12.38072490831067</v>
       </c>
       <c r="P82">
-        <v>80.441197133623717</v>
+        <v>73.211064341551406</v>
       </c>
       <c r="Q82">
         <v>15.3</v>
@@ -5041,40 +5034,40 @@
         <v>100</v>
       </c>
       <c r="E83">
-        <v>99.73255419899067</v>
+        <v>99.772517829122705</v>
       </c>
       <c r="F83">
-        <v>94.157538110905662</v>
+        <v>91.212566404307978</v>
       </c>
       <c r="G83">
-        <v>78.22497304725249</v>
+        <v>72.530541792120303</v>
       </c>
       <c r="H83">
-        <v>99.853489513511931</v>
+        <v>99.972546516496109</v>
       </c>
       <c r="I83">
-        <v>89.125625800442421</v>
+        <v>89.167486070140939</v>
       </c>
       <c r="J83">
-        <v>34.489665471747571</v>
+        <v>31.614183207040909</v>
       </c>
       <c r="K83">
-        <v>14.734149952887339</v>
+        <v>12.091263965540451</v>
       </c>
       <c r="L83">
-        <v>90.050614605929141</v>
+        <v>91.274526827574235</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>4.3364119433198454</v>
+        <v>4.1183549557260326</v>
       </c>
       <c r="O83">
-        <v>17.357940669516541</v>
+        <v>17.517627424519489</v>
       </c>
       <c r="P83">
-        <v>57.462686567164177</v>
+        <v>71.351058057514919</v>
       </c>
       <c r="Q83">
         <v>15</v>
@@ -5097,40 +5090,40 @@
         <v>100</v>
       </c>
       <c r="E84">
-        <v>99.637149695051335</v>
+        <v>99.861117176922747</v>
       </c>
       <c r="F84">
-        <v>80.790092561041689</v>
+        <v>88.260891423719528</v>
       </c>
       <c r="G84">
-        <v>72.60371919985252</v>
+        <v>72.567968405235263</v>
       </c>
       <c r="H84">
-        <v>100</v>
+        <v>99.867041238660974</v>
       </c>
       <c r="I84">
-        <v>83.066331259102341</v>
+        <v>89.3764650726676</v>
       </c>
       <c r="J84">
-        <v>23.438510377849369</v>
+        <v>27.086770524594471</v>
       </c>
       <c r="K84">
-        <v>9.3299232736572861</v>
+        <v>11.103513258850461</v>
       </c>
       <c r="L84">
-        <v>92.680820064522848</v>
+        <v>89.754571368977267</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>3.3401180604097358</v>
+        <v>4.2342799188640896</v>
       </c>
       <c r="O84">
-        <v>14.22862064060223</v>
+        <v>15.634634266573469</v>
       </c>
       <c r="P84">
-        <v>80.980181287448147</v>
+        <v>59.27318295739348</v>
       </c>
       <c r="Q84">
         <v>17.3</v>
@@ -5153,40 +5146,40 @@
         <v>100</v>
       </c>
       <c r="E85">
-        <v>99.557732237130011</v>
+        <v>99.891197108424848</v>
       </c>
       <c r="F85">
-        <v>81.437517107313823</v>
+        <v>87.987174402431052</v>
       </c>
       <c r="G85">
-        <v>74.190160710993922</v>
+        <v>72.857326399168784</v>
       </c>
       <c r="H85">
-        <v>100</v>
+        <v>99.795932096965885</v>
       </c>
       <c r="I85">
-        <v>82.017279485633907</v>
+        <v>90.141150922909887</v>
       </c>
       <c r="J85">
-        <v>22.419424754717891</v>
+        <v>27.60468207449394</v>
       </c>
       <c r="K85">
-        <v>11.720016152914249</v>
+        <v>12.84533584600889</v>
       </c>
       <c r="L85">
-        <v>92.943366363119594</v>
+        <v>89.144073139974779</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>3.2465126993465958</v>
+        <v>3.8834484864247538</v>
       </c>
       <c r="O85">
-        <v>14.119364018283139</v>
+        <v>15.731884221057831</v>
       </c>
       <c r="P85">
-        <v>80.102695763799744</v>
+        <v>26.31578947368422</v>
       </c>
       <c r="Q85">
         <v>17.399999999999999</v>
@@ -5209,40 +5202,40 @@
         <v>100</v>
       </c>
       <c r="E86">
-        <v>99.750235721307206</v>
+        <v>99.839782729750596</v>
       </c>
       <c r="F86">
-        <v>89.081483881419089</v>
+        <v>90.156242144600796</v>
       </c>
       <c r="G86">
-        <v>77.480351028114654</v>
+        <v>76.040822938603597</v>
       </c>
       <c r="H86">
-        <v>99.819006615885826</v>
+        <v>99.713464799346852</v>
       </c>
       <c r="I86">
-        <v>86.837004405286336</v>
+        <v>89.938791124713077</v>
       </c>
       <c r="J86">
-        <v>30.31082817776981</v>
+        <v>32.281517762234493</v>
       </c>
       <c r="K86">
-        <v>19.996769417149011</v>
+        <v>19.608988630948701</v>
       </c>
       <c r="L86">
-        <v>89.495944747180332</v>
+        <v>87.807042967900884</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>4.8661262446098448</v>
+        <v>4.9863322799553202</v>
       </c>
       <c r="O86">
-        <v>18.51570953291063</v>
+        <v>19.218559167922901</v>
       </c>
       <c r="P86">
-        <v>30.11363636363636</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <v>16.399999999999999</v>
@@ -5265,40 +5258,40 @@
         <v>100</v>
       </c>
       <c r="E87">
-        <v>99.77008999052731</v>
+        <v>99.953227315247901</v>
       </c>
       <c r="F87">
-        <v>88.052531323840753</v>
+        <v>94.563086187345334</v>
       </c>
       <c r="G87">
-        <v>80.93533016417436</v>
+        <v>83.774166699252021</v>
       </c>
       <c r="H87">
-        <v>100</v>
+        <v>99.752358392897079</v>
       </c>
       <c r="I87">
-        <v>86.58536585365853</v>
+        <v>92.273697043584278</v>
       </c>
       <c r="J87">
-        <v>32.601438070907157</v>
+        <v>38.252233832883078</v>
       </c>
       <c r="K87">
-        <v>21.736438282406791</v>
+        <v>23.806470558125369</v>
       </c>
       <c r="L87">
-        <v>92.437853883069835</v>
+        <v>87.770770496298326</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>6.2791473361836267</v>
+        <v>7.8035237943923619</v>
       </c>
       <c r="O87">
-        <v>17.30761297673186</v>
+        <v>18.403578432712049</v>
       </c>
       <c r="P87">
-        <v>70.662051060147121</v>
+        <v>0</v>
       </c>
       <c r="Q87">
         <v>16.3</v>
@@ -5321,37 +5314,37 @@
         <v>100</v>
       </c>
       <c r="E88">
-        <v>99.707897117745901</v>
+        <v>99.824820107990647</v>
       </c>
       <c r="F88">
-        <v>99.360954546216277</v>
+        <v>98.33144338247206</v>
       </c>
       <c r="G88">
-        <v>87.854784741113974</v>
+        <v>82.824536217230758</v>
       </c>
       <c r="H88">
-        <v>99.639523234366081</v>
+        <v>99.60898714490321</v>
       </c>
       <c r="I88">
-        <v>79.230412610106626</v>
+        <v>89.012797074954292</v>
       </c>
       <c r="J88">
-        <v>40.20615107607334</v>
+        <v>38.93174197550924</v>
       </c>
       <c r="K88">
-        <v>27.735845492496711</v>
+        <v>24.774131550320011</v>
       </c>
       <c r="L88">
-        <v>84.99079189686924</v>
+        <v>85.302204669299613</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>8.241649817109618</v>
+        <v>8.7783969138448299</v>
       </c>
       <c r="O88">
-        <v>18.20681685424297</v>
+        <v>18.72947148402508</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5377,37 +5370,37 @@
         <v>100</v>
       </c>
       <c r="E89">
-        <v>99.900850879723109</v>
+        <v>99.845181114459606</v>
       </c>
       <c r="F89">
-        <v>83.199919560712118</v>
+        <v>92.008021584542249</v>
       </c>
       <c r="G89">
-        <v>67.657261600853559</v>
+        <v>79.743823212320621</v>
       </c>
       <c r="H89">
-        <v>99.779668511656979</v>
+        <v>99.604134183573436</v>
       </c>
       <c r="I89">
-        <v>91.973825892487369</v>
+        <v>87.963165972374483</v>
       </c>
       <c r="J89">
-        <v>25.931686410728329</v>
+        <v>31.54600947171075</v>
       </c>
       <c r="K89">
-        <v>15.38231635406065</v>
+        <v>20.756888186110981</v>
       </c>
       <c r="L89">
-        <v>87.960737179487182</v>
+        <v>82.625655073844683</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>4.2663761405420217</v>
+        <v>4.5196577255986767</v>
       </c>
       <c r="O89">
-        <v>14.97610866926024</v>
+        <v>14.79502009352464</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5433,37 +5426,37 @@
         <v>100</v>
       </c>
       <c r="E90">
-        <v>99.893593553326497</v>
+        <v>99.91082234537231</v>
       </c>
       <c r="F90">
-        <v>92.465520034410133</v>
+        <v>92.489540099543618</v>
       </c>
       <c r="G90">
-        <v>84.002636621103022</v>
+        <v>83.917169877721108</v>
       </c>
       <c r="H90">
-        <v>99.617899629717172</v>
+        <v>99.583011737818623</v>
       </c>
       <c r="I90">
-        <v>85.517970401691329</v>
+        <v>88.394584139264992</v>
       </c>
       <c r="J90">
-        <v>31.29089577505373</v>
+        <v>32.417796350731606</v>
       </c>
       <c r="K90">
-        <v>24.96123316489188</v>
+        <v>24.536153130660399</v>
       </c>
       <c r="L90">
-        <v>82.093114496828619</v>
+        <v>80.220821338774911</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>5.8515688767719638</v>
+        <v>6.0292811084523947</v>
       </c>
       <c r="O90">
-        <v>16.327461955722431</v>
+        <v>16.620330853069021</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5489,37 +5482,37 @@
         <v>100</v>
       </c>
       <c r="E91">
-        <v>99.462775907220347</v>
+        <v>99.955863286530032</v>
       </c>
       <c r="F91">
-        <v>88.987638045548749</v>
+        <v>93.325773529888224</v>
       </c>
       <c r="G91">
-        <v>85.884022187836905</v>
+        <v>87.111838540473812</v>
       </c>
       <c r="H91">
-        <v>99.882267197398662</v>
+        <v>99.626736111111114</v>
       </c>
       <c r="I91">
-        <v>49.275362318840578</v>
+        <v>90.292975644193433</v>
       </c>
       <c r="J91">
-        <v>26.172450554521301</v>
+        <v>33.735022375133042</v>
       </c>
       <c r="K91">
-        <v>28.3928182016428</v>
+        <v>27.508810524472469</v>
       </c>
       <c r="L91">
-        <v>87.74544902254334</v>
+        <v>77.543988606606334</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
       <c r="N91">
-        <v>4.9102431942809366</v>
+        <v>6.1384414453635117</v>
       </c>
       <c r="O91">
-        <v>16.679650395308769</v>
+        <v>17.982164901131512</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5545,37 +5538,37 @@
         <v>100</v>
       </c>
       <c r="E92">
-        <v>99.900168850216303</v>
+        <v>99.922338217064677</v>
       </c>
       <c r="F92">
-        <v>88.336303256115343</v>
+        <v>94.184909813034523</v>
       </c>
       <c r="G92">
-        <v>84.061848874687882</v>
+        <v>90.78188105040303</v>
       </c>
       <c r="H92">
-        <v>99.745696215694991</v>
+        <v>99.618190174289111</v>
       </c>
       <c r="I92">
-        <v>85.730659025787972</v>
+        <v>91.070615034168569</v>
       </c>
       <c r="J92">
-        <v>28.93253976557666</v>
+        <v>34.511882659299992</v>
       </c>
       <c r="K92">
-        <v>31.163908212050611</v>
+        <v>33.807684040542107</v>
       </c>
       <c r="L92">
-        <v>85.172088637435166</v>
+        <v>76.692171865803417</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
-        <v>5.9250241803688786</v>
+        <v>6.6546077173697142</v>
       </c>
       <c r="O92">
-        <v>20.405097567265539</v>
+        <v>20.79392434378661</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5601,37 +5594,37 @@
         <v>100</v>
       </c>
       <c r="E93">
-        <v>99.572751385778503</v>
+        <v>99.946219911670283</v>
       </c>
       <c r="F93">
-        <v>89.479211471536217</v>
+        <v>94.266466313255165</v>
       </c>
       <c r="G93">
-        <v>87.484987459291574</v>
+        <v>92.153259187674919</v>
       </c>
       <c r="H93">
-        <v>99.859884682069278</v>
+        <v>99.501401500962317</v>
       </c>
       <c r="I93">
-        <v>40.94202898550725</v>
+        <v>92.407407407407405</v>
       </c>
       <c r="J93">
-        <v>30.183131906131859</v>
+        <v>38.559452934031157</v>
       </c>
       <c r="K93">
-        <v>39.940384667260119</v>
+        <v>39.903731247880927</v>
       </c>
       <c r="L93">
-        <v>87.829530350022154</v>
+        <v>77.90007806401249</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>7.2084522111269536</v>
+        <v>8.190687869605668</v>
       </c>
       <c r="O93">
-        <v>22.525700442604261</v>
+        <v>24.373420496305599</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5657,37 +5650,37 @@
         <v>100</v>
       </c>
       <c r="E94">
-        <v>99.802461631970829</v>
+        <v>99.940775305096906</v>
       </c>
       <c r="F94">
-        <v>94.414761188101082</v>
+        <v>94.031293117413426</v>
       </c>
       <c r="G94">
-        <v>93.241982605003997</v>
+        <v>92.977761888535724</v>
       </c>
       <c r="H94">
-        <v>99.753751863961583</v>
+        <v>99.304173527095713</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>94.534050179211476</v>
       </c>
       <c r="J94">
-        <v>33.986079942758643</v>
+        <v>37.784486832560248</v>
       </c>
       <c r="K94">
-        <v>43.100051982161922</v>
+        <v>38.609854395635232</v>
       </c>
       <c r="L94">
-        <v>87.957811775614275</v>
+        <v>78.798394968007813</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>6.8203571365656899</v>
+        <v>7.8306298291046366</v>
       </c>
       <c r="O94">
-        <v>22.025772758798372</v>
+        <v>23.748156741608369</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5713,37 +5706,37 @@
         <v>100</v>
       </c>
       <c r="E95">
-        <v>99.936909938937831</v>
+        <v>99.944214217405161</v>
       </c>
       <c r="F95">
-        <v>97.038828714591347</v>
+        <v>96.314875123591619</v>
       </c>
       <c r="G95">
-        <v>95.728897255567901</v>
+        <v>95.303797963321927</v>
       </c>
       <c r="H95">
-        <v>99.490156735687378</v>
+        <v>99.129874315178853</v>
       </c>
       <c r="I95">
-        <v>95.744680851063833</v>
+        <v>97.648686030428763</v>
       </c>
       <c r="J95">
-        <v>43.047289887751212</v>
+        <v>43.028743805995163</v>
       </c>
       <c r="K95">
-        <v>46.790597312953118</v>
+        <v>45.116036031942564</v>
       </c>
       <c r="L95">
-        <v>79.374722181063859</v>
+        <v>79.445802770986148</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>9.5983308655269894</v>
+        <v>9.9078540913572226</v>
       </c>
       <c r="O95">
-        <v>27.398866842313879</v>
+        <v>27.763617215141949</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5769,37 +5762,37 @@
         <v>100</v>
       </c>
       <c r="E96">
-        <v>99.899942071725732</v>
+        <v>99.939478167309247</v>
       </c>
       <c r="F96">
-        <v>96.203536508326948</v>
+        <v>96.92319723825112</v>
       </c>
       <c r="G96">
-        <v>94.979806387102897</v>
+        <v>96.716512956870019</v>
       </c>
       <c r="H96">
-        <v>99.846623414469548</v>
+        <v>98.89775119087183</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>99.50738916256158</v>
       </c>
       <c r="J96">
-        <v>38.668793419876813</v>
+        <v>43.645102828776302</v>
       </c>
       <c r="K96">
-        <v>47.959257206208427</v>
+        <v>46.030041992016052</v>
       </c>
       <c r="L96">
-        <v>87.717110537098065</v>
+        <v>76.095834467737546</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
       <c r="N96">
-        <v>9.7276707032804524</v>
+        <v>10.821166453365381</v>
       </c>
       <c r="O96">
-        <v>24.852047156819939</v>
+        <v>26.512756273547591</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5825,37 +5818,37 @@
         <v>100</v>
       </c>
       <c r="E97">
-        <v>99.951854462919343</v>
+        <v>99.920476117182289</v>
       </c>
       <c r="F97">
-        <v>94.471474776138578</v>
+        <v>97.641006161426006</v>
       </c>
       <c r="G97">
-        <v>94.595485344967244</v>
+        <v>97.151667160102107</v>
       </c>
       <c r="H97">
-        <v>97.823215416628969</v>
+        <v>98.033354992419319</v>
       </c>
       <c r="I97">
-        <v>99.316434064369119</v>
+        <v>99.408284023668642</v>
       </c>
       <c r="J97">
-        <v>43.797422147283513</v>
+        <v>44.627337131171487</v>
       </c>
       <c r="K97">
-        <v>43.636524040582273</v>
+        <v>47.929711582570476</v>
       </c>
       <c r="L97">
-        <v>89.393939393939391</v>
+        <v>77.910772578890089</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>11.89561303510358</v>
+        <v>11.66049571841782</v>
       </c>
       <c r="O97">
-        <v>27.018977365865961</v>
+        <v>26.215565293430839</v>
       </c>
       <c r="P97">
         <v>0</v>
